--- a/BackTest/2020-01-13 BackTest ADA.xlsx
+++ b/BackTest/2020-01-13 BackTest ADA.xlsx
@@ -451,17 +451,13 @@
         <v>41.86149999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>41.72</v>
-      </c>
-      <c r="K2" t="n">
-        <v>41.72</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>41.85399999999998</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="K3" t="n">
-        <v>41.72</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>41.84616666666664</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>41.72</v>
-      </c>
-      <c r="K4" t="n">
-        <v>41.72</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,17 +556,13 @@
         <v>41.83849999999997</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="K5" t="n">
-        <v>41.74</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -615,22 +591,14 @@
         <v>41.83049999999998</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="K6" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -658,22 +626,14 @@
         <v>41.82283333333331</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="K7" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -701,22 +661,14 @@
         <v>41.81483333333331</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>41.72</v>
-      </c>
-      <c r="K8" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -744,22 +696,14 @@
         <v>41.81016666666664</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>41.72</v>
-      </c>
-      <c r="K9" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -787,22 +731,14 @@
         <v>41.80599999999997</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>41.61</v>
-      </c>
-      <c r="K10" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -830,22 +766,14 @@
         <v>41.80066666666664</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>41.67</v>
-      </c>
-      <c r="K11" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -873,22 +801,14 @@
         <v>41.79349999999997</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="K12" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -916,22 +836,14 @@
         <v>41.7893333333333</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="K13" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -959,22 +871,14 @@
         <v>41.78399999999998</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>41.67</v>
-      </c>
-      <c r="K14" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1002,22 +906,14 @@
         <v>41.77983333333331</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="K15" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1045,22 +941,14 @@
         <v>41.77799999999998</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>41.78</v>
-      </c>
-      <c r="K16" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1088,22 +976,14 @@
         <v>41.77149999999998</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>41.71</v>
-      </c>
-      <c r="K17" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1131,22 +1011,14 @@
         <v>41.76449999999998</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>41.68</v>
-      </c>
-      <c r="K18" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1174,22 +1046,14 @@
         <v>41.75783333333332</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K19" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1217,22 +1081,14 @@
         <v>41.74999999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>41.72</v>
-      </c>
-      <c r="K20" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1260,22 +1116,14 @@
         <v>41.74649999999998</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>41.68</v>
-      </c>
-      <c r="K21" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1303,22 +1151,14 @@
         <v>41.74099999999999</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>41.68</v>
-      </c>
-      <c r="K22" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1346,22 +1186,14 @@
         <v>41.73833333333332</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>41.73</v>
-      </c>
-      <c r="K23" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1389,22 +1221,14 @@
         <v>41.73483333333332</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>41.73</v>
-      </c>
-      <c r="K24" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1432,22 +1256,14 @@
         <v>41.73366666666666</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="K25" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1475,22 +1291,14 @@
         <v>41.73466666666666</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>41.92</v>
-      </c>
-      <c r="K26" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1326,14 @@
         <v>41.73716666666665</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>41.95</v>
-      </c>
-      <c r="K27" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1561,22 +1361,14 @@
         <v>41.73949999999999</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>41.84</v>
-      </c>
-      <c r="K28" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1610,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1651,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1692,14 +1472,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1727,22 +1501,14 @@
         <v>41.73149999999999</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>41.71</v>
-      </c>
-      <c r="K32" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1770,22 +1536,14 @@
         <v>41.72549999999999</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>41.73</v>
-      </c>
-      <c r="K33" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1813,22 +1571,14 @@
         <v>41.71849999999998</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>41.73</v>
-      </c>
-      <c r="K34" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1856,22 +1606,14 @@
         <v>41.71283333333331</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>41.73</v>
-      </c>
-      <c r="K35" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1899,22 +1641,14 @@
         <v>41.71149999999999</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>41.73</v>
-      </c>
-      <c r="K36" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1942,22 +1676,14 @@
         <v>41.71199999999998</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>41.73</v>
-      </c>
-      <c r="K37" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1985,22 +1711,14 @@
         <v>41.71099999999998</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="K38" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -2028,22 +1746,14 @@
         <v>41.70666666666664</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>41.77</v>
-      </c>
-      <c r="K39" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2071,22 +1781,14 @@
         <v>41.7063333333333</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>41.77</v>
-      </c>
-      <c r="K40" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2114,22 +1816,14 @@
         <v>41.70549999999998</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>41.77</v>
-      </c>
-      <c r="K41" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2157,22 +1851,14 @@
         <v>41.70849999999997</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>41.88</v>
-      </c>
-      <c r="K42" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2200,22 +1886,14 @@
         <v>41.71199999999997</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>41.93</v>
-      </c>
-      <c r="K43" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2249,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2290,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2331,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2372,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2413,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2454,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2495,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2536,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2577,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2618,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2659,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2700,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2741,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2782,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2823,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2864,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2905,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2946,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2987,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -3028,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3069,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3110,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3151,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3192,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3233,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3274,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3315,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3356,14 +2872,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3397,14 +2907,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3435,17 +2939,11 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3476,17 +2974,11 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3517,17 +3009,11 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3558,19 +3044,13 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>1.007697652132247</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3599,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -6606,13 +6086,17 @@
         <v>41.99500000000005</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="K163" t="n">
+        <v>41.79</v>
+      </c>
       <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
@@ -6647,8 +6131,14 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6682,8 +6172,14 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6717,8 +6213,14 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6746,14 +6248,22 @@
         <v>41.98366666666671</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>41.67</v>
+      </c>
+      <c r="K167" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6787,8 +6297,14 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6816,14 +6332,22 @@
         <v>41.98083333333338</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>41.69</v>
+      </c>
+      <c r="K169" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6857,8 +6381,14 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6892,8 +6422,14 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6927,8 +6463,14 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6962,8 +6504,14 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6997,8 +6545,14 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7032,8 +6586,14 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7067,8 +6627,14 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7102,8 +6668,14 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7137,8 +6709,14 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7172,8 +6750,14 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7207,8 +6791,14 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7242,8 +6832,14 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7277,8 +6873,14 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7312,8 +6914,14 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7347,8 +6955,14 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7382,8 +6996,14 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7417,8 +7037,14 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7452,8 +7078,14 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7487,8 +7119,14 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7522,8 +7160,14 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7557,8 +7201,14 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7592,8 +7242,14 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7627,8 +7283,14 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7662,8 +7324,14 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7697,8 +7365,14 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7732,8 +7406,14 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7767,8 +7447,14 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7802,8 +7488,14 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7837,8 +7529,14 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7872,8 +7570,14 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-13 BackTest ADA.xlsx
+++ b/BackTest/2020-01-13 BackTest ADA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M199"/>
+  <dimension ref="A1:M200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>41.72</v>
       </c>
       <c r="F2" t="n">
-        <v>108107.5499</v>
+        <v>52864.681</v>
       </c>
       <c r="G2" t="n">
-        <v>41.86149999999999</v>
+        <v>41.86783333333332</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>41.74</v>
+        <v>41.72</v>
       </c>
       <c r="C3" t="n">
-        <v>41.74</v>
+        <v>41.72</v>
       </c>
       <c r="D3" t="n">
-        <v>41.74</v>
+        <v>41.72</v>
       </c>
       <c r="E3" t="n">
-        <v>41.74</v>
+        <v>41.72</v>
       </c>
       <c r="F3" t="n">
-        <v>140.9416</v>
+        <v>108107.5499</v>
       </c>
       <c r="G3" t="n">
-        <v>41.85399999999998</v>
+        <v>41.86149999999999</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>41.72</v>
+        <v>41.74</v>
       </c>
       <c r="C4" t="n">
-        <v>41.72</v>
+        <v>41.74</v>
       </c>
       <c r="D4" t="n">
-        <v>41.72</v>
+        <v>41.74</v>
       </c>
       <c r="E4" t="n">
-        <v>41.72</v>
+        <v>41.74</v>
       </c>
       <c r="F4" t="n">
-        <v>4848.2024</v>
+        <v>140.9416</v>
       </c>
       <c r="G4" t="n">
-        <v>41.84616666666664</v>
+        <v>41.85399999999998</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>41.74</v>
+        <v>41.72</v>
       </c>
       <c r="C5" t="n">
-        <v>41.74</v>
+        <v>41.72</v>
       </c>
       <c r="D5" t="n">
-        <v>41.74</v>
+        <v>41.72</v>
       </c>
       <c r="E5" t="n">
-        <v>41.74</v>
+        <v>41.72</v>
       </c>
       <c r="F5" t="n">
-        <v>51.5103</v>
+        <v>4848.2024</v>
       </c>
       <c r="G5" t="n">
-        <v>41.83849999999997</v>
+        <v>41.84616666666664</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -576,19 +576,19 @@
         <v>41.74</v>
       </c>
       <c r="C6" t="n">
-        <v>41.72</v>
+        <v>41.74</v>
       </c>
       <c r="D6" t="n">
         <v>41.74</v>
       </c>
       <c r="E6" t="n">
-        <v>41.72</v>
+        <v>41.74</v>
       </c>
       <c r="F6" t="n">
-        <v>6824.9754</v>
+        <v>51.5103</v>
       </c>
       <c r="G6" t="n">
-        <v>41.83049999999998</v>
+        <v>41.83849999999997</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -611,19 +611,19 @@
         <v>41.74</v>
       </c>
       <c r="C7" t="n">
-        <v>41.74</v>
+        <v>41.72</v>
       </c>
       <c r="D7" t="n">
         <v>41.74</v>
       </c>
       <c r="E7" t="n">
-        <v>41.74</v>
+        <v>41.72</v>
       </c>
       <c r="F7" t="n">
-        <v>99.02119999999999</v>
+        <v>6824.9754</v>
       </c>
       <c r="G7" t="n">
-        <v>41.82283333333331</v>
+        <v>41.83049999999998</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>41.72</v>
+        <v>41.74</v>
       </c>
       <c r="C8" t="n">
-        <v>41.72</v>
+        <v>41.74</v>
       </c>
       <c r="D8" t="n">
-        <v>41.72</v>
+        <v>41.74</v>
       </c>
       <c r="E8" t="n">
-        <v>41.72</v>
+        <v>41.74</v>
       </c>
       <c r="F8" t="n">
-        <v>13584.5575</v>
+        <v>99.02119999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>41.81483333333331</v>
+        <v>41.82283333333331</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>41.72</v>
       </c>
       <c r="F9" t="n">
-        <v>2796.6534</v>
+        <v>13584.5575</v>
       </c>
       <c r="G9" t="n">
-        <v>41.81016666666664</v>
+        <v>41.81483333333331</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>41.61</v>
+        <v>41.72</v>
       </c>
       <c r="C10" t="n">
-        <v>41.74</v>
+        <v>41.72</v>
       </c>
       <c r="D10" t="n">
-        <v>41.74</v>
+        <v>41.72</v>
       </c>
       <c r="E10" t="n">
-        <v>41.55</v>
+        <v>41.72</v>
       </c>
       <c r="F10" t="n">
-        <v>112792.1201</v>
+        <v>2796.6534</v>
       </c>
       <c r="G10" t="n">
-        <v>41.80599999999997</v>
+        <v>41.81016666666664</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>41.67</v>
+        <v>41.61</v>
       </c>
       <c r="C11" t="n">
-        <v>41.67</v>
+        <v>41.74</v>
       </c>
       <c r="D11" t="n">
-        <v>41.67</v>
+        <v>41.74</v>
       </c>
       <c r="E11" t="n">
-        <v>41.67</v>
+        <v>41.55</v>
       </c>
       <c r="F11" t="n">
-        <v>5362.6411</v>
+        <v>112792.1201</v>
       </c>
       <c r="G11" t="n">
-        <v>41.80066666666664</v>
+        <v>41.80599999999997</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>41.74</v>
+        <v>41.67</v>
       </c>
       <c r="C12" t="n">
-        <v>41.74</v>
+        <v>41.67</v>
       </c>
       <c r="D12" t="n">
-        <v>41.74</v>
+        <v>41.67</v>
       </c>
       <c r="E12" t="n">
-        <v>41.74</v>
+        <v>41.67</v>
       </c>
       <c r="F12" t="n">
-        <v>3922.6322</v>
+        <v>5362.6411</v>
       </c>
       <c r="G12" t="n">
-        <v>41.79349999999997</v>
+        <v>41.80066666666664</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>41.74</v>
       </c>
       <c r="F13" t="n">
-        <v>1214.0304</v>
+        <v>3922.6322</v>
       </c>
       <c r="G13" t="n">
-        <v>41.7893333333333</v>
+        <v>41.79349999999997</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>41.67</v>
+        <v>41.74</v>
       </c>
       <c r="C14" t="n">
-        <v>41.67</v>
+        <v>41.74</v>
       </c>
       <c r="D14" t="n">
-        <v>41.67</v>
+        <v>41.74</v>
       </c>
       <c r="E14" t="n">
-        <v>41.67</v>
+        <v>41.74</v>
       </c>
       <c r="F14" t="n">
-        <v>3922.6322</v>
+        <v>1214.0304</v>
       </c>
       <c r="G14" t="n">
-        <v>41.78399999999998</v>
+        <v>41.7893333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>41.74</v>
+        <v>41.67</v>
       </c>
       <c r="C15" t="n">
-        <v>41.74</v>
+        <v>41.67</v>
       </c>
       <c r="D15" t="n">
-        <v>41.74</v>
+        <v>41.67</v>
       </c>
       <c r="E15" t="n">
-        <v>41.74</v>
+        <v>41.67</v>
       </c>
       <c r="F15" t="n">
-        <v>16383.604</v>
+        <v>3922.6322</v>
       </c>
       <c r="G15" t="n">
-        <v>41.77983333333331</v>
+        <v>41.78399999999998</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>41.78</v>
+        <v>41.74</v>
       </c>
       <c r="C16" t="n">
-        <v>41.78</v>
+        <v>41.74</v>
       </c>
       <c r="D16" t="n">
-        <v>41.78</v>
+        <v>41.74</v>
       </c>
       <c r="E16" t="n">
-        <v>41.78</v>
+        <v>41.74</v>
       </c>
       <c r="F16" t="n">
-        <v>3717</v>
+        <v>16383.604</v>
       </c>
       <c r="G16" t="n">
-        <v>41.77799999999998</v>
+        <v>41.77983333333331</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>41.71</v>
+        <v>41.78</v>
       </c>
       <c r="C17" t="n">
-        <v>41.71</v>
+        <v>41.78</v>
       </c>
       <c r="D17" t="n">
-        <v>41.71</v>
+        <v>41.78</v>
       </c>
       <c r="E17" t="n">
-        <v>41.71</v>
+        <v>41.78</v>
       </c>
       <c r="F17" t="n">
-        <v>1995</v>
+        <v>3717</v>
       </c>
       <c r="G17" t="n">
-        <v>41.77149999999998</v>
+        <v>41.77799999999998</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>41.68</v>
+        <v>41.71</v>
       </c>
       <c r="C18" t="n">
-        <v>41.68</v>
+        <v>41.71</v>
       </c>
       <c r="D18" t="n">
-        <v>41.68</v>
+        <v>41.71</v>
       </c>
       <c r="E18" t="n">
-        <v>41.68</v>
+        <v>41.71</v>
       </c>
       <c r="F18" t="n">
-        <v>1202.6899</v>
+        <v>1995</v>
       </c>
       <c r="G18" t="n">
-        <v>41.76449999999998</v>
+        <v>41.77149999999998</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>41.8</v>
+        <v>41.68</v>
       </c>
       <c r="C19" t="n">
-        <v>41.8</v>
+        <v>41.68</v>
       </c>
       <c r="D19" t="n">
-        <v>41.8</v>
+        <v>41.68</v>
       </c>
       <c r="E19" t="n">
-        <v>41.8</v>
+        <v>41.68</v>
       </c>
       <c r="F19" t="n">
-        <v>7669.2344</v>
+        <v>1202.6899</v>
       </c>
       <c r="G19" t="n">
-        <v>41.75783333333332</v>
+        <v>41.76449999999998</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>41.72</v>
+        <v>41.8</v>
       </c>
       <c r="C20" t="n">
-        <v>41.72</v>
+        <v>41.8</v>
       </c>
       <c r="D20" t="n">
-        <v>41.72</v>
+        <v>41.8</v>
       </c>
       <c r="E20" t="n">
-        <v>41.72</v>
+        <v>41.8</v>
       </c>
       <c r="F20" t="n">
-        <v>2374.3689</v>
+        <v>7669.2344</v>
       </c>
       <c r="G20" t="n">
-        <v>41.74999999999999</v>
+        <v>41.75783333333332</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>41.68</v>
+        <v>41.72</v>
       </c>
       <c r="C21" t="n">
-        <v>41.68</v>
+        <v>41.72</v>
       </c>
       <c r="D21" t="n">
-        <v>41.68</v>
+        <v>41.72</v>
       </c>
       <c r="E21" t="n">
-        <v>41.68</v>
+        <v>41.72</v>
       </c>
       <c r="F21" t="n">
-        <v>1395.8465</v>
+        <v>2374.3689</v>
       </c>
       <c r="G21" t="n">
-        <v>41.74649999999998</v>
+        <v>41.74999999999999</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>41.68</v>
       </c>
       <c r="C22" t="n">
-        <v>41.67</v>
+        <v>41.68</v>
       </c>
       <c r="D22" t="n">
         <v>41.68</v>
       </c>
       <c r="E22" t="n">
-        <v>41.67</v>
+        <v>41.68</v>
       </c>
       <c r="F22" t="n">
-        <v>10596.4667</v>
+        <v>1395.8465</v>
       </c>
       <c r="G22" t="n">
-        <v>41.74099999999999</v>
+        <v>41.74649999999998</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>41.73</v>
+        <v>41.68</v>
       </c>
       <c r="C23" t="n">
-        <v>41.73</v>
+        <v>41.67</v>
       </c>
       <c r="D23" t="n">
-        <v>41.73</v>
+        <v>41.68</v>
       </c>
       <c r="E23" t="n">
-        <v>41.73</v>
+        <v>41.67</v>
       </c>
       <c r="F23" t="n">
-        <v>7559.9932</v>
+        <v>10596.4667</v>
       </c>
       <c r="G23" t="n">
-        <v>41.73833333333332</v>
+        <v>41.74099999999999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1206,19 +1206,19 @@
         <v>41.73</v>
       </c>
       <c r="C24" t="n">
-        <v>41.68</v>
+        <v>41.73</v>
       </c>
       <c r="D24" t="n">
         <v>41.73</v>
       </c>
       <c r="E24" t="n">
-        <v>41.68</v>
+        <v>41.73</v>
       </c>
       <c r="F24" t="n">
-        <v>21970.517</v>
+        <v>7559.9932</v>
       </c>
       <c r="G24" t="n">
-        <v>41.73483333333332</v>
+        <v>41.73833333333332</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>41.7</v>
+        <v>41.73</v>
       </c>
       <c r="C25" t="n">
-        <v>41.82</v>
+        <v>41.68</v>
       </c>
       <c r="D25" t="n">
-        <v>41.82</v>
+        <v>41.73</v>
       </c>
       <c r="E25" t="n">
-        <v>41.7</v>
+        <v>41.68</v>
       </c>
       <c r="F25" t="n">
-        <v>1079.0449</v>
+        <v>21970.517</v>
       </c>
       <c r="G25" t="n">
-        <v>41.73366666666666</v>
+        <v>41.73483333333332</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>41.92</v>
+        <v>41.7</v>
       </c>
       <c r="C26" t="n">
-        <v>41.7</v>
+        <v>41.82</v>
       </c>
       <c r="D26" t="n">
-        <v>41.92</v>
+        <v>41.82</v>
       </c>
       <c r="E26" t="n">
         <v>41.7</v>
       </c>
       <c r="F26" t="n">
-        <v>1652.6237</v>
+        <v>1079.0449</v>
       </c>
       <c r="G26" t="n">
-        <v>41.73466666666666</v>
+        <v>41.73366666666666</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>41.95</v>
+        <v>41.92</v>
       </c>
       <c r="C27" t="n">
-        <v>41.95</v>
+        <v>41.7</v>
       </c>
       <c r="D27" t="n">
-        <v>41.95</v>
+        <v>41.92</v>
       </c>
       <c r="E27" t="n">
-        <v>41.95</v>
+        <v>41.7</v>
       </c>
       <c r="F27" t="n">
-        <v>33.8699</v>
+        <v>1652.6237</v>
       </c>
       <c r="G27" t="n">
-        <v>41.73716666666665</v>
+        <v>41.73466666666666</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>41.84</v>
+        <v>41.95</v>
       </c>
       <c r="C28" t="n">
-        <v>41.84</v>
+        <v>41.95</v>
       </c>
       <c r="D28" t="n">
-        <v>41.84</v>
+        <v>41.95</v>
       </c>
       <c r="E28" t="n">
-        <v>41.84</v>
+        <v>41.95</v>
       </c>
       <c r="F28" t="n">
-        <v>59.99043977</v>
+        <v>33.8699</v>
       </c>
       <c r="G28" t="n">
-        <v>41.73949999999999</v>
+        <v>41.73716666666665</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>41.84</v>
       </c>
       <c r="F29" t="n">
-        <v>34.99043977</v>
+        <v>59.99043977</v>
       </c>
       <c r="G29" t="n">
-        <v>41.74283333333333</v>
+        <v>41.73949999999999</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>41.67</v>
+        <v>41.84</v>
       </c>
       <c r="C30" t="n">
-        <v>41.67</v>
+        <v>41.84</v>
       </c>
       <c r="D30" t="n">
-        <v>41.67</v>
+        <v>41.84</v>
       </c>
       <c r="E30" t="n">
-        <v>41.67</v>
+        <v>41.84</v>
       </c>
       <c r="F30" t="n">
-        <v>4033.6067</v>
+        <v>34.99043977</v>
       </c>
       <c r="G30" t="n">
-        <v>41.73933333333333</v>
+        <v>41.74283333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>41.71</v>
+        <v>41.67</v>
       </c>
       <c r="C31" t="n">
-        <v>41.71</v>
+        <v>41.67</v>
       </c>
       <c r="D31" t="n">
-        <v>41.71</v>
+        <v>41.67</v>
       </c>
       <c r="E31" t="n">
-        <v>41.71</v>
+        <v>41.67</v>
       </c>
       <c r="F31" t="n">
-        <v>51.1538</v>
+        <v>4033.6067</v>
       </c>
       <c r="G31" t="n">
-        <v>41.73783333333333</v>
+        <v>41.73933333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>41.71</v>
       </c>
       <c r="F32" t="n">
-        <v>25.5769</v>
+        <v>51.1538</v>
       </c>
       <c r="G32" t="n">
-        <v>41.73149999999999</v>
+        <v>41.73783333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>41.73</v>
+        <v>41.71</v>
       </c>
       <c r="C33" t="n">
-        <v>41.73</v>
+        <v>41.71</v>
       </c>
       <c r="D33" t="n">
-        <v>41.73</v>
+        <v>41.71</v>
       </c>
       <c r="E33" t="n">
-        <v>41.73</v>
+        <v>41.71</v>
       </c>
       <c r="F33" t="n">
-        <v>230</v>
+        <v>25.5769</v>
       </c>
       <c r="G33" t="n">
-        <v>41.72549999999999</v>
+        <v>41.73149999999999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         <v>41.73</v>
       </c>
       <c r="F34" t="n">
-        <v>1693</v>
+        <v>230</v>
       </c>
       <c r="G34" t="n">
-        <v>41.71849999999998</v>
+        <v>41.72549999999999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>41.73</v>
       </c>
       <c r="F35" t="n">
-        <v>1036.9515</v>
+        <v>1693</v>
       </c>
       <c r="G35" t="n">
-        <v>41.71283333333331</v>
+        <v>41.71849999999998</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>41.73</v>
       </c>
       <c r="F36" t="n">
-        <v>6024.1666</v>
+        <v>1036.9515</v>
       </c>
       <c r="G36" t="n">
-        <v>41.71149999999999</v>
+        <v>41.71283333333331</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>41.73</v>
       </c>
       <c r="C37" t="n">
-        <v>41.83</v>
+        <v>41.73</v>
       </c>
       <c r="D37" t="n">
-        <v>41.83</v>
+        <v>41.73</v>
       </c>
       <c r="E37" t="n">
         <v>41.73</v>
       </c>
       <c r="F37" t="n">
-        <v>76.0663</v>
+        <v>6024.1666</v>
       </c>
       <c r="G37" t="n">
-        <v>41.71199999999998</v>
+        <v>41.71149999999999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>41.74</v>
+        <v>41.73</v>
       </c>
       <c r="C38" t="n">
-        <v>41.74</v>
+        <v>41.83</v>
       </c>
       <c r="D38" t="n">
-        <v>41.74</v>
+        <v>41.83</v>
       </c>
       <c r="E38" t="n">
-        <v>41.74</v>
+        <v>41.73</v>
       </c>
       <c r="F38" t="n">
-        <v>1874.9</v>
+        <v>76.0663</v>
       </c>
       <c r="G38" t="n">
-        <v>41.71099999999998</v>
+        <v>41.71199999999998</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>41.77</v>
+        <v>41.74</v>
       </c>
       <c r="C39" t="n">
-        <v>41.77</v>
+        <v>41.74</v>
       </c>
       <c r="D39" t="n">
-        <v>41.77</v>
+        <v>41.74</v>
       </c>
       <c r="E39" t="n">
-        <v>41.77</v>
+        <v>41.74</v>
       </c>
       <c r="F39" t="n">
-        <v>2004.9331</v>
+        <v>1874.9</v>
       </c>
       <c r="G39" t="n">
-        <v>41.70666666666664</v>
+        <v>41.71099999999998</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,10 +1775,10 @@
         <v>41.77</v>
       </c>
       <c r="F40" t="n">
-        <v>154.6792</v>
+        <v>2004.9331</v>
       </c>
       <c r="G40" t="n">
-        <v>41.7063333333333</v>
+        <v>41.70666666666664</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1801,19 +1801,19 @@
         <v>41.77</v>
       </c>
       <c r="C41" t="n">
-        <v>41.88</v>
+        <v>41.77</v>
       </c>
       <c r="D41" t="n">
-        <v>41.88</v>
+        <v>41.77</v>
       </c>
       <c r="E41" t="n">
         <v>41.77</v>
       </c>
       <c r="F41" t="n">
-        <v>23881.45806749</v>
+        <v>154.6792</v>
       </c>
       <c r="G41" t="n">
-        <v>41.70549999999998</v>
+        <v>41.7063333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
+        <v>41.77</v>
+      </c>
+      <c r="C42" t="n">
         <v>41.88</v>
       </c>
-      <c r="C42" t="n">
-        <v>41.93</v>
-      </c>
       <c r="D42" t="n">
-        <v>41.93</v>
+        <v>41.88</v>
       </c>
       <c r="E42" t="n">
-        <v>41.83</v>
+        <v>41.77</v>
       </c>
       <c r="F42" t="n">
-        <v>27481.2048</v>
+        <v>23881.45806749</v>
       </c>
       <c r="G42" t="n">
-        <v>41.70849999999997</v>
+        <v>41.70549999999998</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
+        <v>41.88</v>
+      </c>
+      <c r="C43" t="n">
         <v>41.93</v>
       </c>
-      <c r="C43" t="n">
-        <v>41.94</v>
-      </c>
       <c r="D43" t="n">
-        <v>41.95</v>
+        <v>41.93</v>
       </c>
       <c r="E43" t="n">
-        <v>41.93</v>
+        <v>41.83</v>
       </c>
       <c r="F43" t="n">
-        <v>21230.4244</v>
+        <v>27481.2048</v>
       </c>
       <c r="G43" t="n">
-        <v>41.71199999999997</v>
+        <v>41.70849999999997</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1906,19 +1906,19 @@
         <v>41.93</v>
       </c>
       <c r="C44" t="n">
-        <v>41.97</v>
+        <v>41.94</v>
       </c>
       <c r="D44" t="n">
-        <v>41.97</v>
+        <v>41.95</v>
       </c>
       <c r="E44" t="n">
-        <v>41.89</v>
+        <v>41.93</v>
       </c>
       <c r="F44" t="n">
-        <v>21852.6187</v>
+        <v>21230.4244</v>
       </c>
       <c r="G44" t="n">
-        <v>41.71816666666664</v>
+        <v>41.71199999999997</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,10 +1938,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>41.93</v>
+      </c>
+      <c r="C45" t="n">
         <v>41.97</v>
-      </c>
-      <c r="C45" t="n">
-        <v>41.89</v>
       </c>
       <c r="D45" t="n">
         <v>41.97</v>
@@ -1950,10 +1950,10 @@
         <v>41.89</v>
       </c>
       <c r="F45" t="n">
-        <v>34570.8066</v>
+        <v>21852.6187</v>
       </c>
       <c r="G45" t="n">
-        <v>41.72299999999997</v>
+        <v>41.71816666666664</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>42</v>
+        <v>41.97</v>
       </c>
       <c r="C46" t="n">
-        <v>42</v>
+        <v>41.89</v>
       </c>
       <c r="D46" t="n">
-        <v>42</v>
+        <v>41.97</v>
       </c>
       <c r="E46" t="n">
-        <v>42</v>
+        <v>41.89</v>
       </c>
       <c r="F46" t="n">
-        <v>425.8104</v>
+        <v>34570.8066</v>
       </c>
       <c r="G46" t="n">
-        <v>41.72966666666664</v>
+        <v>41.72299999999997</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>41.89</v>
+        <v>42</v>
       </c>
       <c r="C47" t="n">
-        <v>41.85</v>
+        <v>42</v>
       </c>
       <c r="D47" t="n">
-        <v>41.89</v>
+        <v>42</v>
       </c>
       <c r="E47" t="n">
-        <v>41.85</v>
+        <v>42</v>
       </c>
       <c r="F47" t="n">
-        <v>11072.7275</v>
+        <v>425.8104</v>
       </c>
       <c r="G47" t="n">
-        <v>41.73383333333331</v>
+        <v>41.72966666666664</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>41.95</v>
+        <v>41.89</v>
       </c>
       <c r="C48" t="n">
-        <v>41.95</v>
+        <v>41.85</v>
       </c>
       <c r="D48" t="n">
-        <v>41.95</v>
+        <v>41.89</v>
       </c>
       <c r="E48" t="n">
-        <v>41.95</v>
+        <v>41.85</v>
       </c>
       <c r="F48" t="n">
-        <v>95.79840178000001</v>
+        <v>11072.7275</v>
       </c>
       <c r="G48" t="n">
-        <v>41.7388333333333</v>
+        <v>41.73383333333331</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>41.77</v>
+        <v>41.95</v>
       </c>
       <c r="C49" t="n">
-        <v>41.77</v>
+        <v>41.95</v>
       </c>
       <c r="D49" t="n">
-        <v>41.77</v>
+        <v>41.95</v>
       </c>
       <c r="E49" t="n">
-        <v>41.77</v>
+        <v>41.95</v>
       </c>
       <c r="F49" t="n">
-        <v>96.1905</v>
+        <v>95.79840178000001</v>
       </c>
       <c r="G49" t="n">
-        <v>41.73999999999997</v>
+        <v>41.7388333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>41.95</v>
+        <v>41.77</v>
       </c>
       <c r="C50" t="n">
-        <v>41.95</v>
+        <v>41.77</v>
       </c>
       <c r="D50" t="n">
-        <v>41.95</v>
+        <v>41.77</v>
       </c>
       <c r="E50" t="n">
-        <v>41.95</v>
+        <v>41.77</v>
       </c>
       <c r="F50" t="n">
-        <v>20.0071</v>
+        <v>96.1905</v>
       </c>
       <c r="G50" t="n">
-        <v>41.7458333333333</v>
+        <v>41.73999999999997</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>41.9</v>
+        <v>41.95</v>
       </c>
       <c r="C51" t="n">
-        <v>41.9</v>
+        <v>41.95</v>
       </c>
       <c r="D51" t="n">
-        <v>41.9</v>
+        <v>41.95</v>
       </c>
       <c r="E51" t="n">
-        <v>41.9</v>
+        <v>41.95</v>
       </c>
       <c r="F51" t="n">
-        <v>1687.726</v>
+        <v>20.0071</v>
       </c>
       <c r="G51" t="n">
-        <v>41.7508333333333</v>
+        <v>41.7458333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>41.92</v>
+        <v>41.9</v>
       </c>
       <c r="C52" t="n">
-        <v>41.92</v>
+        <v>41.9</v>
       </c>
       <c r="D52" t="n">
-        <v>41.92</v>
+        <v>41.9</v>
       </c>
       <c r="E52" t="n">
-        <v>41.92</v>
+        <v>41.9</v>
       </c>
       <c r="F52" t="n">
-        <v>45.22767175</v>
+        <v>1687.726</v>
       </c>
       <c r="G52" t="n">
-        <v>41.75616666666664</v>
+        <v>41.7508333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>41.9</v>
+        <v>41.92</v>
       </c>
       <c r="C53" t="n">
-        <v>41.77</v>
+        <v>41.92</v>
       </c>
       <c r="D53" t="n">
-        <v>41.9</v>
+        <v>41.92</v>
       </c>
       <c r="E53" t="n">
-        <v>41.77</v>
+        <v>41.92</v>
       </c>
       <c r="F53" t="n">
-        <v>21504.5693</v>
+        <v>45.22767175</v>
       </c>
       <c r="G53" t="n">
-        <v>41.75899999999998</v>
+        <v>41.75616666666664</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2256,19 +2256,19 @@
         <v>41.9</v>
       </c>
       <c r="C54" t="n">
-        <v>41.9</v>
+        <v>41.77</v>
       </c>
       <c r="D54" t="n">
         <v>41.9</v>
       </c>
       <c r="E54" t="n">
-        <v>41.9</v>
+        <v>41.77</v>
       </c>
       <c r="F54" t="n">
-        <v>15.0989</v>
+        <v>21504.5693</v>
       </c>
       <c r="G54" t="n">
-        <v>41.76399999999998</v>
+        <v>41.75899999999998</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>41.78</v>
+        <v>41.9</v>
       </c>
       <c r="C55" t="n">
-        <v>41.78</v>
+        <v>41.9</v>
       </c>
       <c r="D55" t="n">
-        <v>41.78</v>
+        <v>41.9</v>
       </c>
       <c r="E55" t="n">
-        <v>41.78</v>
+        <v>41.9</v>
       </c>
       <c r="F55" t="n">
-        <v>18177.9966</v>
+        <v>15.0989</v>
       </c>
       <c r="G55" t="n">
-        <v>41.76699999999998</v>
+        <v>41.76399999999998</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>41.77</v>
+        <v>41.78</v>
       </c>
       <c r="C56" t="n">
-        <v>41.77</v>
+        <v>41.78</v>
       </c>
       <c r="D56" t="n">
-        <v>41.77</v>
+        <v>41.78</v>
       </c>
       <c r="E56" t="n">
-        <v>41.77</v>
+        <v>41.78</v>
       </c>
       <c r="F56" t="n">
-        <v>2318.5768</v>
+        <v>18177.9966</v>
       </c>
       <c r="G56" t="n">
-        <v>41.76899999999998</v>
+        <v>41.76699999999998</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2361,19 +2361,19 @@
         <v>41.77</v>
       </c>
       <c r="C57" t="n">
-        <v>41.86</v>
+        <v>41.77</v>
       </c>
       <c r="D57" t="n">
-        <v>41.86</v>
+        <v>41.77</v>
       </c>
       <c r="E57" t="n">
         <v>41.77</v>
       </c>
       <c r="F57" t="n">
-        <v>923.2971</v>
+        <v>2318.5768</v>
       </c>
       <c r="G57" t="n">
-        <v>41.77333333333332</v>
+        <v>41.76899999999998</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
+        <v>41.77</v>
+      </c>
+      <c r="C58" t="n">
         <v>41.86</v>
-      </c>
-      <c r="C58" t="n">
-        <v>41.78</v>
       </c>
       <c r="D58" t="n">
         <v>41.86</v>
       </c>
       <c r="E58" t="n">
-        <v>41.78</v>
+        <v>41.77</v>
       </c>
       <c r="F58" t="n">
-        <v>3428.1275</v>
+        <v>923.2971</v>
       </c>
       <c r="G58" t="n">
-        <v>41.77633333333333</v>
+        <v>41.77333333333332</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>41.82</v>
+        <v>41.86</v>
       </c>
       <c r="C59" t="n">
-        <v>41.82</v>
+        <v>41.78</v>
       </c>
       <c r="D59" t="n">
-        <v>41.82</v>
+        <v>41.86</v>
       </c>
       <c r="E59" t="n">
-        <v>41.82</v>
+        <v>41.78</v>
       </c>
       <c r="F59" t="n">
-        <v>46.742</v>
+        <v>3428.1275</v>
       </c>
       <c r="G59" t="n">
-        <v>41.77999999999999</v>
+        <v>41.77633333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>41.92</v>
+        <v>41.82</v>
       </c>
       <c r="C60" t="n">
-        <v>41.92</v>
+        <v>41.82</v>
       </c>
       <c r="D60" t="n">
-        <v>41.92</v>
+        <v>41.82</v>
       </c>
       <c r="E60" t="n">
-        <v>41.92</v>
+        <v>41.82</v>
       </c>
       <c r="F60" t="n">
-        <v>70</v>
+        <v>46.742</v>
       </c>
       <c r="G60" t="n">
-        <v>41.78516666666666</v>
+        <v>41.77999999999999</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2510,10 +2510,10 @@
         <v>41.92</v>
       </c>
       <c r="F61" t="n">
-        <v>1905.70982825</v>
+        <v>70</v>
       </c>
       <c r="G61" t="n">
-        <v>41.7885</v>
+        <v>41.78516666666666</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>41.97</v>
+        <v>41.92</v>
       </c>
       <c r="C62" t="n">
-        <v>41.95</v>
+        <v>41.92</v>
       </c>
       <c r="D62" t="n">
-        <v>41.97</v>
+        <v>41.92</v>
       </c>
       <c r="E62" t="n">
-        <v>41.95</v>
+        <v>41.92</v>
       </c>
       <c r="F62" t="n">
-        <v>3604.9707</v>
+        <v>1905.70982825</v>
       </c>
       <c r="G62" t="n">
-        <v>41.79233333333333</v>
+        <v>41.7885</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>41.92</v>
+        <v>41.97</v>
       </c>
       <c r="C63" t="n">
-        <v>41.97</v>
+        <v>41.95</v>
       </c>
       <c r="D63" t="n">
         <v>41.97</v>
       </c>
       <c r="E63" t="n">
-        <v>41.85</v>
+        <v>41.95</v>
       </c>
       <c r="F63" t="n">
-        <v>845.0281</v>
+        <v>3604.9707</v>
       </c>
       <c r="G63" t="n">
-        <v>41.79616666666666</v>
+        <v>41.79233333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>41.97</v>
+        <v>41.92</v>
       </c>
       <c r="C64" t="n">
         <v>41.97</v>
@@ -2612,13 +2612,13 @@
         <v>41.97</v>
       </c>
       <c r="E64" t="n">
-        <v>41.97</v>
+        <v>41.85</v>
       </c>
       <c r="F64" t="n">
-        <v>290.1818</v>
+        <v>845.0281</v>
       </c>
       <c r="G64" t="n">
-        <v>41.80033333333333</v>
+        <v>41.79616666666666</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,10 +2650,10 @@
         <v>41.97</v>
       </c>
       <c r="F65" t="n">
-        <v>5560.8066</v>
+        <v>290.1818</v>
       </c>
       <c r="G65" t="n">
-        <v>41.80416666666667</v>
+        <v>41.80033333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2685,10 +2685,10 @@
         <v>41.97</v>
       </c>
       <c r="F66" t="n">
-        <v>23274.69</v>
+        <v>5560.8066</v>
       </c>
       <c r="G66" t="n">
-        <v>41.80833333333333</v>
+        <v>41.80416666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2711,19 +2711,19 @@
         <v>41.97</v>
       </c>
       <c r="C67" t="n">
-        <v>42.07</v>
+        <v>41.97</v>
       </c>
       <c r="D67" t="n">
-        <v>42.07</v>
+        <v>41.97</v>
       </c>
       <c r="E67" t="n">
         <v>41.97</v>
       </c>
       <c r="F67" t="n">
-        <v>31366.6955</v>
+        <v>23274.69</v>
       </c>
       <c r="G67" t="n">
-        <v>41.81383333333334</v>
+        <v>41.80833333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>42.04</v>
+        <v>41.97</v>
       </c>
       <c r="C68" t="n">
-        <v>42.04</v>
+        <v>42.07</v>
       </c>
       <c r="D68" t="n">
-        <v>42.04</v>
+        <v>42.07</v>
       </c>
       <c r="E68" t="n">
-        <v>42.04</v>
+        <v>41.97</v>
       </c>
       <c r="F68" t="n">
-        <v>7668.8</v>
+        <v>31366.6955</v>
       </c>
       <c r="G68" t="n">
-        <v>41.81916666666667</v>
+        <v>41.81383333333334</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>42.07</v>
+        <v>42.04</v>
       </c>
       <c r="C69" t="n">
-        <v>42.15</v>
+        <v>42.04</v>
       </c>
       <c r="D69" t="n">
-        <v>42.15</v>
+        <v>42.04</v>
       </c>
       <c r="E69" t="n">
-        <v>42.07</v>
+        <v>42.04</v>
       </c>
       <c r="F69" t="n">
-        <v>44.9318</v>
+        <v>7668.8</v>
       </c>
       <c r="G69" t="n">
-        <v>41.82633333333334</v>
+        <v>41.81916666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>42.15</v>
+        <v>42.07</v>
       </c>
       <c r="C70" t="n">
         <v>42.15</v>
@@ -2822,13 +2822,13 @@
         <v>42.15</v>
       </c>
       <c r="E70" t="n">
-        <v>42.15</v>
+        <v>42.07</v>
       </c>
       <c r="F70" t="n">
-        <v>7404.6153</v>
+        <v>44.9318</v>
       </c>
       <c r="G70" t="n">
-        <v>41.83316666666668</v>
+        <v>41.82633333333334</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>42.06</v>
+        <v>42.15</v>
       </c>
       <c r="C71" t="n">
-        <v>42.27</v>
+        <v>42.15</v>
       </c>
       <c r="D71" t="n">
-        <v>42.27</v>
+        <v>42.15</v>
       </c>
       <c r="E71" t="n">
-        <v>42.06</v>
+        <v>42.15</v>
       </c>
       <c r="F71" t="n">
-        <v>7651.2934</v>
+        <v>7404.6153</v>
       </c>
       <c r="G71" t="n">
-        <v>41.84316666666668</v>
+        <v>41.83316666666668</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>42.17</v>
+        <v>42.06</v>
       </c>
       <c r="C72" t="n">
-        <v>42.18</v>
+        <v>42.27</v>
       </c>
       <c r="D72" t="n">
-        <v>42.18</v>
+        <v>42.27</v>
       </c>
       <c r="E72" t="n">
-        <v>42.17</v>
+        <v>42.06</v>
       </c>
       <c r="F72" t="n">
-        <v>700.987</v>
+        <v>7651.2934</v>
       </c>
       <c r="G72" t="n">
-        <v>41.85050000000002</v>
+        <v>41.84316666666668</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>42.18</v>
+        <v>42.17</v>
       </c>
       <c r="C73" t="n">
         <v>42.18</v>
@@ -2927,19 +2927,19 @@
         <v>42.18</v>
       </c>
       <c r="E73" t="n">
-        <v>42.18</v>
+        <v>42.17</v>
       </c>
       <c r="F73" t="n">
-        <v>198.395</v>
+        <v>700.987</v>
       </c>
       <c r="G73" t="n">
-        <v>41.85783333333335</v>
+        <v>41.85050000000002</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -2953,28 +2953,28 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>42.17</v>
+        <v>42.18</v>
       </c>
       <c r="C74" t="n">
-        <v>42.17</v>
+        <v>42.18</v>
       </c>
       <c r="D74" t="n">
-        <v>42.17</v>
+        <v>42.18</v>
       </c>
       <c r="E74" t="n">
-        <v>42.17</v>
+        <v>42.18</v>
       </c>
       <c r="F74" t="n">
-        <v>6699.4182</v>
+        <v>198.395</v>
       </c>
       <c r="G74" t="n">
-        <v>41.86616666666669</v>
+        <v>41.85783333333335</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -2988,28 +2988,28 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>42.15</v>
+        <v>42.17</v>
       </c>
       <c r="C75" t="n">
-        <v>42.15</v>
+        <v>42.17</v>
       </c>
       <c r="D75" t="n">
-        <v>42.15</v>
+        <v>42.17</v>
       </c>
       <c r="E75" t="n">
-        <v>42.15</v>
+        <v>42.17</v>
       </c>
       <c r="F75" t="n">
-        <v>9460.9354</v>
+        <v>6699.4182</v>
       </c>
       <c r="G75" t="n">
-        <v>41.87300000000003</v>
+        <v>41.86616666666669</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3023,28 +3023,28 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>42.27</v>
+        <v>42.15</v>
       </c>
       <c r="C76" t="n">
-        <v>42.27</v>
+        <v>42.15</v>
       </c>
       <c r="D76" t="n">
-        <v>42.27</v>
+        <v>42.15</v>
       </c>
       <c r="E76" t="n">
-        <v>42.2</v>
+        <v>42.15</v>
       </c>
       <c r="F76" t="n">
-        <v>1869.90760066</v>
+        <v>9460.9354</v>
       </c>
       <c r="G76" t="n">
-        <v>41.88116666666669</v>
+        <v>41.87300000000003</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3058,28 +3058,28 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
+        <v>42.27</v>
+      </c>
+      <c r="C77" t="n">
+        <v>42.27</v>
+      </c>
+      <c r="D77" t="n">
+        <v>42.27</v>
+      </c>
+      <c r="E77" t="n">
         <v>42.2</v>
       </c>
-      <c r="C77" t="n">
-        <v>42.15</v>
-      </c>
-      <c r="D77" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="E77" t="n">
-        <v>42.15</v>
-      </c>
       <c r="F77" t="n">
-        <v>25054.9964</v>
+        <v>1869.90760066</v>
       </c>
       <c r="G77" t="n">
-        <v>41.88850000000002</v>
+        <v>41.88116666666669</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>42.15</v>
+        <v>42.2</v>
       </c>
       <c r="C78" t="n">
         <v>42.15</v>
       </c>
       <c r="D78" t="n">
-        <v>42.15</v>
+        <v>42.2</v>
       </c>
       <c r="E78" t="n">
         <v>42.15</v>
       </c>
       <c r="F78" t="n">
-        <v>8619.4154</v>
+        <v>25054.9964</v>
       </c>
       <c r="G78" t="n">
-        <v>41.89633333333336</v>
+        <v>41.88850000000002</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,28 +3128,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>42.2</v>
+        <v>42.15</v>
       </c>
       <c r="C79" t="n">
-        <v>42.1</v>
+        <v>42.15</v>
       </c>
       <c r="D79" t="n">
-        <v>42.2</v>
+        <v>42.15</v>
       </c>
       <c r="E79" t="n">
-        <v>42.1</v>
+        <v>42.15</v>
       </c>
       <c r="F79" t="n">
-        <v>2678.182</v>
+        <v>8619.4154</v>
       </c>
       <c r="G79" t="n">
-        <v>41.90133333333335</v>
+        <v>41.89633333333336</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3163,7 +3163,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>42.1</v>
+        <v>42.2</v>
       </c>
       <c r="C80" t="n">
         <v>42.1</v>
@@ -3175,10 +3175,10 @@
         <v>42.1</v>
       </c>
       <c r="F80" t="n">
-        <v>1156</v>
+        <v>2678.182</v>
       </c>
       <c r="G80" t="n">
-        <v>41.90766666666669</v>
+        <v>41.90133333333335</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3201,19 +3201,19 @@
         <v>42.1</v>
       </c>
       <c r="C81" t="n">
-        <v>42.07</v>
+        <v>42.1</v>
       </c>
       <c r="D81" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="E81" t="n">
         <v>42.1</v>
       </c>
-      <c r="E81" t="n">
-        <v>42.07</v>
-      </c>
       <c r="F81" t="n">
-        <v>1200.6519</v>
+        <v>1156</v>
       </c>
       <c r="G81" t="n">
-        <v>41.91416666666669</v>
+        <v>41.90766666666669</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3236,19 +3236,19 @@
         <v>42.1</v>
       </c>
       <c r="C82" t="n">
-        <v>42.1</v>
+        <v>42.07</v>
       </c>
       <c r="D82" t="n">
         <v>42.1</v>
       </c>
       <c r="E82" t="n">
-        <v>42.1</v>
+        <v>42.07</v>
       </c>
       <c r="F82" t="n">
-        <v>1356.5001</v>
+        <v>1200.6519</v>
       </c>
       <c r="G82" t="n">
-        <v>41.92133333333336</v>
+        <v>41.91416666666669</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="C83" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="D83" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="E83" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="F83" t="n">
-        <v>833.3</v>
+        <v>1356.5001</v>
       </c>
       <c r="G83" t="n">
-        <v>41.92916666666669</v>
+        <v>41.92133333333336</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3315,10 +3315,10 @@
         <v>42.2</v>
       </c>
       <c r="F84" t="n">
-        <v>55271.0546</v>
+        <v>833.3</v>
       </c>
       <c r="G84" t="n">
-        <v>41.93783333333336</v>
+        <v>41.92916666666669</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3350,10 +3350,10 @@
         <v>42.2</v>
       </c>
       <c r="F85" t="n">
-        <v>200</v>
+        <v>55271.0546</v>
       </c>
       <c r="G85" t="n">
-        <v>41.94416666666668</v>
+        <v>41.93783333333336</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>42.06</v>
+        <v>42.2</v>
       </c>
       <c r="C86" t="n">
-        <v>42.06</v>
+        <v>42.2</v>
       </c>
       <c r="D86" t="n">
-        <v>42.06</v>
+        <v>42.2</v>
       </c>
       <c r="E86" t="n">
-        <v>42.06</v>
+        <v>42.2</v>
       </c>
       <c r="F86" t="n">
-        <v>911.864</v>
+        <v>200</v>
       </c>
       <c r="G86" t="n">
-        <v>41.95016666666668</v>
+        <v>41.94416666666668</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3420,10 +3420,10 @@
         <v>42.06</v>
       </c>
       <c r="F87" t="n">
-        <v>8634.5735</v>
+        <v>911.864</v>
       </c>
       <c r="G87" t="n">
-        <v>41.95200000000002</v>
+        <v>41.95016666666668</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>41.97</v>
+        <v>42.06</v>
       </c>
       <c r="C88" t="n">
-        <v>41.97</v>
+        <v>42.06</v>
       </c>
       <c r="D88" t="n">
-        <v>41.97</v>
+        <v>42.06</v>
       </c>
       <c r="E88" t="n">
-        <v>41.97</v>
+        <v>42.06</v>
       </c>
       <c r="F88" t="n">
-        <v>24991.5633</v>
+        <v>8634.5735</v>
       </c>
       <c r="G88" t="n">
-        <v>41.95416666666668</v>
+        <v>41.95200000000002</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>42.19</v>
+        <v>41.97</v>
       </c>
       <c r="C89" t="n">
-        <v>42.19</v>
+        <v>41.97</v>
       </c>
       <c r="D89" t="n">
-        <v>42.19</v>
+        <v>41.97</v>
       </c>
       <c r="E89" t="n">
-        <v>42.19</v>
+        <v>41.97</v>
       </c>
       <c r="F89" t="n">
-        <v>113.8225</v>
+        <v>24991.5633</v>
       </c>
       <c r="G89" t="n">
-        <v>41.96000000000002</v>
+        <v>41.95416666666668</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3525,10 +3525,10 @@
         <v>42.19</v>
       </c>
       <c r="F90" t="n">
-        <v>279.9274</v>
+        <v>113.8225</v>
       </c>
       <c r="G90" t="n">
-        <v>41.96866666666668</v>
+        <v>41.96000000000002</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,31 +3548,35 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>42</v>
+        <v>42.19</v>
       </c>
       <c r="C91" t="n">
-        <v>42</v>
+        <v>42.19</v>
       </c>
       <c r="D91" t="n">
-        <v>42</v>
+        <v>42.19</v>
       </c>
       <c r="E91" t="n">
-        <v>42</v>
+        <v>42.19</v>
       </c>
       <c r="F91" t="n">
-        <v>1504.6514</v>
+        <v>279.9274</v>
       </c>
       <c r="G91" t="n">
-        <v>41.97350000000002</v>
+        <v>41.96866666666668</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>42.19</v>
+      </c>
+      <c r="K91" t="n">
+        <v>42.19</v>
+      </c>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
@@ -3583,22 +3587,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>42.01</v>
+        <v>42</v>
       </c>
       <c r="C92" t="n">
-        <v>42.01</v>
+        <v>42</v>
       </c>
       <c r="D92" t="n">
-        <v>42.01</v>
+        <v>42</v>
       </c>
       <c r="E92" t="n">
-        <v>42.01</v>
+        <v>42</v>
       </c>
       <c r="F92" t="n">
-        <v>150.3616</v>
+        <v>1504.6514</v>
       </c>
       <c r="G92" t="n">
-        <v>41.97850000000002</v>
+        <v>41.97350000000002</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3607,8 +3611,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>42.19</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3618,22 +3628,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>42</v>
+        <v>42.01</v>
       </c>
       <c r="C93" t="n">
-        <v>42</v>
+        <v>42.01</v>
       </c>
       <c r="D93" t="n">
-        <v>42</v>
+        <v>42.01</v>
       </c>
       <c r="E93" t="n">
-        <v>42</v>
+        <v>42.01</v>
       </c>
       <c r="F93" t="n">
-        <v>8075.5466</v>
+        <v>150.3616</v>
       </c>
       <c r="G93" t="n">
-        <v>41.98300000000002</v>
+        <v>41.97850000000002</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3642,8 +3652,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>42.19</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3653,31 +3669,35 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>42.14</v>
+        <v>42</v>
       </c>
       <c r="C94" t="n">
-        <v>42.14</v>
+        <v>42</v>
       </c>
       <c r="D94" t="n">
-        <v>42.14</v>
+        <v>42</v>
       </c>
       <c r="E94" t="n">
-        <v>42.14</v>
+        <v>42</v>
       </c>
       <c r="F94" t="n">
-        <v>133.1043</v>
+        <v>8075.5466</v>
       </c>
       <c r="G94" t="n">
-        <v>41.98983333333334</v>
+        <v>41.98300000000002</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="K94" t="n">
+        <v>42.01</v>
+      </c>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
@@ -3691,29 +3711,37 @@
         <v>42.14</v>
       </c>
       <c r="C95" t="n">
-        <v>42.09</v>
+        <v>42.14</v>
       </c>
       <c r="D95" t="n">
         <v>42.14</v>
       </c>
       <c r="E95" t="n">
-        <v>41.9</v>
+        <v>42.14</v>
       </c>
       <c r="F95" t="n">
-        <v>1287.9753</v>
+        <v>133.1043</v>
       </c>
       <c r="G95" t="n">
-        <v>41.99583333333335</v>
+        <v>41.98983333333334</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>42</v>
+      </c>
+      <c r="K95" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3723,32 +3751,40 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>41.9</v>
+        <v>42.14</v>
       </c>
       <c r="C96" t="n">
-        <v>41.9</v>
+        <v>42.09</v>
       </c>
       <c r="D96" t="n">
-        <v>41.9</v>
+        <v>42.14</v>
       </c>
       <c r="E96" t="n">
         <v>41.9</v>
       </c>
       <c r="F96" t="n">
-        <v>4800</v>
+        <v>1287.9753</v>
       </c>
       <c r="G96" t="n">
-        <v>41.99866666666669</v>
+        <v>41.99583333333335</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>42.14</v>
+      </c>
+      <c r="K96" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3761,19 +3797,19 @@
         <v>41.9</v>
       </c>
       <c r="C97" t="n">
-        <v>42.09</v>
+        <v>41.9</v>
       </c>
       <c r="D97" t="n">
-        <v>42.09</v>
+        <v>41.9</v>
       </c>
       <c r="E97" t="n">
         <v>41.9</v>
       </c>
       <c r="F97" t="n">
-        <v>630.7853</v>
+        <v>4800</v>
       </c>
       <c r="G97" t="n">
-        <v>42.00300000000002</v>
+        <v>41.99866666666669</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3782,8 +3818,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3793,10 +3835,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="C98" t="n">
         <v>42.09</v>
-      </c>
-      <c r="C98" t="n">
-        <v>41.9</v>
       </c>
       <c r="D98" t="n">
         <v>42.09</v>
@@ -3805,20 +3847,28 @@
         <v>41.9</v>
       </c>
       <c r="F98" t="n">
-        <v>232.859</v>
+        <v>630.7853</v>
       </c>
       <c r="G98" t="n">
-        <v>42.00566666666669</v>
+        <v>42.00300000000002</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="K98" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3828,22 +3878,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>42.07</v>
+        <v>42.09</v>
       </c>
       <c r="C99" t="n">
-        <v>42.07</v>
+        <v>41.9</v>
       </c>
       <c r="D99" t="n">
-        <v>42.07</v>
+        <v>42.09</v>
       </c>
       <c r="E99" t="n">
-        <v>42.07</v>
+        <v>41.9</v>
       </c>
       <c r="F99" t="n">
-        <v>39.1102</v>
+        <v>232.859</v>
       </c>
       <c r="G99" t="n">
-        <v>42.01066666666669</v>
+        <v>42.00566666666669</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3852,8 +3902,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3863,22 +3919,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>41.89</v>
+        <v>42.07</v>
       </c>
       <c r="C100" t="n">
-        <v>41.89</v>
+        <v>42.07</v>
       </c>
       <c r="D100" t="n">
-        <v>41.89</v>
+        <v>42.07</v>
       </c>
       <c r="E100" t="n">
-        <v>41.89</v>
+        <v>42.07</v>
       </c>
       <c r="F100" t="n">
-        <v>4148.3075</v>
+        <v>39.1102</v>
       </c>
       <c r="G100" t="n">
-        <v>42.0126666666667</v>
+        <v>42.01066666666669</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3887,8 +3943,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3898,22 +3960,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>41.86</v>
+        <v>41.89</v>
       </c>
       <c r="C101" t="n">
-        <v>41.84</v>
+        <v>41.89</v>
       </c>
       <c r="D101" t="n">
-        <v>41.86</v>
+        <v>41.89</v>
       </c>
       <c r="E101" t="n">
-        <v>41.84</v>
+        <v>41.89</v>
       </c>
       <c r="F101" t="n">
-        <v>8994.395</v>
+        <v>4148.3075</v>
       </c>
       <c r="G101" t="n">
-        <v>42.01200000000003</v>
+        <v>42.0126666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3922,8 +3984,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3933,22 +4001,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>41.84</v>
+        <v>41.86</v>
       </c>
       <c r="C102" t="n">
         <v>41.84</v>
       </c>
       <c r="D102" t="n">
-        <v>41.84</v>
+        <v>41.86</v>
       </c>
       <c r="E102" t="n">
         <v>41.84</v>
       </c>
       <c r="F102" t="n">
-        <v>1982.3576</v>
+        <v>8994.395</v>
       </c>
       <c r="G102" t="n">
-        <v>42.01050000000003</v>
+        <v>42.01200000000003</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3957,8 +4025,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3980,10 +4054,10 @@
         <v>41.84</v>
       </c>
       <c r="F103" t="n">
-        <v>1051.31</v>
+        <v>1982.3576</v>
       </c>
       <c r="G103" t="n">
-        <v>42.00883333333336</v>
+        <v>42.01050000000003</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3992,8 +4066,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4015,10 +4095,10 @@
         <v>41.84</v>
       </c>
       <c r="F104" t="n">
-        <v>6678.5139</v>
+        <v>1051.31</v>
       </c>
       <c r="G104" t="n">
-        <v>42.0066666666667</v>
+        <v>42.00883333333336</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4027,8 +4107,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4050,10 +4136,10 @@
         <v>41.84</v>
       </c>
       <c r="F105" t="n">
-        <v>1745.5763</v>
+        <v>6678.5139</v>
       </c>
       <c r="G105" t="n">
-        <v>42.00583333333338</v>
+        <v>42.0066666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4062,8 +4148,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4076,19 +4168,19 @@
         <v>41.84</v>
       </c>
       <c r="C106" t="n">
-        <v>41.95</v>
+        <v>41.84</v>
       </c>
       <c r="D106" t="n">
-        <v>41.95</v>
+        <v>41.84</v>
       </c>
       <c r="E106" t="n">
         <v>41.84</v>
       </c>
       <c r="F106" t="n">
-        <v>1834.5137</v>
+        <v>1745.5763</v>
       </c>
       <c r="G106" t="n">
-        <v>42.00500000000004</v>
+        <v>42.00583333333338</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4097,8 +4189,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4108,22 +4206,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>41.8</v>
+        <v>41.84</v>
       </c>
       <c r="C107" t="n">
-        <v>41.8</v>
+        <v>41.95</v>
       </c>
       <c r="D107" t="n">
-        <v>41.8</v>
+        <v>41.95</v>
       </c>
       <c r="E107" t="n">
-        <v>41.8</v>
+        <v>41.84</v>
       </c>
       <c r="F107" t="n">
-        <v>949.3819999999999</v>
+        <v>1834.5137</v>
       </c>
       <c r="G107" t="n">
-        <v>42.00416666666671</v>
+        <v>42.00500000000004</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4132,8 +4230,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4143,22 +4247,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>41.99</v>
+        <v>41.8</v>
       </c>
       <c r="C108" t="n">
         <v>41.8</v>
       </c>
       <c r="D108" t="n">
-        <v>41.99</v>
+        <v>41.8</v>
       </c>
       <c r="E108" t="n">
         <v>41.8</v>
       </c>
       <c r="F108" t="n">
-        <v>108425.1398</v>
+        <v>949.3819999999999</v>
       </c>
       <c r="G108" t="n">
-        <v>42.00166666666671</v>
+        <v>42.00416666666671</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4167,8 +4271,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4178,22 +4288,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>41.91</v>
+        <v>41.99</v>
       </c>
       <c r="C109" t="n">
-        <v>41.91</v>
+        <v>41.8</v>
       </c>
       <c r="D109" t="n">
-        <v>41.91</v>
+        <v>41.99</v>
       </c>
       <c r="E109" t="n">
-        <v>41.91</v>
+        <v>41.8</v>
       </c>
       <c r="F109" t="n">
-        <v>1645.3518</v>
+        <v>108425.1398</v>
       </c>
       <c r="G109" t="n">
-        <v>42.00400000000005</v>
+        <v>42.00166666666671</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4202,8 +4312,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4216,19 +4332,19 @@
         <v>41.91</v>
       </c>
       <c r="C110" t="n">
-        <v>41.9</v>
+        <v>41.91</v>
       </c>
       <c r="D110" t="n">
         <v>41.91</v>
       </c>
       <c r="E110" t="n">
-        <v>41.9</v>
+        <v>41.91</v>
       </c>
       <c r="F110" t="n">
-        <v>5990.7919</v>
+        <v>1645.3518</v>
       </c>
       <c r="G110" t="n">
-        <v>42.00316666666672</v>
+        <v>42.00400000000005</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4237,8 +4353,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4248,22 +4370,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
+        <v>41.91</v>
+      </c>
+      <c r="C111" t="n">
         <v>41.9</v>
       </c>
-      <c r="C111" t="n">
-        <v>41.79</v>
-      </c>
       <c r="D111" t="n">
+        <v>41.91</v>
+      </c>
+      <c r="E111" t="n">
         <v>41.9</v>
       </c>
-      <c r="E111" t="n">
-        <v>41.79</v>
-      </c>
       <c r="F111" t="n">
-        <v>949.3819999999999</v>
+        <v>5990.7919</v>
       </c>
       <c r="G111" t="n">
-        <v>42.00133333333338</v>
+        <v>42.00316666666672</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4272,8 +4394,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4283,22 +4411,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>41.77</v>
+        <v>41.9</v>
       </c>
       <c r="C112" t="n">
-        <v>41.74</v>
+        <v>41.79</v>
       </c>
       <c r="D112" t="n">
-        <v>41.77</v>
+        <v>41.9</v>
       </c>
       <c r="E112" t="n">
-        <v>41.74</v>
+        <v>41.79</v>
       </c>
       <c r="F112" t="n">
-        <v>181675.3545</v>
+        <v>949.3819999999999</v>
       </c>
       <c r="G112" t="n">
-        <v>41.99833333333338</v>
+        <v>42.00133333333338</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4307,8 +4435,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4318,22 +4452,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>41.94</v>
+        <v>41.77</v>
       </c>
       <c r="C113" t="n">
-        <v>41.94</v>
+        <v>41.74</v>
       </c>
       <c r="D113" t="n">
-        <v>41.94</v>
+        <v>41.77</v>
       </c>
       <c r="E113" t="n">
-        <v>41.94</v>
+        <v>41.74</v>
       </c>
       <c r="F113" t="n">
-        <v>154.7521</v>
+        <v>181675.3545</v>
       </c>
       <c r="G113" t="n">
-        <v>42.00116666666671</v>
+        <v>41.99833333333338</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4342,8 +4476,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4353,22 +4493,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>42</v>
+        <v>41.94</v>
       </c>
       <c r="C114" t="n">
-        <v>42</v>
+        <v>41.94</v>
       </c>
       <c r="D114" t="n">
-        <v>42</v>
+        <v>41.94</v>
       </c>
       <c r="E114" t="n">
-        <v>42</v>
+        <v>41.94</v>
       </c>
       <c r="F114" t="n">
-        <v>54845.2478</v>
+        <v>154.7521</v>
       </c>
       <c r="G114" t="n">
-        <v>42.00283333333338</v>
+        <v>42.00116666666671</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4377,8 +4517,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4388,22 +4534,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>41.99</v>
+        <v>42</v>
       </c>
       <c r="C115" t="n">
-        <v>41.99</v>
+        <v>42</v>
       </c>
       <c r="D115" t="n">
-        <v>41.99</v>
+        <v>42</v>
       </c>
       <c r="E115" t="n">
-        <v>41.99</v>
+        <v>42</v>
       </c>
       <c r="F115" t="n">
-        <v>300</v>
+        <v>54845.2478</v>
       </c>
       <c r="G115" t="n">
-        <v>42.00633333333337</v>
+        <v>42.00283333333338</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4412,8 +4558,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4423,22 +4575,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>42</v>
+        <v>41.99</v>
       </c>
       <c r="C116" t="n">
-        <v>42</v>
+        <v>41.99</v>
       </c>
       <c r="D116" t="n">
-        <v>42</v>
+        <v>41.99</v>
       </c>
       <c r="E116" t="n">
-        <v>42</v>
+        <v>41.99</v>
       </c>
       <c r="F116" t="n">
-        <v>223.0235</v>
+        <v>300</v>
       </c>
       <c r="G116" t="n">
-        <v>42.01016666666671</v>
+        <v>42.00633333333337</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4447,8 +4599,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4470,10 +4628,10 @@
         <v>42</v>
       </c>
       <c r="F117" t="n">
-        <v>5574.2722</v>
+        <v>223.0235</v>
       </c>
       <c r="G117" t="n">
-        <v>42.01250000000004</v>
+        <v>42.01016666666671</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4482,8 +4640,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4505,10 +4669,10 @@
         <v>42</v>
       </c>
       <c r="F118" t="n">
-        <v>4425.7278</v>
+        <v>5574.2722</v>
       </c>
       <c r="G118" t="n">
-        <v>42.0161666666667</v>
+        <v>42.01250000000004</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4517,8 +4681,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4528,22 +4698,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>41.99</v>
+        <v>42</v>
       </c>
       <c r="C119" t="n">
-        <v>41.99</v>
+        <v>42</v>
       </c>
       <c r="D119" t="n">
-        <v>41.99</v>
+        <v>42</v>
       </c>
       <c r="E119" t="n">
-        <v>41.99</v>
+        <v>42</v>
       </c>
       <c r="F119" t="n">
-        <v>11783.8851</v>
+        <v>4425.7278</v>
       </c>
       <c r="G119" t="n">
-        <v>42.01900000000003</v>
+        <v>42.0161666666667</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4552,8 +4722,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4563,22 +4739,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>42.02</v>
+        <v>41.99</v>
       </c>
       <c r="C120" t="n">
-        <v>42.22</v>
+        <v>41.99</v>
       </c>
       <c r="D120" t="n">
-        <v>42.22</v>
+        <v>41.99</v>
       </c>
       <c r="E120" t="n">
-        <v>42.02</v>
+        <v>41.99</v>
       </c>
       <c r="F120" t="n">
-        <v>18080.1925</v>
+        <v>11783.8851</v>
       </c>
       <c r="G120" t="n">
-        <v>42.02400000000002</v>
+        <v>42.01900000000003</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4587,8 +4763,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4598,22 +4780,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>42.26</v>
+        <v>42.02</v>
       </c>
       <c r="C121" t="n">
-        <v>42.26</v>
+        <v>42.22</v>
       </c>
       <c r="D121" t="n">
-        <v>42.26</v>
+        <v>42.22</v>
       </c>
       <c r="E121" t="n">
-        <v>42.26</v>
+        <v>42.02</v>
       </c>
       <c r="F121" t="n">
-        <v>2181.0251</v>
+        <v>18080.1925</v>
       </c>
       <c r="G121" t="n">
-        <v>42.02966666666669</v>
+        <v>42.02400000000002</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4622,8 +4804,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4633,22 +4821,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>42.15</v>
+        <v>42.26</v>
       </c>
       <c r="C122" t="n">
-        <v>42.15</v>
+        <v>42.26</v>
       </c>
       <c r="D122" t="n">
-        <v>42.15</v>
+        <v>42.26</v>
       </c>
       <c r="E122" t="n">
-        <v>42.15</v>
+        <v>42.26</v>
       </c>
       <c r="F122" t="n">
-        <v>1243.6143</v>
+        <v>2181.0251</v>
       </c>
       <c r="G122" t="n">
-        <v>42.03300000000003</v>
+        <v>42.02966666666669</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4657,8 +4845,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4680,10 +4874,10 @@
         <v>42.15</v>
       </c>
       <c r="F123" t="n">
-        <v>930.2987000000001</v>
+        <v>1243.6143</v>
       </c>
       <c r="G123" t="n">
-        <v>42.03600000000004</v>
+        <v>42.03300000000003</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4692,8 +4886,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4703,22 +4903,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>42.31</v>
+        <v>42.15</v>
       </c>
       <c r="C124" t="n">
-        <v>42.31</v>
+        <v>42.15</v>
       </c>
       <c r="D124" t="n">
-        <v>42.31</v>
+        <v>42.15</v>
       </c>
       <c r="E124" t="n">
-        <v>42.31</v>
+        <v>42.15</v>
       </c>
       <c r="F124" t="n">
-        <v>49.3345</v>
+        <v>930.2987000000001</v>
       </c>
       <c r="G124" t="n">
-        <v>42.04166666666671</v>
+        <v>42.03600000000004</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4727,8 +4927,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4738,22 +4944,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>42.26</v>
+        <v>42.31</v>
       </c>
       <c r="C125" t="n">
-        <v>42.26</v>
+        <v>42.31</v>
       </c>
       <c r="D125" t="n">
-        <v>42.26</v>
+        <v>42.31</v>
       </c>
       <c r="E125" t="n">
-        <v>42.26</v>
+        <v>42.31</v>
       </c>
       <c r="F125" t="n">
-        <v>81.77946048</v>
+        <v>49.3345</v>
       </c>
       <c r="G125" t="n">
-        <v>42.04650000000004</v>
+        <v>42.04166666666671</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4762,8 +4968,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4773,22 +4985,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>42.2</v>
+        <v>42.26</v>
       </c>
       <c r="C126" t="n">
-        <v>42.2</v>
+        <v>42.26</v>
       </c>
       <c r="D126" t="n">
-        <v>42.3</v>
+        <v>42.26</v>
       </c>
       <c r="E126" t="n">
-        <v>42.2</v>
+        <v>42.26</v>
       </c>
       <c r="F126" t="n">
-        <v>8729.197399999999</v>
+        <v>81.77946048</v>
       </c>
       <c r="G126" t="n">
-        <v>42.05033333333338</v>
+        <v>42.04650000000004</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4797,8 +5009,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4808,22 +5026,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="C127" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="D127" t="n">
         <v>42.3</v>
       </c>
       <c r="E127" t="n">
-        <v>42.16</v>
+        <v>42.2</v>
       </c>
       <c r="F127" t="n">
-        <v>250</v>
+        <v>8729.197399999999</v>
       </c>
       <c r="G127" t="n">
-        <v>42.05416666666671</v>
+        <v>42.05033333333338</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4832,8 +5050,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4852,13 +5076,13 @@
         <v>42.3</v>
       </c>
       <c r="E128" t="n">
-        <v>42.3</v>
+        <v>42.16</v>
       </c>
       <c r="F128" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G128" t="n">
-        <v>42.05850000000005</v>
+        <v>42.05416666666671</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4867,8 +5091,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4881,19 +5111,19 @@
         <v>42.3</v>
       </c>
       <c r="C129" t="n">
-        <v>42.29</v>
+        <v>42.3</v>
       </c>
       <c r="D129" t="n">
         <v>42.3</v>
       </c>
       <c r="E129" t="n">
-        <v>42.29</v>
+        <v>42.3</v>
       </c>
       <c r="F129" t="n">
-        <v>3107.4798</v>
+        <v>50</v>
       </c>
       <c r="G129" t="n">
-        <v>42.06083333333338</v>
+        <v>42.05850000000005</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4902,8 +5132,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4925,10 +5161,10 @@
         <v>42.29</v>
       </c>
       <c r="F130" t="n">
-        <v>12811.976</v>
+        <v>3107.4798</v>
       </c>
       <c r="G130" t="n">
-        <v>42.06316666666671</v>
+        <v>42.06083333333338</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4937,8 +5173,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4948,22 +5190,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="C131" t="n">
         <v>42.29</v>
       </c>
-      <c r="C131" t="n">
-        <v>42.15</v>
-      </c>
       <c r="D131" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="E131" t="n">
         <v>42.29</v>
       </c>
-      <c r="E131" t="n">
-        <v>42.15</v>
-      </c>
       <c r="F131" t="n">
-        <v>200</v>
+        <v>12811.976</v>
       </c>
       <c r="G131" t="n">
-        <v>42.06116666666671</v>
+        <v>42.06316666666671</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4972,8 +5214,14 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -4983,22 +5231,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>42.2</v>
+        <v>42.29</v>
       </c>
       <c r="C132" t="n">
-        <v>42.2</v>
+        <v>42.15</v>
       </c>
       <c r="D132" t="n">
-        <v>42.2</v>
+        <v>42.29</v>
       </c>
       <c r="E132" t="n">
-        <v>42.2</v>
+        <v>42.15</v>
       </c>
       <c r="F132" t="n">
-        <v>1140</v>
+        <v>200</v>
       </c>
       <c r="G132" t="n">
-        <v>42.06150000000004</v>
+        <v>42.06116666666671</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5007,8 +5255,14 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5018,22 +5272,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>42.27</v>
+        <v>42.2</v>
       </c>
       <c r="C133" t="n">
-        <v>42.27</v>
+        <v>42.2</v>
       </c>
       <c r="D133" t="n">
-        <v>42.27</v>
+        <v>42.2</v>
       </c>
       <c r="E133" t="n">
-        <v>42.16</v>
+        <v>42.2</v>
       </c>
       <c r="F133" t="n">
-        <v>150</v>
+        <v>1140</v>
       </c>
       <c r="G133" t="n">
-        <v>42.06300000000005</v>
+        <v>42.06150000000004</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5042,8 +5296,14 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5062,13 +5322,13 @@
         <v>42.27</v>
       </c>
       <c r="E134" t="n">
-        <v>42.27</v>
+        <v>42.16</v>
       </c>
       <c r="F134" t="n">
-        <v>148.3543</v>
+        <v>150</v>
       </c>
       <c r="G134" t="n">
-        <v>42.06466666666672</v>
+        <v>42.06300000000005</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5077,8 +5337,14 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5088,22 +5354,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>42.15</v>
+        <v>42.27</v>
       </c>
       <c r="C135" t="n">
-        <v>42.19</v>
+        <v>42.27</v>
       </c>
       <c r="D135" t="n">
-        <v>42.19</v>
+        <v>42.27</v>
       </c>
       <c r="E135" t="n">
-        <v>42.03</v>
+        <v>42.27</v>
       </c>
       <c r="F135" t="n">
-        <v>944.3635</v>
+        <v>148.3543</v>
       </c>
       <c r="G135" t="n">
-        <v>42.06533333333338</v>
+        <v>42.06466666666672</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5112,8 +5378,14 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5123,7 +5395,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>42.19</v>
+        <v>42.15</v>
       </c>
       <c r="C136" t="n">
         <v>42.19</v>
@@ -5132,13 +5404,13 @@
         <v>42.19</v>
       </c>
       <c r="E136" t="n">
-        <v>42.19</v>
+        <v>42.03</v>
       </c>
       <c r="F136" t="n">
-        <v>120.934</v>
+        <v>944.3635</v>
       </c>
       <c r="G136" t="n">
-        <v>42.06400000000005</v>
+        <v>42.06533333333338</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5147,8 +5419,14 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5158,22 +5436,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>42.2</v>
+        <v>42.19</v>
       </c>
       <c r="C137" t="n">
-        <v>42.2</v>
+        <v>42.19</v>
       </c>
       <c r="D137" t="n">
-        <v>42.2</v>
+        <v>42.19</v>
       </c>
       <c r="E137" t="n">
-        <v>42.2</v>
+        <v>42.19</v>
       </c>
       <c r="F137" t="n">
-        <v>645.3538</v>
+        <v>120.934</v>
       </c>
       <c r="G137" t="n">
-        <v>42.06483333333338</v>
+        <v>42.06400000000005</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5182,8 +5460,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5193,22 +5477,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>42.27</v>
+        <v>42.2</v>
       </c>
       <c r="C138" t="n">
-        <v>42.27</v>
+        <v>42.2</v>
       </c>
       <c r="D138" t="n">
-        <v>42.27</v>
+        <v>42.2</v>
       </c>
       <c r="E138" t="n">
-        <v>42.27</v>
+        <v>42.2</v>
       </c>
       <c r="F138" t="n">
-        <v>30.1502</v>
+        <v>645.3538</v>
       </c>
       <c r="G138" t="n">
-        <v>42.06683333333338</v>
+        <v>42.06483333333338</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5217,8 +5501,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5228,22 +5518,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>42.11</v>
+        <v>42.27</v>
       </c>
       <c r="C139" t="n">
-        <v>42.11</v>
+        <v>42.27</v>
       </c>
       <c r="D139" t="n">
-        <v>42.11</v>
+        <v>42.27</v>
       </c>
       <c r="E139" t="n">
-        <v>42.11</v>
+        <v>42.27</v>
       </c>
       <c r="F139" t="n">
-        <v>470.5936</v>
+        <v>30.1502</v>
       </c>
       <c r="G139" t="n">
-        <v>42.06700000000004</v>
+        <v>42.06683333333338</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5252,8 +5542,14 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5263,22 +5559,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>42.27</v>
+        <v>42.11</v>
       </c>
       <c r="C140" t="n">
-        <v>42.27</v>
+        <v>42.11</v>
       </c>
       <c r="D140" t="n">
-        <v>42.27</v>
+        <v>42.11</v>
       </c>
       <c r="E140" t="n">
-        <v>42.27</v>
+        <v>42.11</v>
       </c>
       <c r="F140" t="n">
-        <v>22.6162</v>
+        <v>470.5936</v>
       </c>
       <c r="G140" t="n">
-        <v>42.06983333333338</v>
+        <v>42.06700000000004</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5287,8 +5583,14 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5298,22 +5600,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>42.1</v>
+        <v>42.27</v>
       </c>
       <c r="C141" t="n">
-        <v>42.09</v>
+        <v>42.27</v>
       </c>
       <c r="D141" t="n">
-        <v>42.1</v>
+        <v>42.27</v>
       </c>
       <c r="E141" t="n">
-        <v>42.09</v>
+        <v>42.27</v>
       </c>
       <c r="F141" t="n">
-        <v>1000</v>
+        <v>22.6162</v>
       </c>
       <c r="G141" t="n">
-        <v>42.07016666666672</v>
+        <v>42.06983333333338</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5322,8 +5624,14 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5333,22 +5641,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>42.01</v>
+        <v>42.1</v>
       </c>
       <c r="C142" t="n">
-        <v>42.01</v>
+        <v>42.09</v>
       </c>
       <c r="D142" t="n">
-        <v>42.01</v>
+        <v>42.1</v>
       </c>
       <c r="E142" t="n">
-        <v>42.01</v>
+        <v>42.09</v>
       </c>
       <c r="F142" t="n">
-        <v>10210.1</v>
+        <v>1000</v>
       </c>
       <c r="G142" t="n">
-        <v>42.06866666666672</v>
+        <v>42.07016666666672</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5357,8 +5665,14 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5380,10 +5694,10 @@
         <v>42.01</v>
       </c>
       <c r="F143" t="n">
-        <v>25708.2124</v>
+        <v>10210.1</v>
       </c>
       <c r="G143" t="n">
-        <v>42.06550000000006</v>
+        <v>42.06866666666672</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5392,8 +5706,14 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5403,22 +5723,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>42</v>
+        <v>42.01</v>
       </c>
       <c r="C144" t="n">
-        <v>42</v>
+        <v>42.01</v>
       </c>
       <c r="D144" t="n">
-        <v>42</v>
+        <v>42.01</v>
       </c>
       <c r="E144" t="n">
-        <v>42</v>
+        <v>42.01</v>
       </c>
       <c r="F144" t="n">
-        <v>2185.7923</v>
+        <v>25708.2124</v>
       </c>
       <c r="G144" t="n">
-        <v>42.06216666666673</v>
+        <v>42.06550000000006</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5427,8 +5747,14 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5450,10 +5776,10 @@
         <v>42</v>
       </c>
       <c r="F145" t="n">
-        <v>1153.5666</v>
+        <v>2185.7923</v>
       </c>
       <c r="G145" t="n">
-        <v>42.0588333333334</v>
+        <v>42.06216666666673</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5462,8 +5788,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5485,10 +5817,10 @@
         <v>42</v>
       </c>
       <c r="F146" t="n">
-        <v>11697.7336</v>
+        <v>1153.5666</v>
       </c>
       <c r="G146" t="n">
-        <v>42.0578333333334</v>
+        <v>42.0588333333334</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5497,8 +5829,14 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5508,7 +5846,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>41.99</v>
+        <v>42</v>
       </c>
       <c r="C147" t="n">
         <v>42</v>
@@ -5517,13 +5855,13 @@
         <v>42</v>
       </c>
       <c r="E147" t="n">
-        <v>41.99</v>
+        <v>42</v>
       </c>
       <c r="F147" t="n">
-        <v>20722.1</v>
+        <v>11697.7336</v>
       </c>
       <c r="G147" t="n">
-        <v>42.0568333333334</v>
+        <v>42.0578333333334</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5532,8 +5870,14 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5543,10 +5887,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
+        <v>41.99</v>
+      </c>
+      <c r="C148" t="n">
         <v>42</v>
-      </c>
-      <c r="C148" t="n">
-        <v>41.99</v>
       </c>
       <c r="D148" t="n">
         <v>42</v>
@@ -5555,10 +5899,10 @@
         <v>41.99</v>
       </c>
       <c r="F148" t="n">
-        <v>1083.226</v>
+        <v>20722.1</v>
       </c>
       <c r="G148" t="n">
-        <v>42.05716666666673</v>
+        <v>42.0568333333334</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5567,8 +5911,14 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5578,22 +5928,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>41.91</v>
+        <v>42</v>
       </c>
       <c r="C149" t="n">
-        <v>41.91</v>
+        <v>41.99</v>
       </c>
       <c r="D149" t="n">
-        <v>41.91</v>
+        <v>42</v>
       </c>
       <c r="E149" t="n">
-        <v>41.91</v>
+        <v>41.99</v>
       </c>
       <c r="F149" t="n">
-        <v>38469.3478</v>
+        <v>1083.226</v>
       </c>
       <c r="G149" t="n">
-        <v>42.05250000000006</v>
+        <v>42.05716666666673</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5602,8 +5952,14 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5613,22 +5969,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>41.83</v>
+        <v>41.91</v>
       </c>
       <c r="C150" t="n">
-        <v>41.83</v>
+        <v>41.91</v>
       </c>
       <c r="D150" t="n">
-        <v>41.83</v>
+        <v>41.91</v>
       </c>
       <c r="E150" t="n">
-        <v>41.83</v>
+        <v>41.91</v>
       </c>
       <c r="F150" t="n">
-        <v>2188.1837</v>
+        <v>38469.3478</v>
       </c>
       <c r="G150" t="n">
-        <v>42.04650000000006</v>
+        <v>42.05250000000006</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5637,8 +5993,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5648,22 +6010,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>41.8</v>
+        <v>41.83</v>
       </c>
       <c r="C151" t="n">
-        <v>41.79</v>
+        <v>41.83</v>
       </c>
       <c r="D151" t="n">
-        <v>41.8</v>
+        <v>41.83</v>
       </c>
       <c r="E151" t="n">
-        <v>41.79</v>
+        <v>41.83</v>
       </c>
       <c r="F151" t="n">
-        <v>15119.5805</v>
+        <v>2188.1837</v>
       </c>
       <c r="G151" t="n">
-        <v>42.04300000000006</v>
+        <v>42.04650000000006</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5672,8 +6034,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5683,22 +6051,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>41.79</v>
+        <v>41.8</v>
       </c>
       <c r="C152" t="n">
         <v>41.79</v>
       </c>
       <c r="D152" t="n">
-        <v>41.79</v>
+        <v>41.8</v>
       </c>
       <c r="E152" t="n">
         <v>41.79</v>
       </c>
       <c r="F152" t="n">
-        <v>11760.1059</v>
+        <v>15119.5805</v>
       </c>
       <c r="G152" t="n">
-        <v>42.03933333333339</v>
+        <v>42.04300000000006</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5707,8 +6075,14 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5718,22 +6092,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>41.78</v>
+        <v>41.79</v>
       </c>
       <c r="C153" t="n">
-        <v>41.78</v>
+        <v>41.79</v>
       </c>
       <c r="D153" t="n">
-        <v>41.78</v>
+        <v>41.79</v>
       </c>
       <c r="E153" t="n">
-        <v>41.78</v>
+        <v>41.79</v>
       </c>
       <c r="F153" t="n">
-        <v>5774.2442</v>
+        <v>11760.1059</v>
       </c>
       <c r="G153" t="n">
-        <v>42.03566666666673</v>
+        <v>42.03933333333339</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5742,8 +6116,14 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5753,22 +6133,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>41.67</v>
+        <v>41.78</v>
       </c>
       <c r="C154" t="n">
-        <v>41.53</v>
+        <v>41.78</v>
       </c>
       <c r="D154" t="n">
-        <v>41.67</v>
+        <v>41.78</v>
       </c>
       <c r="E154" t="n">
-        <v>41.53</v>
+        <v>41.78</v>
       </c>
       <c r="F154" t="n">
-        <v>15037.0925</v>
+        <v>5774.2442</v>
       </c>
       <c r="G154" t="n">
-        <v>42.02550000000006</v>
+        <v>42.03566666666673</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5777,8 +6157,14 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5788,22 +6174,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>41.71</v>
+        <v>41.67</v>
       </c>
       <c r="C155" t="n">
-        <v>41.71</v>
+        <v>41.53</v>
       </c>
       <c r="D155" t="n">
-        <v>41.71</v>
+        <v>41.67</v>
       </c>
       <c r="E155" t="n">
-        <v>41.71</v>
+        <v>41.53</v>
       </c>
       <c r="F155" t="n">
-        <v>12</v>
+        <v>15037.0925</v>
       </c>
       <c r="G155" t="n">
-        <v>42.01916666666673</v>
+        <v>42.02550000000006</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5812,8 +6198,14 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5835,10 +6227,10 @@
         <v>41.71</v>
       </c>
       <c r="F156" t="n">
-        <v>5494.7381</v>
+        <v>12</v>
       </c>
       <c r="G156" t="n">
-        <v>42.01600000000006</v>
+        <v>42.01916666666673</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5847,8 +6239,14 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5858,22 +6256,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>41.65</v>
+        <v>41.71</v>
       </c>
       <c r="C157" t="n">
-        <v>41.65</v>
+        <v>41.71</v>
       </c>
       <c r="D157" t="n">
-        <v>41.65</v>
+        <v>41.71</v>
       </c>
       <c r="E157" t="n">
-        <v>41.65</v>
+        <v>41.71</v>
       </c>
       <c r="F157" t="n">
-        <v>6046.8551</v>
+        <v>5494.7381</v>
       </c>
       <c r="G157" t="n">
-        <v>42.00866666666673</v>
+        <v>42.01600000000006</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5882,8 +6280,14 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5893,22 +6297,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>41.62</v>
+        <v>41.65</v>
       </c>
       <c r="C158" t="n">
-        <v>41.71</v>
+        <v>41.65</v>
       </c>
       <c r="D158" t="n">
-        <v>41.71</v>
+        <v>41.65</v>
       </c>
       <c r="E158" t="n">
-        <v>41.62</v>
+        <v>41.65</v>
       </c>
       <c r="F158" t="n">
-        <v>5102.6773</v>
+        <v>6046.8551</v>
       </c>
       <c r="G158" t="n">
-        <v>42.00550000000006</v>
+        <v>42.00866666666673</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5917,8 +6321,14 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5928,22 +6338,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>41.75</v>
+        <v>41.62</v>
       </c>
       <c r="C159" t="n">
-        <v>41.75</v>
+        <v>41.71</v>
       </c>
       <c r="D159" t="n">
-        <v>41.75</v>
+        <v>41.71</v>
       </c>
       <c r="E159" t="n">
-        <v>41.75</v>
+        <v>41.62</v>
       </c>
       <c r="F159" t="n">
-        <v>1849.9999</v>
+        <v>5102.6773</v>
       </c>
       <c r="G159" t="n">
-        <v>42.00016666666672</v>
+        <v>42.00550000000006</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5952,8 +6362,14 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -5963,22 +6379,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>41.8</v>
+        <v>41.75</v>
       </c>
       <c r="C160" t="n">
-        <v>41.8</v>
+        <v>41.75</v>
       </c>
       <c r="D160" t="n">
-        <v>41.8</v>
+        <v>41.75</v>
       </c>
       <c r="E160" t="n">
-        <v>41.8</v>
+        <v>41.75</v>
       </c>
       <c r="F160" t="n">
-        <v>21.5312</v>
+        <v>1849.9999</v>
       </c>
       <c r="G160" t="n">
-        <v>41.99866666666673</v>
+        <v>42.00016666666672</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5987,8 +6403,14 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -5998,22 +6420,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>41.72</v>
+        <v>41.8</v>
       </c>
       <c r="C161" t="n">
-        <v>41.72</v>
+        <v>41.8</v>
       </c>
       <c r="D161" t="n">
-        <v>41.72</v>
+        <v>41.8</v>
       </c>
       <c r="E161" t="n">
-        <v>41.72</v>
+        <v>41.8</v>
       </c>
       <c r="F161" t="n">
-        <v>4317.6953</v>
+        <v>21.5312</v>
       </c>
       <c r="G161" t="n">
-        <v>41.99666666666672</v>
+        <v>41.99866666666673</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6022,8 +6444,14 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6033,22 +6461,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>41.79</v>
+        <v>41.72</v>
       </c>
       <c r="C162" t="n">
-        <v>41.79</v>
+        <v>41.72</v>
       </c>
       <c r="D162" t="n">
-        <v>41.79</v>
+        <v>41.72</v>
       </c>
       <c r="E162" t="n">
-        <v>41.79</v>
+        <v>41.72</v>
       </c>
       <c r="F162" t="n">
-        <v>974.0229</v>
+        <v>4317.6953</v>
       </c>
       <c r="G162" t="n">
-        <v>41.99583333333339</v>
+        <v>41.99666666666672</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6057,8 +6485,14 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6080,24 +6514,26 @@
         <v>41.79</v>
       </c>
       <c r="F163" t="n">
-        <v>4214.9109</v>
+        <v>974.0229</v>
       </c>
       <c r="G163" t="n">
-        <v>41.99500000000005</v>
+        <v>41.99583333333339</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>41.79</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="L163" t="inlineStr"/>
+        <v>42.01</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6107,22 +6543,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>41.76</v>
+        <v>41.79</v>
       </c>
       <c r="C164" t="n">
-        <v>41.62</v>
+        <v>41.79</v>
       </c>
       <c r="D164" t="n">
-        <v>41.76</v>
+        <v>41.79</v>
       </c>
       <c r="E164" t="n">
-        <v>41.62</v>
+        <v>41.79</v>
       </c>
       <c r="F164" t="n">
-        <v>10000</v>
+        <v>4214.9109</v>
       </c>
       <c r="G164" t="n">
-        <v>41.99133333333338</v>
+        <v>41.99500000000005</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6132,11 +6568,11 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>41.79</v>
+        <v>42.01</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M164" t="n">
@@ -6148,22 +6584,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>41.83</v>
+        <v>41.76</v>
       </c>
       <c r="C165" t="n">
-        <v>41.83</v>
+        <v>41.62</v>
       </c>
       <c r="D165" t="n">
-        <v>41.83</v>
+        <v>41.76</v>
       </c>
       <c r="E165" t="n">
-        <v>41.83</v>
+        <v>41.62</v>
       </c>
       <c r="F165" t="n">
-        <v>1957.9842</v>
+        <v>10000</v>
       </c>
       <c r="G165" t="n">
-        <v>41.99116666666671</v>
+        <v>41.99133333333338</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6173,7 +6609,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>41.79</v>
+        <v>42.01</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -6189,22 +6625,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>41.67</v>
+        <v>41.83</v>
       </c>
       <c r="C166" t="n">
-        <v>41.67</v>
+        <v>41.83</v>
       </c>
       <c r="D166" t="n">
-        <v>41.67</v>
+        <v>41.83</v>
       </c>
       <c r="E166" t="n">
-        <v>41.67</v>
+        <v>41.83</v>
       </c>
       <c r="F166" t="n">
-        <v>20000</v>
+        <v>1957.9842</v>
       </c>
       <c r="G166" t="n">
-        <v>41.98650000000005</v>
+        <v>41.99116666666671</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6214,7 +6650,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>41.79</v>
+        <v>42.01</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -6230,34 +6666,32 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>41.73</v>
+        <v>41.67</v>
       </c>
       <c r="C167" t="n">
-        <v>41.63</v>
+        <v>41.67</v>
       </c>
       <c r="D167" t="n">
-        <v>41.73</v>
+        <v>41.67</v>
       </c>
       <c r="E167" t="n">
-        <v>41.63</v>
+        <v>41.67</v>
       </c>
       <c r="F167" t="n">
-        <v>9489.9256</v>
+        <v>20000</v>
       </c>
       <c r="G167" t="n">
-        <v>41.98366666666671</v>
+        <v>41.98650000000005</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>41.67</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>41.79</v>
+        <v>42.01</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
@@ -6273,22 +6707,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>41.69</v>
+        <v>41.73</v>
       </c>
       <c r="C168" t="n">
-        <v>41.69</v>
+        <v>41.63</v>
       </c>
       <c r="D168" t="n">
-        <v>41.69</v>
+        <v>41.73</v>
       </c>
       <c r="E168" t="n">
-        <v>41.69</v>
+        <v>41.63</v>
       </c>
       <c r="F168" t="n">
-        <v>11278.3316</v>
+        <v>9489.9256</v>
       </c>
       <c r="G168" t="n">
-        <v>41.98183333333338</v>
+        <v>41.98366666666671</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6298,7 +6732,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>41.79</v>
+        <v>42.01</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
@@ -6314,22 +6748,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>41.8</v>
+        <v>41.69</v>
       </c>
       <c r="C169" t="n">
-        <v>41.85</v>
+        <v>41.69</v>
       </c>
       <c r="D169" t="n">
-        <v>41.85</v>
+        <v>41.69</v>
       </c>
       <c r="E169" t="n">
-        <v>41.8</v>
+        <v>41.69</v>
       </c>
       <c r="F169" t="n">
-        <v>6846.809</v>
+        <v>11278.3316</v>
       </c>
       <c r="G169" t="n">
-        <v>41.98083333333338</v>
+        <v>41.98183333333338</v>
       </c>
       <c r="H169" t="n">
         <v>1</v>
@@ -6338,10 +6772,10 @@
         <v>0</v>
       </c>
       <c r="J169" t="n">
-        <v>41.69</v>
+        <v>41.63</v>
       </c>
       <c r="K169" t="n">
-        <v>41.79</v>
+        <v>42.01</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
@@ -6357,22 +6791,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>41.91</v>
+        <v>41.8</v>
       </c>
       <c r="C170" t="n">
-        <v>41.91</v>
+        <v>41.85</v>
       </c>
       <c r="D170" t="n">
-        <v>41.91</v>
+        <v>41.85</v>
       </c>
       <c r="E170" t="n">
-        <v>41.91</v>
+        <v>41.8</v>
       </c>
       <c r="F170" t="n">
-        <v>719.3108</v>
+        <v>6846.809</v>
       </c>
       <c r="G170" t="n">
-        <v>41.98100000000004</v>
+        <v>41.98083333333338</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6382,7 +6816,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="n">
-        <v>41.79</v>
+        <v>42.01</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
@@ -6398,22 +6832,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>41.76</v>
+        <v>41.91</v>
       </c>
       <c r="C171" t="n">
-        <v>41.92</v>
+        <v>41.91</v>
       </c>
       <c r="D171" t="n">
-        <v>41.93</v>
+        <v>41.91</v>
       </c>
       <c r="E171" t="n">
-        <v>41.76</v>
+        <v>41.91</v>
       </c>
       <c r="F171" t="n">
-        <v>35993.007</v>
+        <v>719.3108</v>
       </c>
       <c r="G171" t="n">
-        <v>41.98316666666671</v>
+        <v>41.98100000000004</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6423,7 +6857,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
-        <v>41.79</v>
+        <v>42.01</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
@@ -6439,22 +6873,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>41.84</v>
+        <v>41.76</v>
       </c>
       <c r="C172" t="n">
-        <v>41.77</v>
+        <v>41.92</v>
       </c>
       <c r="D172" t="n">
-        <v>41.84</v>
+        <v>41.93</v>
       </c>
       <c r="E172" t="n">
-        <v>41.77</v>
+        <v>41.76</v>
       </c>
       <c r="F172" t="n">
-        <v>28967.6842</v>
+        <v>35993.007</v>
       </c>
       <c r="G172" t="n">
-        <v>41.98366666666671</v>
+        <v>41.98316666666671</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6464,7 +6898,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="n">
-        <v>41.79</v>
+        <v>42.01</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
@@ -6480,22 +6914,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>41.79</v>
+        <v>41.84</v>
       </c>
       <c r="C173" t="n">
-        <v>41.79</v>
+        <v>41.77</v>
       </c>
       <c r="D173" t="n">
-        <v>41.79</v>
+        <v>41.84</v>
       </c>
       <c r="E173" t="n">
-        <v>41.79</v>
+        <v>41.77</v>
       </c>
       <c r="F173" t="n">
-        <v>10410.7072</v>
+        <v>28967.6842</v>
       </c>
       <c r="G173" t="n">
-        <v>41.98116666666671</v>
+        <v>41.98366666666671</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6505,7 +6939,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="n">
-        <v>41.79</v>
+        <v>42.01</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>
@@ -6521,22 +6955,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>42.01</v>
+        <v>41.79</v>
       </c>
       <c r="C174" t="n">
         <v>41.79</v>
       </c>
       <c r="D174" t="n">
-        <v>42.01</v>
+        <v>41.79</v>
       </c>
       <c r="E174" t="n">
         <v>41.79</v>
       </c>
       <c r="F174" t="n">
-        <v>26900</v>
+        <v>10410.7072</v>
       </c>
       <c r="G174" t="n">
-        <v>41.97766666666671</v>
+        <v>41.98116666666671</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6546,7 +6980,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
-        <v>41.79</v>
+        <v>42.01</v>
       </c>
       <c r="L174" t="inlineStr">
         <is>
@@ -6565,19 +6999,19 @@
         <v>42.01</v>
       </c>
       <c r="C175" t="n">
-        <v>42.01</v>
+        <v>41.79</v>
       </c>
       <c r="D175" t="n">
         <v>42.01</v>
       </c>
       <c r="E175" t="n">
-        <v>42.01</v>
+        <v>41.79</v>
       </c>
       <c r="F175" t="n">
-        <v>32848.5014</v>
+        <v>26900</v>
       </c>
       <c r="G175" t="n">
-        <v>41.97800000000005</v>
+        <v>41.97766666666671</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6587,7 +7021,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
-        <v>41.79</v>
+        <v>42.01</v>
       </c>
       <c r="L175" t="inlineStr">
         <is>
@@ -6615,10 +7049,10 @@
         <v>42.01</v>
       </c>
       <c r="F176" t="n">
-        <v>20862.7299</v>
+        <v>32848.5014</v>
       </c>
       <c r="G176" t="n">
-        <v>41.97816666666672</v>
+        <v>41.97800000000005</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6628,7 +7062,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="n">
-        <v>41.79</v>
+        <v>42.01</v>
       </c>
       <c r="L176" t="inlineStr">
         <is>
@@ -6656,10 +7090,10 @@
         <v>42.01</v>
       </c>
       <c r="F177" t="n">
-        <v>3065.4555</v>
+        <v>20862.7299</v>
       </c>
       <c r="G177" t="n">
-        <v>41.97833333333339</v>
+        <v>41.97816666666672</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6669,7 +7103,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
-        <v>41.79</v>
+        <v>42.01</v>
       </c>
       <c r="L177" t="inlineStr">
         <is>
@@ -6685,22 +7119,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>41.97</v>
+        <v>42.01</v>
       </c>
       <c r="C178" t="n">
-        <v>41.94</v>
+        <v>42.01</v>
       </c>
       <c r="D178" t="n">
-        <v>41.97</v>
+        <v>42.01</v>
       </c>
       <c r="E178" t="n">
-        <v>41.94</v>
+        <v>42.01</v>
       </c>
       <c r="F178" t="n">
-        <v>2909.2914</v>
+        <v>3065.4555</v>
       </c>
       <c r="G178" t="n">
-        <v>41.97733333333339</v>
+        <v>41.97833333333339</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6710,7 +7144,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
-        <v>41.79</v>
+        <v>42.01</v>
       </c>
       <c r="L178" t="inlineStr">
         <is>
@@ -6726,22 +7160,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>42.01</v>
+        <v>41.97</v>
       </c>
       <c r="C179" t="n">
-        <v>42.01</v>
+        <v>41.94</v>
       </c>
       <c r="D179" t="n">
-        <v>42.01</v>
+        <v>41.97</v>
       </c>
       <c r="E179" t="n">
-        <v>42.01</v>
+        <v>41.94</v>
       </c>
       <c r="F179" t="n">
-        <v>17.0495</v>
+        <v>2909.2914</v>
       </c>
       <c r="G179" t="n">
-        <v>41.97766666666674</v>
+        <v>41.97733333333339</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6751,7 +7185,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
-        <v>41.79</v>
+        <v>42.01</v>
       </c>
       <c r="L179" t="inlineStr">
         <is>
@@ -6779,10 +7213,10 @@
         <v>42.01</v>
       </c>
       <c r="F180" t="n">
-        <v>1159.8059</v>
+        <v>17.0495</v>
       </c>
       <c r="G180" t="n">
-        <v>41.97416666666674</v>
+        <v>41.97766666666674</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6792,7 +7226,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="n">
-        <v>41.79</v>
+        <v>42.01</v>
       </c>
       <c r="L180" t="inlineStr">
         <is>
@@ -6808,22 +7242,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>41.9</v>
+        <v>42.01</v>
       </c>
       <c r="C181" t="n">
-        <v>41.9</v>
+        <v>42.01</v>
       </c>
       <c r="D181" t="n">
-        <v>41.9</v>
+        <v>42.01</v>
       </c>
       <c r="E181" t="n">
-        <v>41.9</v>
+        <v>42.01</v>
       </c>
       <c r="F181" t="n">
-        <v>1260</v>
+        <v>1159.8059</v>
       </c>
       <c r="G181" t="n">
-        <v>41.96816666666674</v>
+        <v>41.97416666666674</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6833,7 +7267,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
-        <v>41.79</v>
+        <v>42.01</v>
       </c>
       <c r="L181" t="inlineStr">
         <is>
@@ -6849,22 +7283,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>42</v>
+        <v>41.9</v>
       </c>
       <c r="C182" t="n">
-        <v>42</v>
+        <v>41.9</v>
       </c>
       <c r="D182" t="n">
-        <v>42</v>
+        <v>41.9</v>
       </c>
       <c r="E182" t="n">
-        <v>42</v>
+        <v>41.9</v>
       </c>
       <c r="F182" t="n">
-        <v>30</v>
+        <v>1260</v>
       </c>
       <c r="G182" t="n">
-        <v>41.96566666666673</v>
+        <v>41.96816666666674</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6874,7 +7308,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="n">
-        <v>41.79</v>
+        <v>42.01</v>
       </c>
       <c r="L182" t="inlineStr">
         <is>
@@ -6890,22 +7324,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>41.79</v>
+        <v>42</v>
       </c>
       <c r="C183" t="n">
-        <v>41.77</v>
+        <v>42</v>
       </c>
       <c r="D183" t="n">
-        <v>41.79</v>
+        <v>42</v>
       </c>
       <c r="E183" t="n">
-        <v>41.77</v>
+        <v>42</v>
       </c>
       <c r="F183" t="n">
-        <v>5208.1806</v>
+        <v>30</v>
       </c>
       <c r="G183" t="n">
-        <v>41.9593333333334</v>
+        <v>41.96566666666673</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6915,7 +7349,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="n">
-        <v>41.79</v>
+        <v>42.01</v>
       </c>
       <c r="L183" t="inlineStr">
         <is>
@@ -6931,22 +7365,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>41.66</v>
+        <v>41.79</v>
       </c>
       <c r="C184" t="n">
-        <v>41.66</v>
+        <v>41.77</v>
       </c>
       <c r="D184" t="n">
-        <v>41.66</v>
+        <v>41.79</v>
       </c>
       <c r="E184" t="n">
-        <v>41.66</v>
+        <v>41.77</v>
       </c>
       <c r="F184" t="n">
-        <v>9832.8673</v>
+        <v>5208.1806</v>
       </c>
       <c r="G184" t="n">
-        <v>41.94850000000007</v>
+        <v>41.9593333333334</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6956,7 +7390,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="n">
-        <v>41.79</v>
+        <v>42.01</v>
       </c>
       <c r="L184" t="inlineStr">
         <is>
@@ -6972,22 +7406,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>41.67</v>
+        <v>41.66</v>
       </c>
       <c r="C185" t="n">
-        <v>41.67</v>
+        <v>41.66</v>
       </c>
       <c r="D185" t="n">
-        <v>41.67</v>
+        <v>41.66</v>
       </c>
       <c r="E185" t="n">
-        <v>41.67</v>
+        <v>41.66</v>
       </c>
       <c r="F185" t="n">
-        <v>1715.4098</v>
+        <v>9832.8673</v>
       </c>
       <c r="G185" t="n">
-        <v>41.93866666666673</v>
+        <v>41.94850000000007</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6997,7 +7431,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="n">
-        <v>41.79</v>
+        <v>42.01</v>
       </c>
       <c r="L185" t="inlineStr">
         <is>
@@ -7013,22 +7447,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>41.66</v>
+        <v>41.67</v>
       </c>
       <c r="C186" t="n">
-        <v>41.66</v>
+        <v>41.67</v>
       </c>
       <c r="D186" t="n">
-        <v>41.66</v>
+        <v>41.67</v>
       </c>
       <c r="E186" t="n">
-        <v>41.66</v>
+        <v>41.67</v>
       </c>
       <c r="F186" t="n">
-        <v>856.9</v>
+        <v>1715.4098</v>
       </c>
       <c r="G186" t="n">
-        <v>41.92966666666673</v>
+        <v>41.93866666666673</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7038,7 +7472,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="n">
-        <v>41.79</v>
+        <v>42.01</v>
       </c>
       <c r="L186" t="inlineStr">
         <is>
@@ -7054,22 +7488,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>41.77</v>
+        <v>41.66</v>
       </c>
       <c r="C187" t="n">
-        <v>41.77</v>
+        <v>41.66</v>
       </c>
       <c r="D187" t="n">
-        <v>41.77</v>
+        <v>41.66</v>
       </c>
       <c r="E187" t="n">
-        <v>41.77</v>
+        <v>41.66</v>
       </c>
       <c r="F187" t="n">
-        <v>1220.7388</v>
+        <v>856.9</v>
       </c>
       <c r="G187" t="n">
-        <v>41.92083333333339</v>
+        <v>41.92966666666673</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7079,7 +7513,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="n">
-        <v>41.79</v>
+        <v>42.01</v>
       </c>
       <c r="L187" t="inlineStr">
         <is>
@@ -7095,22 +7529,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>41.74</v>
+        <v>41.77</v>
       </c>
       <c r="C188" t="n">
-        <v>41.68</v>
+        <v>41.77</v>
       </c>
       <c r="D188" t="n">
-        <v>41.74</v>
+        <v>41.77</v>
       </c>
       <c r="E188" t="n">
-        <v>41.68</v>
+        <v>41.77</v>
       </c>
       <c r="F188" t="n">
-        <v>140664.5608</v>
+        <v>1220.7388</v>
       </c>
       <c r="G188" t="n">
-        <v>41.91050000000006</v>
+        <v>41.92083333333339</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7120,7 +7554,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
-        <v>41.79</v>
+        <v>42.01</v>
       </c>
       <c r="L188" t="inlineStr">
         <is>
@@ -7136,22 +7570,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>41.77</v>
+        <v>41.74</v>
       </c>
       <c r="C189" t="n">
-        <v>41.86</v>
+        <v>41.68</v>
       </c>
       <c r="D189" t="n">
-        <v>41.86</v>
+        <v>41.74</v>
       </c>
       <c r="E189" t="n">
-        <v>41.77</v>
+        <v>41.68</v>
       </c>
       <c r="F189" t="n">
-        <v>818.6161</v>
+        <v>140664.5608</v>
       </c>
       <c r="G189" t="n">
-        <v>41.90333333333339</v>
+        <v>41.91050000000006</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7161,7 +7595,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
-        <v>41.79</v>
+        <v>42.01</v>
       </c>
       <c r="L189" t="inlineStr">
         <is>
@@ -7177,22 +7611,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>41.91</v>
+        <v>41.77</v>
       </c>
       <c r="C190" t="n">
-        <v>41.91</v>
+        <v>41.86</v>
       </c>
       <c r="D190" t="n">
-        <v>41.91</v>
+        <v>41.86</v>
       </c>
       <c r="E190" t="n">
-        <v>41.91</v>
+        <v>41.77</v>
       </c>
       <c r="F190" t="n">
-        <v>1715.4098</v>
+        <v>818.6161</v>
       </c>
       <c r="G190" t="n">
-        <v>41.89700000000006</v>
+        <v>41.90333333333339</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7202,7 +7636,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="n">
-        <v>41.79</v>
+        <v>42.01</v>
       </c>
       <c r="L190" t="inlineStr">
         <is>
@@ -7218,22 +7652,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>41.94</v>
+        <v>41.91</v>
       </c>
       <c r="C191" t="n">
-        <v>41.78</v>
+        <v>41.91</v>
       </c>
       <c r="D191" t="n">
-        <v>41.94</v>
+        <v>41.91</v>
       </c>
       <c r="E191" t="n">
-        <v>41.78</v>
+        <v>41.91</v>
       </c>
       <c r="F191" t="n">
-        <v>3350.7897</v>
+        <v>1715.4098</v>
       </c>
       <c r="G191" t="n">
-        <v>41.89083333333339</v>
+        <v>41.89700000000006</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7243,7 +7677,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="n">
-        <v>41.79</v>
+        <v>42.01</v>
       </c>
       <c r="L191" t="inlineStr">
         <is>
@@ -7259,22 +7693,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>41.86</v>
+        <v>41.94</v>
       </c>
       <c r="C192" t="n">
-        <v>41.86</v>
+        <v>41.78</v>
       </c>
       <c r="D192" t="n">
-        <v>41.86</v>
+        <v>41.94</v>
       </c>
       <c r="E192" t="n">
-        <v>41.86</v>
+        <v>41.78</v>
       </c>
       <c r="F192" t="n">
-        <v>25.7222</v>
+        <v>3350.7897</v>
       </c>
       <c r="G192" t="n">
-        <v>41.88516666666673</v>
+        <v>41.89083333333339</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7284,7 +7718,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="n">
-        <v>41.79</v>
+        <v>42.01</v>
       </c>
       <c r="L192" t="inlineStr">
         <is>
@@ -7312,10 +7746,10 @@
         <v>41.86</v>
       </c>
       <c r="F193" t="n">
-        <v>1241.997</v>
+        <v>25.7222</v>
       </c>
       <c r="G193" t="n">
-        <v>41.8783333333334</v>
+        <v>41.88516666666673</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7325,7 +7759,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="n">
-        <v>41.79</v>
+        <v>42.01</v>
       </c>
       <c r="L193" t="inlineStr">
         <is>
@@ -7341,22 +7775,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>41.9</v>
+        <v>41.86</v>
       </c>
       <c r="C194" t="n">
-        <v>41.9</v>
+        <v>41.86</v>
       </c>
       <c r="D194" t="n">
-        <v>41.9</v>
+        <v>41.86</v>
       </c>
       <c r="E194" t="n">
-        <v>41.9</v>
+        <v>41.86</v>
       </c>
       <c r="F194" t="n">
-        <v>1000</v>
+        <v>1241.997</v>
       </c>
       <c r="G194" t="n">
-        <v>41.87216666666674</v>
+        <v>41.8783333333334</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7366,7 +7800,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="n">
-        <v>41.79</v>
+        <v>42.01</v>
       </c>
       <c r="L194" t="inlineStr">
         <is>
@@ -7394,10 +7828,10 @@
         <v>41.9</v>
       </c>
       <c r="F195" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="G195" t="n">
-        <v>41.8673333333334</v>
+        <v>41.87216666666674</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7407,7 +7841,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
-        <v>41.79</v>
+        <v>42.01</v>
       </c>
       <c r="L195" t="inlineStr">
         <is>
@@ -7435,10 +7869,10 @@
         <v>41.9</v>
       </c>
       <c r="F196" t="n">
-        <v>23900.0887</v>
+        <v>65</v>
       </c>
       <c r="G196" t="n">
-        <v>41.86250000000007</v>
+        <v>41.8673333333334</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7448,7 +7882,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="n">
-        <v>41.79</v>
+        <v>42.01</v>
       </c>
       <c r="L196" t="inlineStr">
         <is>
@@ -7476,10 +7910,10 @@
         <v>41.9</v>
       </c>
       <c r="F197" t="n">
-        <v>843.8883</v>
+        <v>23900.0887</v>
       </c>
       <c r="G197" t="n">
-        <v>41.85750000000007</v>
+        <v>41.86250000000007</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7489,7 +7923,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="n">
-        <v>41.79</v>
+        <v>42.01</v>
       </c>
       <c r="L197" t="inlineStr">
         <is>
@@ -7505,22 +7939,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>41.77</v>
+        <v>41.9</v>
       </c>
       <c r="C198" t="n">
-        <v>41.77</v>
+        <v>41.9</v>
       </c>
       <c r="D198" t="n">
-        <v>41.77</v>
+        <v>41.9</v>
       </c>
       <c r="E198" t="n">
-        <v>41.77</v>
+        <v>41.9</v>
       </c>
       <c r="F198" t="n">
-        <v>541.3131</v>
+        <v>843.8883</v>
       </c>
       <c r="G198" t="n">
-        <v>41.84916666666674</v>
+        <v>41.85750000000007</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7530,7 +7964,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="n">
-        <v>41.79</v>
+        <v>42.01</v>
       </c>
       <c r="L198" t="inlineStr">
         <is>
@@ -7546,22 +7980,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>41.9</v>
+        <v>41.77</v>
       </c>
       <c r="C199" t="n">
-        <v>41.9</v>
+        <v>41.77</v>
       </c>
       <c r="D199" t="n">
-        <v>41.9</v>
+        <v>41.77</v>
       </c>
       <c r="E199" t="n">
-        <v>41.9</v>
+        <v>41.77</v>
       </c>
       <c r="F199" t="n">
-        <v>25.7276</v>
+        <v>541.3131</v>
       </c>
       <c r="G199" t="n">
-        <v>41.84566666666674</v>
+        <v>41.84916666666674</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7571,7 +8005,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="n">
-        <v>41.79</v>
+        <v>42.01</v>
       </c>
       <c r="L199" t="inlineStr">
         <is>
@@ -7579,6 +8013,47 @@
         </is>
       </c>
       <c r="M199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="C200" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="D200" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="E200" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="F200" t="n">
+        <v>25.7276</v>
+      </c>
+      <c r="G200" t="n">
+        <v>41.84566666666674</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-13 BackTest ADA.xlsx
+++ b/BackTest/2020-01-13 BackTest ADA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M200"/>
+  <dimension ref="A1:N210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>52864.681</v>
       </c>
       <c r="G2" t="n">
+        <v>41.62200000000002</v>
+      </c>
+      <c r="H2" t="n">
         <v>41.86783333333332</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>108107.5499</v>
       </c>
       <c r="G3" t="n">
+        <v>41.63000000000002</v>
+      </c>
+      <c r="H3" t="n">
         <v>41.86149999999999</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>140.9416</v>
       </c>
       <c r="G4" t="n">
+        <v>41.63600000000002</v>
+      </c>
+      <c r="H4" t="n">
         <v>41.85399999999998</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>4848.2024</v>
       </c>
       <c r="G5" t="n">
+        <v>41.63733333333335</v>
+      </c>
+      <c r="H5" t="n">
         <v>41.84616666666664</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>51.5103</v>
       </c>
       <c r="G6" t="n">
+        <v>41.64666666666668</v>
+      </c>
+      <c r="H6" t="n">
         <v>41.83849999999997</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>6824.9754</v>
       </c>
       <c r="G7" t="n">
+        <v>41.65466666666669</v>
+      </c>
+      <c r="H7" t="n">
         <v>41.83049999999998</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>99.02119999999999</v>
       </c>
       <c r="G8" t="n">
+        <v>41.66400000000002</v>
+      </c>
+      <c r="H8" t="n">
         <v>41.82283333333331</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>13584.5575</v>
       </c>
       <c r="G9" t="n">
+        <v>41.67200000000002</v>
+      </c>
+      <c r="H9" t="n">
         <v>41.81483333333331</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,25 @@
         <v>2796.6534</v>
       </c>
       <c r="G10" t="n">
+        <v>41.68000000000002</v>
+      </c>
+      <c r="H10" t="n">
         <v>41.81016666666664</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="L10" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +799,27 @@
         <v>112792.1201</v>
       </c>
       <c r="G11" t="n">
+        <v>41.68933333333335</v>
+      </c>
+      <c r="H11" t="n">
         <v>41.80599999999997</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="L11" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +843,27 @@
         <v>5362.6411</v>
       </c>
       <c r="G12" t="n">
+        <v>41.69066666666668</v>
+      </c>
+      <c r="H12" t="n">
         <v>41.80066666666664</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="L12" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +887,27 @@
         <v>3922.6322</v>
       </c>
       <c r="G13" t="n">
+        <v>41.70000000000002</v>
+      </c>
+      <c r="H13" t="n">
         <v>41.79349999999997</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="L13" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +931,27 @@
         <v>1214.0304</v>
       </c>
       <c r="G14" t="n">
+        <v>41.70933333333335</v>
+      </c>
+      <c r="H14" t="n">
         <v>41.7893333333333</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="L14" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +975,27 @@
         <v>3922.6322</v>
       </c>
       <c r="G15" t="n">
+        <v>41.71400000000001</v>
+      </c>
+      <c r="H15" t="n">
         <v>41.78399999999998</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="L15" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1019,29 @@
         <v>16383.604</v>
       </c>
       <c r="G16" t="n">
+        <v>41.72266666666668</v>
+      </c>
+      <c r="H16" t="n">
         <v>41.77983333333331</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>41.67</v>
+      </c>
+      <c r="L16" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1065,29 @@
         <v>3717</v>
       </c>
       <c r="G17" t="n">
+        <v>41.72666666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>41.77799999999998</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>41.74</v>
+      </c>
+      <c r="L17" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1111,27 @@
         <v>1995</v>
       </c>
       <c r="G18" t="n">
+        <v>41.72600000000001</v>
+      </c>
+      <c r="H18" t="n">
         <v>41.77149999999998</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="L18" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1155,27 @@
         <v>1202.6899</v>
       </c>
       <c r="G19" t="n">
+        <v>41.722</v>
+      </c>
+      <c r="H19" t="n">
         <v>41.76449999999998</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="L19" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1199,27 @@
         <v>7669.2344</v>
       </c>
       <c r="G20" t="n">
+        <v>41.72733333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>41.75783333333332</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="L20" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1243,27 @@
         <v>2374.3689</v>
       </c>
       <c r="G21" t="n">
+        <v>41.726</v>
+      </c>
+      <c r="H21" t="n">
         <v>41.74999999999999</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="L21" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1287,27 @@
         <v>1395.8465</v>
       </c>
       <c r="G22" t="n">
+        <v>41.72333333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>41.74649999999998</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="L22" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1331,27 @@
         <v>10596.4667</v>
       </c>
       <c r="G23" t="n">
+        <v>41.71866666666666</v>
+      </c>
+      <c r="H23" t="n">
         <v>41.74099999999999</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="L23" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1375,27 @@
         <v>7559.9932</v>
       </c>
       <c r="G24" t="n">
+        <v>41.71933333333332</v>
+      </c>
+      <c r="H24" t="n">
         <v>41.73833333333332</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1419,27 @@
         <v>21970.517</v>
       </c>
       <c r="G25" t="n">
+        <v>41.71666666666665</v>
+      </c>
+      <c r="H25" t="n">
         <v>41.73483333333332</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1463,27 @@
         <v>1079.0449</v>
       </c>
       <c r="G26" t="n">
+        <v>41.72199999999999</v>
+      </c>
+      <c r="H26" t="n">
         <v>41.73366666666666</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1507,27 @@
         <v>1652.6237</v>
       </c>
       <c r="G27" t="n">
+        <v>41.724</v>
+      </c>
+      <c r="H27" t="n">
         <v>41.73466666666666</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1551,27 @@
         <v>33.8699</v>
       </c>
       <c r="G28" t="n">
+        <v>41.73799999999999</v>
+      </c>
+      <c r="H28" t="n">
         <v>41.73716666666665</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1595,27 @@
         <v>59.99043977</v>
       </c>
       <c r="G29" t="n">
+        <v>41.74466666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>41.73949999999999</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1639,27 @@
         <v>34.99043977</v>
       </c>
       <c r="G30" t="n">
+        <v>41.756</v>
+      </c>
+      <c r="H30" t="n">
         <v>41.74283333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1683,27 @@
         <v>4033.6067</v>
       </c>
       <c r="G31" t="n">
+        <v>41.75133333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>41.73933333333333</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1727,27 @@
         <v>51.1538</v>
       </c>
       <c r="G32" t="n">
+        <v>41.74666666666667</v>
+      </c>
+      <c r="H32" t="n">
         <v>41.73783333333333</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1771,27 @@
         <v>25.5769</v>
       </c>
       <c r="G33" t="n">
+        <v>41.74666666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>41.73149999999999</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1815,27 @@
         <v>230</v>
       </c>
       <c r="G34" t="n">
+        <v>41.75000000000001</v>
+      </c>
+      <c r="H34" t="n">
         <v>41.72549999999999</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1859,27 @@
         <v>1693</v>
       </c>
       <c r="G35" t="n">
+        <v>41.74533333333334</v>
+      </c>
+      <c r="H35" t="n">
         <v>41.71849999999998</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1903,29 @@
         <v>1036.9515</v>
       </c>
       <c r="G36" t="n">
+        <v>41.74600000000001</v>
+      </c>
+      <c r="H36" t="n">
         <v>41.71283333333331</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>41.73</v>
+      </c>
+      <c r="L36" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1949,27 @@
         <v>6024.1666</v>
       </c>
       <c r="G37" t="n">
+        <v>41.74933333333335</v>
+      </c>
+      <c r="H37" t="n">
         <v>41.71149999999999</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1993,27 @@
         <v>76.0663</v>
       </c>
       <c r="G38" t="n">
+        <v>41.76000000000002</v>
+      </c>
+      <c r="H38" t="n">
         <v>41.71199999999998</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2037,29 @@
         <v>1874.9</v>
       </c>
       <c r="G39" t="n">
+        <v>41.76066666666669</v>
+      </c>
+      <c r="H39" t="n">
         <v>41.71099999999998</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>41.83</v>
+      </c>
+      <c r="L39" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2083,29 @@
         <v>2004.9331</v>
       </c>
       <c r="G40" t="n">
+        <v>41.76666666666669</v>
+      </c>
+      <c r="H40" t="n">
         <v>41.70666666666664</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>41.74</v>
+      </c>
+      <c r="L40" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2129,27 @@
         <v>154.6792</v>
       </c>
       <c r="G41" t="n">
+        <v>41.76333333333335</v>
+      </c>
+      <c r="H41" t="n">
         <v>41.7063333333333</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2173,27 @@
         <v>23881.45806749</v>
       </c>
       <c r="G42" t="n">
+        <v>41.77533333333335</v>
+      </c>
+      <c r="H42" t="n">
         <v>41.70549999999998</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2217,27 @@
         <v>27481.2048</v>
       </c>
       <c r="G43" t="n">
+        <v>41.77400000000001</v>
+      </c>
+      <c r="H43" t="n">
         <v>41.70849999999997</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2261,27 @@
         <v>21230.4244</v>
       </c>
       <c r="G44" t="n">
+        <v>41.78066666666668</v>
+      </c>
+      <c r="H44" t="n">
         <v>41.71199999999997</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2305,27 @@
         <v>21852.6187</v>
       </c>
       <c r="G45" t="n">
+        <v>41.78933333333335</v>
+      </c>
+      <c r="H45" t="n">
         <v>41.71816666666664</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2349,27 @@
         <v>34570.8066</v>
       </c>
       <c r="G46" t="n">
+        <v>41.80400000000001</v>
+      </c>
+      <c r="H46" t="n">
         <v>41.72299999999997</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2393,27 @@
         <v>425.8104</v>
       </c>
       <c r="G47" t="n">
+        <v>41.82333333333334</v>
+      </c>
+      <c r="H47" t="n">
         <v>41.72966666666664</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2437,27 @@
         <v>11072.7275</v>
       </c>
       <c r="G48" t="n">
+        <v>41.83266666666668</v>
+      </c>
+      <c r="H48" t="n">
         <v>41.73383333333331</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2481,27 @@
         <v>95.79840178000001</v>
       </c>
       <c r="G49" t="n">
+        <v>41.84733333333335</v>
+      </c>
+      <c r="H49" t="n">
         <v>41.7388333333333</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2525,27 @@
         <v>96.1905</v>
       </c>
       <c r="G50" t="n">
+        <v>41.85000000000001</v>
+      </c>
+      <c r="H50" t="n">
         <v>41.73999999999997</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2569,27 @@
         <v>20.0071</v>
       </c>
       <c r="G51" t="n">
+        <v>41.86466666666668</v>
+      </c>
+      <c r="H51" t="n">
         <v>41.7458333333333</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2613,27 @@
         <v>1687.726</v>
       </c>
       <c r="G52" t="n">
+        <v>41.876</v>
+      </c>
+      <c r="H52" t="n">
         <v>41.7508333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2657,27 @@
         <v>45.22767175</v>
       </c>
       <c r="G53" t="n">
+        <v>41.882</v>
+      </c>
+      <c r="H53" t="n">
         <v>41.75616666666664</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2701,27 @@
         <v>21504.5693</v>
       </c>
       <c r="G54" t="n">
+        <v>41.884</v>
+      </c>
+      <c r="H54" t="n">
         <v>41.75899999999998</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2745,27 @@
         <v>15.0989</v>
       </c>
       <c r="G55" t="n">
+        <v>41.89266666666666</v>
+      </c>
+      <c r="H55" t="n">
         <v>41.76399999999998</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2789,29 @@
         <v>18177.9966</v>
       </c>
       <c r="G56" t="n">
+        <v>41.89333333333333</v>
+      </c>
+      <c r="H56" t="n">
         <v>41.76699999999998</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="L56" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2835,29 @@
         <v>2318.5768</v>
       </c>
       <c r="G57" t="n">
+        <v>41.886</v>
+      </c>
+      <c r="H57" t="n">
         <v>41.76899999999998</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>41.78</v>
+      </c>
+      <c r="L57" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2881,29 @@
         <v>923.2971</v>
       </c>
       <c r="G58" t="n">
+        <v>41.88133333333334</v>
+      </c>
+      <c r="H58" t="n">
         <v>41.77333333333332</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>41.77</v>
+      </c>
+      <c r="L58" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2927,29 @@
         <v>3428.1275</v>
       </c>
       <c r="G59" t="n">
+        <v>41.87066666666666</v>
+      </c>
+      <c r="H59" t="n">
         <v>41.77633333333333</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>41.86</v>
+      </c>
+      <c r="L59" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2973,29 @@
         <v>46.742</v>
       </c>
       <c r="G60" t="n">
+        <v>41.86066666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>41.77999999999999</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>41.78</v>
+      </c>
+      <c r="L60" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +3019,29 @@
         <v>70</v>
       </c>
       <c r="G61" t="n">
+        <v>41.86266666666666</v>
+      </c>
+      <c r="H61" t="n">
         <v>41.78516666666666</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>41.82</v>
+      </c>
+      <c r="L61" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +3065,27 @@
         <v>1905.70982825</v>
       </c>
       <c r="G62" t="n">
+        <v>41.85733333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>41.7885</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +3109,27 @@
         <v>3604.9707</v>
       </c>
       <c r="G63" t="n">
+        <v>41.864</v>
+      </c>
+      <c r="H63" t="n">
         <v>41.79233333333333</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +3153,27 @@
         <v>845.0281</v>
       </c>
       <c r="G64" t="n">
+        <v>41.86533333333333</v>
+      </c>
+      <c r="H64" t="n">
         <v>41.79616666666666</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +3197,27 @@
         <v>290.1818</v>
       </c>
       <c r="G65" t="n">
+        <v>41.87866666666666</v>
+      </c>
+      <c r="H65" t="n">
         <v>41.80033333333333</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +3241,27 @@
         <v>5560.8066</v>
       </c>
       <c r="G66" t="n">
+        <v>41.88</v>
+      </c>
+      <c r="H66" t="n">
         <v>41.80416666666667</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +3285,27 @@
         <v>23274.69</v>
       </c>
       <c r="G67" t="n">
+        <v>41.88466666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>41.80833333333333</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3329,27 @@
         <v>31366.6955</v>
       </c>
       <c r="G68" t="n">
+        <v>41.89466666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>41.81383333333334</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3373,27 @@
         <v>7668.8</v>
       </c>
       <c r="G69" t="n">
+        <v>41.91266666666667</v>
+      </c>
+      <c r="H69" t="n">
         <v>41.81916666666667</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3417,27 @@
         <v>44.9318</v>
       </c>
       <c r="G70" t="n">
+        <v>41.92933333333334</v>
+      </c>
+      <c r="H70" t="n">
         <v>41.82633333333334</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3461,27 @@
         <v>7404.6153</v>
       </c>
       <c r="G71" t="n">
+        <v>41.954</v>
+      </c>
+      <c r="H71" t="n">
         <v>41.83316666666668</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3505,27 @@
         <v>7651.2934</v>
       </c>
       <c r="G72" t="n">
+        <v>41.98733333333334</v>
+      </c>
+      <c r="H72" t="n">
         <v>41.84316666666668</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3549,27 @@
         <v>700.987</v>
       </c>
       <c r="G73" t="n">
+        <v>42.00866666666666</v>
+      </c>
+      <c r="H73" t="n">
         <v>41.85050000000002</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3593,27 @@
         <v>198.395</v>
       </c>
       <c r="G74" t="n">
+        <v>42.03533333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>41.85783333333335</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3637,27 @@
         <v>6699.4182</v>
       </c>
       <c r="G75" t="n">
+        <v>42.05866666666666</v>
+      </c>
+      <c r="H75" t="n">
         <v>41.86616666666669</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3681,27 @@
         <v>9460.9354</v>
       </c>
       <c r="G76" t="n">
+        <v>42.07399999999999</v>
+      </c>
+      <c r="H76" t="n">
         <v>41.87300000000003</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3725,27 @@
         <v>1869.90760066</v>
       </c>
       <c r="G77" t="n">
+        <v>42.09733333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>41.88116666666669</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3769,27 @@
         <v>25054.9964</v>
       </c>
       <c r="G78" t="n">
+        <v>42.11066666666666</v>
+      </c>
+      <c r="H78" t="n">
         <v>41.88850000000002</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3813,27 @@
         <v>8619.4154</v>
       </c>
       <c r="G79" t="n">
+        <v>42.12266666666665</v>
+      </c>
+      <c r="H79" t="n">
         <v>41.89633333333336</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3857,27 @@
         <v>2678.182</v>
       </c>
       <c r="G80" t="n">
+        <v>42.13133333333332</v>
+      </c>
+      <c r="H80" t="n">
         <v>41.90133333333335</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3901,27 @@
         <v>1156</v>
       </c>
       <c r="G81" t="n">
+        <v>42.13999999999999</v>
+      </c>
+      <c r="H81" t="n">
         <v>41.90766666666669</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3945,27 @@
         <v>1200.6519</v>
       </c>
       <c r="G82" t="n">
+        <v>42.14666666666665</v>
+      </c>
+      <c r="H82" t="n">
         <v>41.91416666666669</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3989,27 @@
         <v>1356.5001</v>
       </c>
       <c r="G83" t="n">
+        <v>42.14866666666665</v>
+      </c>
+      <c r="H83" t="n">
         <v>41.92133333333336</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,19 +4033,28 @@
         <v>833.3</v>
       </c>
       <c r="G84" t="n">
+        <v>42.15933333333332</v>
+      </c>
+      <c r="H84" t="n">
         <v>41.92916666666669</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
+      <c r="L84" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>1.00650527325024</v>
       </c>
     </row>
     <row r="85">
@@ -3353,18 +4077,21 @@
         <v>55271.0546</v>
       </c>
       <c r="G85" t="n">
+        <v>42.16266666666666</v>
+      </c>
+      <c r="H85" t="n">
         <v>41.93783333333336</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +4115,21 @@
         <v>200</v>
       </c>
       <c r="G86" t="n">
+        <v>42.166</v>
+      </c>
+      <c r="H86" t="n">
         <v>41.94416666666668</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +4153,21 @@
         <v>911.864</v>
       </c>
       <c r="G87" t="n">
+        <v>42.152</v>
+      </c>
+      <c r="H87" t="n">
         <v>41.95016666666668</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +4191,21 @@
         <v>8634.5735</v>
       </c>
       <c r="G88" t="n">
+        <v>42.144</v>
+      </c>
+      <c r="H88" t="n">
         <v>41.95200000000002</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +4229,21 @@
         <v>24991.5633</v>
       </c>
       <c r="G89" t="n">
+        <v>42.13</v>
+      </c>
+      <c r="H89" t="n">
         <v>41.95416666666668</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +4267,21 @@
         <v>113.8225</v>
       </c>
       <c r="G90" t="n">
+        <v>42.13133333333334</v>
+      </c>
+      <c r="H90" t="n">
         <v>41.96000000000002</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,22 +4305,21 @@
         <v>279.9274</v>
       </c>
       <c r="G91" t="n">
+        <v>42.13400000000001</v>
+      </c>
+      <c r="H91" t="n">
         <v>41.96866666666668</v>
       </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>42.19</v>
-      </c>
-      <c r="K91" t="n">
-        <v>42.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3602,24 +4343,21 @@
         <v>1504.6514</v>
       </c>
       <c r="G92" t="n">
+        <v>42.11600000000001</v>
+      </c>
+      <c r="H92" t="n">
         <v>41.97350000000002</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>42.19</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3643,24 +4381,21 @@
         <v>150.3616</v>
       </c>
       <c r="G93" t="n">
+        <v>42.10666666666668</v>
+      </c>
+      <c r="H93" t="n">
         <v>41.97850000000002</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>42.19</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3684,22 +4419,21 @@
         <v>8075.5466</v>
       </c>
       <c r="G94" t="n">
+        <v>42.09666666666668</v>
+      </c>
+      <c r="H94" t="n">
         <v>41.98300000000002</v>
       </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="K94" t="n">
-        <v>42.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3723,26 +4457,21 @@
         <v>133.1043</v>
       </c>
       <c r="G95" t="n">
+        <v>42.09933333333334</v>
+      </c>
+      <c r="H95" t="n">
         <v>41.98983333333334</v>
       </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>42</v>
-      </c>
-      <c r="K95" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3766,26 +4495,21 @@
         <v>1287.9753</v>
       </c>
       <c r="G96" t="n">
+        <v>42.09866666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>41.99583333333335</v>
       </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>42.14</v>
-      </c>
-      <c r="K96" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3809,24 +4533,21 @@
         <v>4800</v>
       </c>
       <c r="G97" t="n">
+        <v>42.08733333333334</v>
+      </c>
+      <c r="H97" t="n">
         <v>41.99866666666669</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3850,26 +4571,21 @@
         <v>630.7853</v>
       </c>
       <c r="G98" t="n">
+        <v>42.08666666666667</v>
+      </c>
+      <c r="H98" t="n">
         <v>42.00300000000002</v>
       </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="K98" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3893,24 +4609,21 @@
         <v>232.859</v>
       </c>
       <c r="G99" t="n">
+        <v>42.06666666666667</v>
+      </c>
+      <c r="H99" t="n">
         <v>42.00566666666669</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3934,24 +4647,21 @@
         <v>39.1102</v>
       </c>
       <c r="G100" t="n">
+        <v>42.058</v>
+      </c>
+      <c r="H100" t="n">
         <v>42.01066666666669</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3975,24 +4685,21 @@
         <v>4148.3075</v>
       </c>
       <c r="G101" t="n">
+        <v>42.03733333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>42.0126666666667</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4016,24 +4723,21 @@
         <v>8994.395</v>
       </c>
       <c r="G102" t="n">
+        <v>42.02266666666666</v>
+      </c>
+      <c r="H102" t="n">
         <v>42.01200000000003</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4057,24 +4761,21 @@
         <v>1982.3576</v>
       </c>
       <c r="G103" t="n">
+        <v>42.008</v>
+      </c>
+      <c r="H103" t="n">
         <v>42.01050000000003</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4098,24 +4799,21 @@
         <v>1051.31</v>
       </c>
       <c r="G104" t="n">
+        <v>41.99933333333333</v>
+      </c>
+      <c r="H104" t="n">
         <v>42.00883333333336</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4139,24 +4837,21 @@
         <v>6678.5139</v>
       </c>
       <c r="G105" t="n">
+        <v>41.97599999999999</v>
+      </c>
+      <c r="H105" t="n">
         <v>42.0066666666667</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4180,24 +4875,21 @@
         <v>1745.5763</v>
       </c>
       <c r="G106" t="n">
+        <v>41.95266666666667</v>
+      </c>
+      <c r="H106" t="n">
         <v>42.00583333333338</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4221,24 +4913,21 @@
         <v>1834.5137</v>
       </c>
       <c r="G107" t="n">
+        <v>41.94933333333334</v>
+      </c>
+      <c r="H107" t="n">
         <v>42.00500000000004</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4262,24 +4951,21 @@
         <v>949.3819999999999</v>
       </c>
       <c r="G108" t="n">
+        <v>41.93533333333333</v>
+      </c>
+      <c r="H108" t="n">
         <v>42.00416666666671</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4303,24 +4989,21 @@
         <v>108425.1398</v>
       </c>
       <c r="G109" t="n">
+        <v>41.922</v>
+      </c>
+      <c r="H109" t="n">
         <v>42.00166666666671</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4344,24 +5027,21 @@
         <v>1645.3518</v>
       </c>
       <c r="G110" t="n">
+        <v>41.90666666666666</v>
+      </c>
+      <c r="H110" t="n">
         <v>42.00400000000005</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4385,24 +5065,21 @@
         <v>5990.7919</v>
       </c>
       <c r="G111" t="n">
+        <v>41.89399999999999</v>
+      </c>
+      <c r="H111" t="n">
         <v>42.00316666666672</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,24 +5103,21 @@
         <v>949.3819999999999</v>
       </c>
       <c r="G112" t="n">
+        <v>41.88666666666666</v>
+      </c>
+      <c r="H112" t="n">
         <v>42.00133333333338</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4467,24 +5141,21 @@
         <v>181675.3545</v>
       </c>
       <c r="G113" t="n">
+        <v>41.86333333333332</v>
+      </c>
+      <c r="H113" t="n">
         <v>41.99833333333338</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,24 +5179,21 @@
         <v>154.7521</v>
       </c>
       <c r="G114" t="n">
+        <v>41.86599999999999</v>
+      </c>
+      <c r="H114" t="n">
         <v>42.00116666666671</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4549,24 +5217,21 @@
         <v>54845.2478</v>
       </c>
       <c r="G115" t="n">
+        <v>41.86133333333332</v>
+      </c>
+      <c r="H115" t="n">
         <v>42.00283333333338</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4590,24 +5255,21 @@
         <v>300</v>
       </c>
       <c r="G116" t="n">
+        <v>41.86799999999999</v>
+      </c>
+      <c r="H116" t="n">
         <v>42.00633333333337</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4631,24 +5293,21 @@
         <v>223.0235</v>
       </c>
       <c r="G117" t="n">
+        <v>41.87866666666665</v>
+      </c>
+      <c r="H117" t="n">
         <v>42.01016666666671</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4672,24 +5331,21 @@
         <v>5574.2722</v>
       </c>
       <c r="G118" t="n">
+        <v>41.88933333333332</v>
+      </c>
+      <c r="H118" t="n">
         <v>42.01250000000004</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4713,24 +5369,21 @@
         <v>4425.7278</v>
       </c>
       <c r="G119" t="n">
+        <v>41.89999999999998</v>
+      </c>
+      <c r="H119" t="n">
         <v>42.0161666666667</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4754,24 +5407,21 @@
         <v>11783.8851</v>
       </c>
       <c r="G120" t="n">
+        <v>41.90999999999998</v>
+      </c>
+      <c r="H120" t="n">
         <v>42.01900000000003</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4795,24 +5445,21 @@
         <v>18080.1925</v>
       </c>
       <c r="G121" t="n">
+        <v>41.93533333333332</v>
+      </c>
+      <c r="H121" t="n">
         <v>42.02400000000002</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4836,24 +5483,21 @@
         <v>2181.0251</v>
       </c>
       <c r="G122" t="n">
+        <v>41.95599999999998</v>
+      </c>
+      <c r="H122" t="n">
         <v>42.02966666666669</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4877,24 +5521,21 @@
         <v>1243.6143</v>
       </c>
       <c r="G123" t="n">
+        <v>41.97933333333332</v>
+      </c>
+      <c r="H123" t="n">
         <v>42.03300000000003</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4918,24 +5559,21 @@
         <v>930.2987000000001</v>
       </c>
       <c r="G124" t="n">
+        <v>42.00266666666665</v>
+      </c>
+      <c r="H124" t="n">
         <v>42.03600000000004</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4959,24 +5597,21 @@
         <v>49.3345</v>
       </c>
       <c r="G125" t="n">
+        <v>42.02933333333331</v>
+      </c>
+      <c r="H125" t="n">
         <v>42.04166666666671</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5000,24 +5635,21 @@
         <v>81.77946048</v>
       </c>
       <c r="G126" t="n">
+        <v>42.05333333333331</v>
+      </c>
+      <c r="H126" t="n">
         <v>42.04650000000004</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5041,24 +5673,21 @@
         <v>8729.197399999999</v>
       </c>
       <c r="G127" t="n">
+        <v>42.08066666666665</v>
+      </c>
+      <c r="H127" t="n">
         <v>42.05033333333338</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5082,24 +5711,21 @@
         <v>250</v>
       </c>
       <c r="G128" t="n">
+        <v>42.11799999999998</v>
+      </c>
+      <c r="H128" t="n">
         <v>42.05416666666671</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5123,24 +5749,21 @@
         <v>50</v>
       </c>
       <c r="G129" t="n">
+        <v>42.14199999999997</v>
+      </c>
+      <c r="H129" t="n">
         <v>42.05850000000005</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5164,24 +5787,21 @@
         <v>3107.4798</v>
       </c>
       <c r="G130" t="n">
+        <v>42.16133333333331</v>
+      </c>
+      <c r="H130" t="n">
         <v>42.06083333333338</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5205,24 +5825,21 @@
         <v>12811.976</v>
       </c>
       <c r="G131" t="n">
+        <v>42.18133333333331</v>
+      </c>
+      <c r="H131" t="n">
         <v>42.06316666666671</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5246,24 +5863,21 @@
         <v>200</v>
       </c>
       <c r="G132" t="n">
+        <v>42.1913333333333</v>
+      </c>
+      <c r="H132" t="n">
         <v>42.06116666666671</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5287,24 +5901,21 @@
         <v>1140</v>
       </c>
       <c r="G133" t="n">
+        <v>42.20466666666664</v>
+      </c>
+      <c r="H133" t="n">
         <v>42.06150000000004</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5328,24 +5939,21 @@
         <v>150</v>
       </c>
       <c r="G134" t="n">
+        <v>42.22266666666664</v>
+      </c>
+      <c r="H134" t="n">
         <v>42.06300000000005</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5369,24 +5977,21 @@
         <v>148.3543</v>
       </c>
       <c r="G135" t="n">
+        <v>42.2413333333333</v>
+      </c>
+      <c r="H135" t="n">
         <v>42.06466666666672</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="J135" t="n">
+        <v>1</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5410,24 +6015,21 @@
         <v>944.3635</v>
       </c>
       <c r="G136" t="n">
+        <v>42.2393333333333</v>
+      </c>
+      <c r="H136" t="n">
         <v>42.06533333333338</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5451,24 +6053,21 @@
         <v>120.934</v>
       </c>
       <c r="G137" t="n">
+        <v>42.23466666666663</v>
+      </c>
+      <c r="H137" t="n">
         <v>42.06400000000005</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5492,24 +6091,21 @@
         <v>645.3538</v>
       </c>
       <c r="G138" t="n">
+        <v>42.23799999999997</v>
+      </c>
+      <c r="H138" t="n">
         <v>42.06483333333338</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5533,24 +6129,21 @@
         <v>30.1502</v>
       </c>
       <c r="G139" t="n">
+        <v>42.24599999999997</v>
+      </c>
+      <c r="H139" t="n">
         <v>42.06683333333338</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="J139" t="n">
+        <v>1</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5574,24 +6167,21 @@
         <v>470.5936</v>
       </c>
       <c r="G140" t="n">
+        <v>42.23266666666664</v>
+      </c>
+      <c r="H140" t="n">
         <v>42.06700000000004</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5615,24 +6205,21 @@
         <v>22.6162</v>
       </c>
       <c r="G141" t="n">
+        <v>42.23333333333331</v>
+      </c>
+      <c r="H141" t="n">
         <v>42.06983333333338</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="J141" t="n">
+        <v>1</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5656,24 +6243,21 @@
         <v>1000</v>
       </c>
       <c r="G142" t="n">
+        <v>42.22599999999997</v>
+      </c>
+      <c r="H142" t="n">
         <v>42.07016666666672</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5697,24 +6281,21 @@
         <v>10210.1</v>
       </c>
       <c r="G143" t="n">
+        <v>42.20666666666664</v>
+      </c>
+      <c r="H143" t="n">
         <v>42.06866666666672</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="J143" t="n">
+        <v>1</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5738,24 +6319,21 @@
         <v>25708.2124</v>
       </c>
       <c r="G144" t="n">
+        <v>42.18733333333331</v>
+      </c>
+      <c r="H144" t="n">
         <v>42.06550000000006</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="J144" t="n">
+        <v>1</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5779,24 +6357,21 @@
         <v>2185.7923</v>
       </c>
       <c r="G145" t="n">
+        <v>42.16799999999998</v>
+      </c>
+      <c r="H145" t="n">
         <v>42.06216666666673</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5820,24 +6395,21 @@
         <v>1153.5666</v>
       </c>
       <c r="G146" t="n">
+        <v>42.14866666666664</v>
+      </c>
+      <c r="H146" t="n">
         <v>42.0588333333334</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5861,24 +6433,21 @@
         <v>11697.7336</v>
       </c>
       <c r="G147" t="n">
+        <v>42.13866666666664</v>
+      </c>
+      <c r="H147" t="n">
         <v>42.0578333333334</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5902,24 +6471,21 @@
         <v>20722.1</v>
       </c>
       <c r="G148" t="n">
+        <v>42.12533333333331</v>
+      </c>
+      <c r="H148" t="n">
         <v>42.0568333333334</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="J148" t="n">
+        <v>1</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5943,24 +6509,21 @@
         <v>1083.226</v>
       </c>
       <c r="G149" t="n">
+        <v>42.10666666666665</v>
+      </c>
+      <c r="H149" t="n">
         <v>42.05716666666673</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5984,24 +6547,21 @@
         <v>38469.3478</v>
       </c>
       <c r="G150" t="n">
+        <v>42.08266666666665</v>
+      </c>
+      <c r="H150" t="n">
         <v>42.05250000000006</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6025,24 +6585,21 @@
         <v>2188.1837</v>
       </c>
       <c r="G151" t="n">
+        <v>42.05866666666665</v>
+      </c>
+      <c r="H151" t="n">
         <v>42.04650000000006</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6066,24 +6623,21 @@
         <v>15119.5805</v>
       </c>
       <c r="G152" t="n">
+        <v>42.03199999999997</v>
+      </c>
+      <c r="H152" t="n">
         <v>42.04300000000006</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6107,24 +6661,21 @@
         <v>11760.1059</v>
       </c>
       <c r="G153" t="n">
+        <v>42.00466666666663</v>
+      </c>
+      <c r="H153" t="n">
         <v>42.03933333333339</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6148,24 +6699,21 @@
         <v>5774.2442</v>
       </c>
       <c r="G154" t="n">
+        <v>41.97199999999997</v>
+      </c>
+      <c r="H154" t="n">
         <v>42.03566666666673</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6189,24 +6737,21 @@
         <v>15037.0925</v>
       </c>
       <c r="G155" t="n">
+        <v>41.93333333333329</v>
+      </c>
+      <c r="H155" t="n">
         <v>42.02550000000006</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6230,24 +6775,21 @@
         <v>12</v>
       </c>
       <c r="G156" t="n">
+        <v>41.89599999999997</v>
+      </c>
+      <c r="H156" t="n">
         <v>42.01916666666673</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6271,24 +6813,21 @@
         <v>5494.7381</v>
       </c>
       <c r="G157" t="n">
+        <v>41.87066666666663</v>
+      </c>
+      <c r="H157" t="n">
         <v>42.01600000000006</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6312,24 +6851,21 @@
         <v>6046.8551</v>
       </c>
       <c r="G158" t="n">
+        <v>41.84666666666663</v>
+      </c>
+      <c r="H158" t="n">
         <v>42.00866666666673</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6353,24 +6889,21 @@
         <v>5102.6773</v>
       </c>
       <c r="G159" t="n">
+        <v>41.82666666666663</v>
+      </c>
+      <c r="H159" t="n">
         <v>42.00550000000006</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6394,24 +6927,21 @@
         <v>1849.9999</v>
       </c>
       <c r="G160" t="n">
+        <v>41.80999999999997</v>
+      </c>
+      <c r="H160" t="n">
         <v>42.00016666666672</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6435,24 +6965,21 @@
         <v>21.5312</v>
       </c>
       <c r="G161" t="n">
+        <v>41.79666666666663</v>
+      </c>
+      <c r="H161" t="n">
         <v>41.99866666666673</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6476,24 +7003,21 @@
         <v>4317.6953</v>
       </c>
       <c r="G162" t="n">
+        <v>41.77799999999997</v>
+      </c>
+      <c r="H162" t="n">
         <v>41.99666666666672</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6517,24 +7041,21 @@
         <v>974.0229</v>
       </c>
       <c r="G163" t="n">
+        <v>41.76399999999997</v>
+      </c>
+      <c r="H163" t="n">
         <v>41.99583333333339</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6558,24 +7079,21 @@
         <v>4214.9109</v>
       </c>
       <c r="G164" t="n">
+        <v>41.75066666666662</v>
+      </c>
+      <c r="H164" t="n">
         <v>41.99500000000005</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6599,24 +7117,21 @@
         <v>10000</v>
       </c>
       <c r="G165" t="n">
+        <v>41.7313333333333</v>
+      </c>
+      <c r="H165" t="n">
         <v>41.99133333333338</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6640,24 +7155,21 @@
         <v>1957.9842</v>
       </c>
       <c r="G166" t="n">
+        <v>41.7313333333333</v>
+      </c>
+      <c r="H166" t="n">
         <v>41.99116666666671</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6681,24 +7193,21 @@
         <v>20000</v>
       </c>
       <c r="G167" t="n">
+        <v>41.72333333333329</v>
+      </c>
+      <c r="H167" t="n">
         <v>41.98650000000005</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6722,24 +7231,21 @@
         <v>9489.9256</v>
       </c>
       <c r="G168" t="n">
+        <v>41.71266666666664</v>
+      </c>
+      <c r="H168" t="n">
         <v>41.98366666666671</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6763,26 +7269,21 @@
         <v>11278.3316</v>
       </c>
       <c r="G169" t="n">
+        <v>41.70666666666663</v>
+      </c>
+      <c r="H169" t="n">
         <v>41.98183333333338</v>
       </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
       <c r="J169" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K169" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6806,24 +7307,21 @@
         <v>6846.809</v>
       </c>
       <c r="G170" t="n">
+        <v>41.72799999999997</v>
+      </c>
+      <c r="H170" t="n">
         <v>41.98083333333338</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6847,24 +7345,21 @@
         <v>719.3108</v>
       </c>
       <c r="G171" t="n">
+        <v>41.74133333333329</v>
+      </c>
+      <c r="H171" t="n">
         <v>41.98100000000004</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6888,24 +7383,21 @@
         <v>35993.007</v>
       </c>
       <c r="G172" t="n">
+        <v>41.75533333333329</v>
+      </c>
+      <c r="H172" t="n">
         <v>41.98316666666671</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6929,24 +7421,21 @@
         <v>28967.6842</v>
       </c>
       <c r="G173" t="n">
+        <v>41.76333333333329</v>
+      </c>
+      <c r="H173" t="n">
         <v>41.98366666666671</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6970,24 +7459,21 @@
         <v>10410.7072</v>
       </c>
       <c r="G174" t="n">
+        <v>41.76866666666662</v>
+      </c>
+      <c r="H174" t="n">
         <v>41.98116666666671</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7011,24 +7497,21 @@
         <v>26900</v>
       </c>
       <c r="G175" t="n">
+        <v>41.77133333333328</v>
+      </c>
+      <c r="H175" t="n">
         <v>41.97766666666671</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7052,24 +7535,21 @@
         <v>32848.5014</v>
       </c>
       <c r="G176" t="n">
+        <v>41.78533333333328</v>
+      </c>
+      <c r="H176" t="n">
         <v>41.97800000000005</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7093,24 +7573,21 @@
         <v>20862.7299</v>
       </c>
       <c r="G177" t="n">
+        <v>41.80466666666662</v>
+      </c>
+      <c r="H177" t="n">
         <v>41.97816666666672</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7134,24 +7611,21 @@
         <v>3065.4555</v>
       </c>
       <c r="G178" t="n">
+        <v>41.81933333333328</v>
+      </c>
+      <c r="H178" t="n">
         <v>41.97833333333339</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7175,24 +7649,21 @@
         <v>2909.2914</v>
       </c>
       <c r="G179" t="n">
+        <v>41.82933333333329</v>
+      </c>
+      <c r="H179" t="n">
         <v>41.97733333333339</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7216,24 +7687,21 @@
         <v>17.0495</v>
       </c>
       <c r="G180" t="n">
+        <v>41.85533333333329</v>
+      </c>
+      <c r="H180" t="n">
         <v>41.97766666666674</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7257,24 +7725,21 @@
         <v>1159.8059</v>
       </c>
       <c r="G181" t="n">
+        <v>41.86733333333328</v>
+      </c>
+      <c r="H181" t="n">
         <v>41.97416666666674</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7298,24 +7763,21 @@
         <v>1260</v>
       </c>
       <c r="G182" t="n">
+        <v>41.88266666666662</v>
+      </c>
+      <c r="H182" t="n">
         <v>41.96816666666674</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7339,24 +7801,21 @@
         <v>30</v>
       </c>
       <c r="G183" t="n">
+        <v>41.90733333333329</v>
+      </c>
+      <c r="H183" t="n">
         <v>41.96566666666673</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7380,24 +7839,21 @@
         <v>5208.1806</v>
       </c>
       <c r="G184" t="n">
+        <v>41.91266666666662</v>
+      </c>
+      <c r="H184" t="n">
         <v>41.9593333333334</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7421,24 +7877,21 @@
         <v>9832.8673</v>
       </c>
       <c r="G185" t="n">
+        <v>41.89999999999996</v>
+      </c>
+      <c r="H185" t="n">
         <v>41.94850000000007</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7462,24 +7915,21 @@
         <v>1715.4098</v>
       </c>
       <c r="G186" t="n">
+        <v>41.88399999999995</v>
+      </c>
+      <c r="H186" t="n">
         <v>41.93866666666673</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7503,24 +7953,21 @@
         <v>856.9</v>
       </c>
       <c r="G187" t="n">
+        <v>41.86666666666662</v>
+      </c>
+      <c r="H187" t="n">
         <v>41.92966666666673</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7544,24 +7991,25 @@
         <v>1220.7388</v>
       </c>
       <c r="G188" t="n">
+        <v>41.86666666666662</v>
+      </c>
+      <c r="H188" t="n">
         <v>41.92083333333339</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
+        <v>41.66</v>
+      </c>
+      <c r="L188" t="n">
+        <v>41.66</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7585,24 +8033,29 @@
         <v>140664.5608</v>
       </c>
       <c r="G189" t="n">
+        <v>41.85933333333329</v>
+      </c>
+      <c r="H189" t="n">
         <v>41.91050000000006</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
+        <v>41.77</v>
+      </c>
+      <c r="L189" t="n">
+        <v>41.66</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7626,24 +8079,29 @@
         <v>818.6161</v>
       </c>
       <c r="G190" t="n">
+        <v>41.86399999999995</v>
+      </c>
+      <c r="H190" t="n">
         <v>41.90333333333339</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
+        <v>41.68</v>
+      </c>
+      <c r="L190" t="n">
+        <v>41.66</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7667,24 +8125,21 @@
         <v>1715.4098</v>
       </c>
       <c r="G191" t="n">
+        <v>41.85733333333329</v>
+      </c>
+      <c r="H191" t="n">
         <v>41.89700000000006</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7708,24 +8163,21 @@
         <v>3350.7897</v>
       </c>
       <c r="G192" t="n">
+        <v>41.84199999999996</v>
+      </c>
+      <c r="H192" t="n">
         <v>41.89083333333339</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7749,24 +8201,21 @@
         <v>25.7222</v>
       </c>
       <c r="G193" t="n">
+        <v>41.83199999999996</v>
+      </c>
+      <c r="H193" t="n">
         <v>41.88516666666673</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7790,24 +8239,21 @@
         <v>1241.997</v>
       </c>
       <c r="G194" t="n">
+        <v>41.82666666666663</v>
+      </c>
+      <c r="H194" t="n">
         <v>41.8783333333334</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7831,24 +8277,21 @@
         <v>1000</v>
       </c>
       <c r="G195" t="n">
+        <v>41.81933333333329</v>
+      </c>
+      <c r="H195" t="n">
         <v>41.87216666666674</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7872,24 +8315,21 @@
         <v>65</v>
       </c>
       <c r="G196" t="n">
+        <v>41.81199999999996</v>
+      </c>
+      <c r="H196" t="n">
         <v>41.8673333333334</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7913,24 +8353,21 @@
         <v>23900.0887</v>
       </c>
       <c r="G197" t="n">
+        <v>41.81199999999996</v>
+      </c>
+      <c r="H197" t="n">
         <v>41.86250000000007</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7954,24 +8391,21 @@
         <v>843.8883</v>
       </c>
       <c r="G198" t="n">
+        <v>41.80533333333329</v>
+      </c>
+      <c r="H198" t="n">
         <v>41.85750000000007</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7995,24 +8429,21 @@
         <v>541.3131</v>
       </c>
       <c r="G199" t="n">
+        <v>41.80533333333329</v>
+      </c>
+      <c r="H199" t="n">
         <v>41.84916666666674</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8036,24 +8467,475 @@
         <v>25.7276</v>
       </c>
       <c r="G200" t="n">
+        <v>41.82133333333329</v>
+      </c>
+      <c r="H200" t="n">
         <v>41.84566666666674</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="L200" t="inlineStr">
+        <v>41.77</v>
+      </c>
+      <c r="L200" t="n">
+        <v>41.77</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>41.89</v>
+      </c>
+      <c r="C201" t="n">
+        <v>41.89</v>
+      </c>
+      <c r="D201" t="n">
+        <v>41.89</v>
+      </c>
+      <c r="E201" t="n">
+        <v>41.89</v>
+      </c>
+      <c r="F201" t="n">
+        <v>480.0133</v>
+      </c>
+      <c r="G201" t="n">
+        <v>41.83599999999996</v>
+      </c>
+      <c r="H201" t="n">
+        <v>41.83933333333341</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>41.77</v>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>41.77</v>
+      </c>
+      <c r="C202" t="n">
+        <v>41.84</v>
+      </c>
+      <c r="D202" t="n">
+        <v>41.84</v>
+      </c>
+      <c r="E202" t="n">
+        <v>41.77</v>
+      </c>
+      <c r="F202" t="n">
+        <v>5704.7937</v>
+      </c>
+      <c r="G202" t="n">
+        <v>41.84799999999996</v>
+      </c>
+      <c r="H202" t="n">
+        <v>41.83516666666674</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>41.77</v>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>41.69</v>
+      </c>
+      <c r="C203" t="n">
+        <v>41.69</v>
+      </c>
+      <c r="D203" t="n">
+        <v>41.69</v>
+      </c>
+      <c r="E203" t="n">
+        <v>41.69</v>
+      </c>
+      <c r="F203" t="n">
+        <v>4282.4803</v>
+      </c>
+      <c r="G203" t="n">
+        <v>41.84266666666663</v>
+      </c>
+      <c r="H203" t="n">
+        <v>41.8298333333334</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>41.77</v>
+      </c>
+      <c r="M203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M200" t="n">
+      <c r="N203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="C204" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="D204" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="E204" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1280</v>
+      </c>
+      <c r="G204" t="n">
+        <v>41.85066666666663</v>
+      </c>
+      <c r="H204" t="n">
+        <v>41.8263333333334</v>
+      </c>
+      <c r="I204" t="n">
+        <v>1</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="n">
+        <v>41.69</v>
+      </c>
+      <c r="L204" t="n">
+        <v>41.77</v>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="C205" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="D205" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="E205" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="F205" t="n">
+        <v>457.4439</v>
+      </c>
+      <c r="G205" t="n">
+        <v>41.83999999999996</v>
+      </c>
+      <c r="H205" t="n">
+        <v>41.8213333333334</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>41.77</v>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="C206" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="D206" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="E206" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="F206" t="n">
+        <v>938.4087</v>
+      </c>
+      <c r="G206" t="n">
+        <v>41.82599999999997</v>
+      </c>
+      <c r="H206" t="n">
+        <v>41.8163333333334</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>41.77</v>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="C207" t="n">
+        <v>41.67</v>
+      </c>
+      <c r="D207" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="E207" t="n">
+        <v>41.67</v>
+      </c>
+      <c r="F207" t="n">
+        <v>1990</v>
+      </c>
+      <c r="G207" t="n">
+        <v>41.81866666666664</v>
+      </c>
+      <c r="H207" t="n">
+        <v>41.8108333333334</v>
+      </c>
+      <c r="I207" t="n">
+        <v>1</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="L207" t="n">
+        <v>41.77</v>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="C208" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="D208" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="E208" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1035.2241</v>
+      </c>
+      <c r="G208" t="n">
+        <v>41.80799999999997</v>
+      </c>
+      <c r="H208" t="n">
+        <v>41.80583333333339</v>
+      </c>
+      <c r="I208" t="n">
+        <v>1</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="n">
+        <v>41.67</v>
+      </c>
+      <c r="L208" t="n">
+        <v>41.77</v>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="C209" t="n">
+        <v>41.82</v>
+      </c>
+      <c r="D209" t="n">
+        <v>41.82</v>
+      </c>
+      <c r="E209" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="F209" t="n">
+        <v>344.7759</v>
+      </c>
+      <c r="G209" t="n">
+        <v>41.80533333333331</v>
+      </c>
+      <c r="H209" t="n">
+        <v>41.80300000000007</v>
+      </c>
+      <c r="I209" t="n">
+        <v>1</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="L209" t="n">
+        <v>41.77</v>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>41.82</v>
+      </c>
+      <c r="C210" t="n">
+        <v>41.82</v>
+      </c>
+      <c r="D210" t="n">
+        <v>41.82</v>
+      </c>
+      <c r="E210" t="n">
+        <v>41.82</v>
+      </c>
+      <c r="F210" t="n">
+        <v>300</v>
+      </c>
+      <c r="G210" t="n">
+        <v>41.79999999999998</v>
+      </c>
+      <c r="H210" t="n">
+        <v>41.80150000000007</v>
+      </c>
+      <c r="I210" t="n">
+        <v>1</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="n">
+        <v>41.82</v>
+      </c>
+      <c r="L210" t="n">
+        <v>41.77</v>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-13 BackTest ADA.xlsx
+++ b/BackTest/2020-01-13 BackTest ADA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M239"/>
+  <dimension ref="A1:N197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>42.09</v>
+        <v>41.67</v>
       </c>
       <c r="C2" t="n">
-        <v>42.09</v>
+        <v>41.67</v>
       </c>
       <c r="D2" t="n">
-        <v>42.09</v>
+        <v>41.67</v>
       </c>
       <c r="E2" t="n">
-        <v>42.09</v>
+        <v>41.67</v>
       </c>
       <c r="F2" t="n">
-        <v>2130</v>
+        <v>3922.6322</v>
       </c>
       <c r="G2" t="n">
-        <v>-59065.84834573999</v>
+        <v>-132141.69756533</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>42.09</v>
+        <v>41.74</v>
       </c>
       <c r="C3" t="n">
-        <v>42.09</v>
+        <v>41.74</v>
       </c>
       <c r="D3" t="n">
-        <v>42.09</v>
+        <v>41.74</v>
       </c>
       <c r="E3" t="n">
-        <v>42.09</v>
+        <v>41.74</v>
       </c>
       <c r="F3" t="n">
-        <v>808.2424</v>
+        <v>16383.604</v>
       </c>
       <c r="G3" t="n">
-        <v>-59065.84834573999</v>
+        <v>-115758.0935653301</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>42.05</v>
+        <v>41.78</v>
       </c>
       <c r="C4" t="n">
-        <v>42.15</v>
+        <v>41.78</v>
       </c>
       <c r="D4" t="n">
-        <v>42.15</v>
+        <v>41.78</v>
       </c>
       <c r="E4" t="n">
-        <v>42.05</v>
+        <v>41.78</v>
       </c>
       <c r="F4" t="n">
-        <v>22017.13298827</v>
+        <v>3717</v>
       </c>
       <c r="G4" t="n">
-        <v>-37048.71535746998</v>
+        <v>-112041.0935653301</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>42.05</v>
+        <v>41.71</v>
       </c>
       <c r="C5" t="n">
-        <v>42.07</v>
+        <v>41.71</v>
       </c>
       <c r="D5" t="n">
-        <v>42.07</v>
+        <v>41.71</v>
       </c>
       <c r="E5" t="n">
-        <v>42.05</v>
+        <v>41.71</v>
       </c>
       <c r="F5" t="n">
-        <v>4495.59305918</v>
+        <v>1995</v>
       </c>
       <c r="G5" t="n">
-        <v>-41544.30841664998</v>
+        <v>-114036.0935653301</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>41.81</v>
+        <v>41.68</v>
       </c>
       <c r="C6" t="n">
-        <v>41.81</v>
+        <v>41.68</v>
       </c>
       <c r="D6" t="n">
-        <v>41.81</v>
+        <v>41.68</v>
       </c>
       <c r="E6" t="n">
-        <v>41.81</v>
+        <v>41.68</v>
       </c>
       <c r="F6" t="n">
-        <v>562.6753</v>
+        <v>1202.6899</v>
       </c>
       <c r="G6" t="n">
-        <v>-42106.98371664999</v>
+        <v>-115238.7834653301</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,10 +630,10 @@
         <v>41.8</v>
       </c>
       <c r="F7" t="n">
-        <v>144.6016</v>
+        <v>7669.2344</v>
       </c>
       <c r="G7" t="n">
-        <v>-42251.58531664999</v>
+        <v>-107569.5490653301</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>41.8</v>
+        <v>41.72</v>
       </c>
       <c r="C8" t="n">
-        <v>41.8</v>
+        <v>41.72</v>
       </c>
       <c r="D8" t="n">
-        <v>41.8</v>
+        <v>41.72</v>
       </c>
       <c r="E8" t="n">
-        <v>41.8</v>
+        <v>41.72</v>
       </c>
       <c r="F8" t="n">
-        <v>2499.9998</v>
+        <v>2374.3689</v>
       </c>
       <c r="G8" t="n">
-        <v>-42251.58531664999</v>
+        <v>-109943.9179653301</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>41.9</v>
+        <v>41.68</v>
       </c>
       <c r="C9" t="n">
-        <v>42.03</v>
+        <v>41.68</v>
       </c>
       <c r="D9" t="n">
-        <v>42.03</v>
+        <v>41.68</v>
       </c>
       <c r="E9" t="n">
-        <v>41.9</v>
+        <v>41.68</v>
       </c>
       <c r="F9" t="n">
-        <v>16200</v>
+        <v>1395.8465</v>
       </c>
       <c r="G9" t="n">
-        <v>-26051.58531664999</v>
+        <v>-111339.7644653301</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>41.78</v>
+        <v>41.68</v>
       </c>
       <c r="C10" t="n">
-        <v>41.79</v>
+        <v>41.67</v>
       </c>
       <c r="D10" t="n">
-        <v>41.79</v>
+        <v>41.68</v>
       </c>
       <c r="E10" t="n">
-        <v>41.78</v>
+        <v>41.67</v>
       </c>
       <c r="F10" t="n">
-        <v>16972.6793</v>
+        <v>10596.4667</v>
       </c>
       <c r="G10" t="n">
-        <v>-43024.26461664999</v>
+        <v>-121936.2311653301</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>41.79</v>
+        <v>41.73</v>
       </c>
       <c r="C11" t="n">
-        <v>41.93</v>
+        <v>41.73</v>
       </c>
       <c r="D11" t="n">
-        <v>41.93</v>
+        <v>41.73</v>
       </c>
       <c r="E11" t="n">
-        <v>41.79</v>
+        <v>41.73</v>
       </c>
       <c r="F11" t="n">
-        <v>6439.36405132</v>
+        <v>7559.9932</v>
       </c>
       <c r="G11" t="n">
-        <v>-36584.90056532999</v>
+        <v>-114376.2379653301</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>41.75</v>
+        <v>41.73</v>
       </c>
       <c r="C12" t="n">
-        <v>41.75</v>
+        <v>41.68</v>
       </c>
       <c r="D12" t="n">
-        <v>41.75</v>
+        <v>41.73</v>
       </c>
       <c r="E12" t="n">
-        <v>41.75</v>
+        <v>41.68</v>
       </c>
       <c r="F12" t="n">
-        <v>644.2188</v>
+        <v>21970.517</v>
       </c>
       <c r="G12" t="n">
-        <v>-37229.11936532999</v>
+        <v>-136346.7549653301</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>41.73</v>
+        <v>41.7</v>
       </c>
       <c r="C13" t="n">
-        <v>41.73</v>
+        <v>41.82</v>
       </c>
       <c r="D13" t="n">
-        <v>41.73</v>
+        <v>41.82</v>
       </c>
       <c r="E13" t="n">
-        <v>41.73</v>
+        <v>41.7</v>
       </c>
       <c r="F13" t="n">
-        <v>279.519</v>
+        <v>1079.0449</v>
       </c>
       <c r="G13" t="n">
-        <v>-37508.63836532999</v>
+        <v>-135267.7100653301</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>41.73</v>
+        <v>41.92</v>
       </c>
       <c r="C14" t="n">
-        <v>41.6</v>
+        <v>41.7</v>
       </c>
       <c r="D14" t="n">
-        <v>41.73</v>
+        <v>41.92</v>
       </c>
       <c r="E14" t="n">
-        <v>41.6</v>
+        <v>41.7</v>
       </c>
       <c r="F14" t="n">
-        <v>2313.9893</v>
+        <v>1652.6237</v>
       </c>
       <c r="G14" t="n">
-        <v>-39822.62766532999</v>
+        <v>-136920.3337653301</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>41.6</v>
+        <v>41.95</v>
       </c>
       <c r="C15" t="n">
-        <v>41.6</v>
+        <v>41.95</v>
       </c>
       <c r="D15" t="n">
-        <v>41.6</v>
+        <v>41.95</v>
       </c>
       <c r="E15" t="n">
-        <v>41.6</v>
+        <v>41.95</v>
       </c>
       <c r="F15" t="n">
-        <v>19100.5832</v>
+        <v>33.8699</v>
       </c>
       <c r="G15" t="n">
-        <v>-39822.62766532999</v>
+        <v>-136886.4638653301</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>41.6</v>
+        <v>41.84</v>
       </c>
       <c r="C16" t="n">
-        <v>41.6</v>
+        <v>41.84</v>
       </c>
       <c r="D16" t="n">
-        <v>41.6</v>
+        <v>41.84</v>
       </c>
       <c r="E16" t="n">
-        <v>41.6</v>
+        <v>41.84</v>
       </c>
       <c r="F16" t="n">
-        <v>38095</v>
+        <v>59.99043977</v>
       </c>
       <c r="G16" t="n">
-        <v>-39822.62766532999</v>
+        <v>-136946.4543051001</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>41.6</v>
+        <v>41.84</v>
       </c>
       <c r="C17" t="n">
-        <v>41.6</v>
+        <v>41.84</v>
       </c>
       <c r="D17" t="n">
-        <v>41.6</v>
+        <v>41.84</v>
       </c>
       <c r="E17" t="n">
-        <v>41.6</v>
+        <v>41.84</v>
       </c>
       <c r="F17" t="n">
-        <v>72000</v>
+        <v>34.99043977</v>
       </c>
       <c r="G17" t="n">
-        <v>-39822.62766532999</v>
+        <v>-136946.4543051001</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>41.6</v>
+        <v>41.67</v>
       </c>
       <c r="C18" t="n">
-        <v>41.65</v>
+        <v>41.67</v>
       </c>
       <c r="D18" t="n">
-        <v>41.65</v>
+        <v>41.67</v>
       </c>
       <c r="E18" t="n">
-        <v>41.6</v>
+        <v>41.67</v>
       </c>
       <c r="F18" t="n">
-        <v>2252.0251</v>
+        <v>4033.6067</v>
       </c>
       <c r="G18" t="n">
-        <v>-37570.60256532999</v>
+        <v>-140980.0610051001</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1031,19 +1053,19 @@
         <v>41.71</v>
       </c>
       <c r="C19" t="n">
-        <v>41.7</v>
+        <v>41.71</v>
       </c>
       <c r="D19" t="n">
         <v>41.71</v>
       </c>
       <c r="E19" t="n">
-        <v>41.7</v>
+        <v>41.71</v>
       </c>
       <c r="F19" t="n">
-        <v>3078.1847</v>
+        <v>51.1538</v>
       </c>
       <c r="G19" t="n">
-        <v>-34492.41786533</v>
+        <v>-140928.9072051001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>41.7</v>
+        <v>41.71</v>
       </c>
       <c r="C20" t="n">
-        <v>41.6</v>
+        <v>41.71</v>
       </c>
       <c r="D20" t="n">
-        <v>41.7</v>
+        <v>41.71</v>
       </c>
       <c r="E20" t="n">
-        <v>41.6</v>
+        <v>41.71</v>
       </c>
       <c r="F20" t="n">
-        <v>95507.1635</v>
+        <v>25.5769</v>
       </c>
       <c r="G20" t="n">
-        <v>-129999.58136533</v>
+        <v>-140928.9072051001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>41.6</v>
+        <v>41.73</v>
       </c>
       <c r="C21" t="n">
-        <v>41.6</v>
+        <v>41.73</v>
       </c>
       <c r="D21" t="n">
-        <v>41.6</v>
+        <v>41.73</v>
       </c>
       <c r="E21" t="n">
-        <v>41.6</v>
+        <v>41.73</v>
       </c>
       <c r="F21" t="n">
-        <v>13248</v>
+        <v>230</v>
       </c>
       <c r="G21" t="n">
-        <v>-129999.58136533</v>
+        <v>-140698.9072051001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>41.6</v>
+        <v>41.73</v>
       </c>
       <c r="C22" t="n">
-        <v>41.6</v>
+        <v>41.73</v>
       </c>
       <c r="D22" t="n">
-        <v>41.6</v>
+        <v>41.73</v>
       </c>
       <c r="E22" t="n">
-        <v>41.6</v>
+        <v>41.73</v>
       </c>
       <c r="F22" t="n">
-        <v>9600</v>
+        <v>1693</v>
       </c>
       <c r="G22" t="n">
-        <v>-129999.58136533</v>
+        <v>-140698.9072051001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>41.6</v>
+        <v>41.73</v>
       </c>
       <c r="C23" t="n">
-        <v>41.6</v>
+        <v>41.73</v>
       </c>
       <c r="D23" t="n">
-        <v>41.6</v>
+        <v>41.73</v>
       </c>
       <c r="E23" t="n">
-        <v>41.6</v>
+        <v>41.73</v>
       </c>
       <c r="F23" t="n">
-        <v>26400</v>
+        <v>1036.9515</v>
       </c>
       <c r="G23" t="n">
-        <v>-129999.58136533</v>
+        <v>-140698.9072051001</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>41.6</v>
+        <v>41.73</v>
       </c>
       <c r="C24" t="n">
-        <v>41.6</v>
+        <v>41.73</v>
       </c>
       <c r="D24" t="n">
-        <v>41.6</v>
+        <v>41.73</v>
       </c>
       <c r="E24" t="n">
-        <v>41.6</v>
+        <v>41.73</v>
       </c>
       <c r="F24" t="n">
-        <v>2403.1518</v>
+        <v>6024.1666</v>
       </c>
       <c r="G24" t="n">
-        <v>-129999.58136533</v>
+        <v>-140698.9072051001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>41.6</v>
+        <v>41.73</v>
       </c>
       <c r="C25" t="n">
-        <v>41.6</v>
+        <v>41.83</v>
       </c>
       <c r="D25" t="n">
-        <v>41.6</v>
+        <v>41.83</v>
       </c>
       <c r="E25" t="n">
-        <v>41.6</v>
+        <v>41.73</v>
       </c>
       <c r="F25" t="n">
-        <v>122329.9394</v>
+        <v>76.0663</v>
       </c>
       <c r="G25" t="n">
-        <v>-129999.58136533</v>
+        <v>-140622.8409051</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>41.6</v>
+        <v>41.74</v>
       </c>
       <c r="C26" t="n">
-        <v>41.65</v>
+        <v>41.74</v>
       </c>
       <c r="D26" t="n">
-        <v>41.65</v>
+        <v>41.74</v>
       </c>
       <c r="E26" t="n">
-        <v>41.6</v>
+        <v>41.74</v>
       </c>
       <c r="F26" t="n">
-        <v>3577.135</v>
+        <v>1874.9</v>
       </c>
       <c r="G26" t="n">
-        <v>-126422.44636533</v>
+        <v>-142497.7409051</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>41.6</v>
+        <v>41.77</v>
       </c>
       <c r="C27" t="n">
-        <v>41.6</v>
+        <v>41.77</v>
       </c>
       <c r="D27" t="n">
-        <v>41.65</v>
+        <v>41.77</v>
       </c>
       <c r="E27" t="n">
-        <v>41.6</v>
+        <v>41.77</v>
       </c>
       <c r="F27" t="n">
-        <v>149022.3673</v>
+        <v>2004.9331</v>
       </c>
       <c r="G27" t="n">
-        <v>-275444.81366533</v>
+        <v>-140492.8078051</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>41.6</v>
+        <v>41.77</v>
       </c>
       <c r="C28" t="n">
-        <v>41.6</v>
+        <v>41.77</v>
       </c>
       <c r="D28" t="n">
-        <v>41.65</v>
+        <v>41.77</v>
       </c>
       <c r="E28" t="n">
-        <v>41.52</v>
+        <v>41.77</v>
       </c>
       <c r="F28" t="n">
-        <v>45540.8704</v>
+        <v>154.6792</v>
       </c>
       <c r="G28" t="n">
-        <v>-275444.81366533</v>
+        <v>-140492.8078051</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>41.6</v>
+        <v>41.77</v>
       </c>
       <c r="C29" t="n">
-        <v>41.6</v>
+        <v>41.88</v>
       </c>
       <c r="D29" t="n">
-        <v>41.6</v>
+        <v>41.88</v>
       </c>
       <c r="E29" t="n">
-        <v>41.6</v>
+        <v>41.77</v>
       </c>
       <c r="F29" t="n">
-        <v>24991.5633</v>
+        <v>23881.45806749</v>
       </c>
       <c r="G29" t="n">
-        <v>-275444.81366533</v>
+        <v>-116611.3497376101</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>41.61</v>
+        <v>41.88</v>
       </c>
       <c r="C30" t="n">
-        <v>41.61</v>
+        <v>41.93</v>
       </c>
       <c r="D30" t="n">
-        <v>41.61</v>
+        <v>41.93</v>
       </c>
       <c r="E30" t="n">
-        <v>41.61</v>
+        <v>41.83</v>
       </c>
       <c r="F30" t="n">
-        <v>7975.2183</v>
+        <v>27481.2048</v>
       </c>
       <c r="G30" t="n">
-        <v>-267469.59536533</v>
+        <v>-89130.14493761005</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>41.72</v>
+        <v>41.93</v>
       </c>
       <c r="C31" t="n">
-        <v>41.72</v>
+        <v>41.94</v>
       </c>
       <c r="D31" t="n">
-        <v>41.72</v>
+        <v>41.95</v>
       </c>
       <c r="E31" t="n">
-        <v>41.72</v>
+        <v>41.93</v>
       </c>
       <c r="F31" t="n">
-        <v>52864.681</v>
+        <v>21230.4244</v>
       </c>
       <c r="G31" t="n">
-        <v>-214604.91436533</v>
+        <v>-67899.72053761005</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>41.72</v>
+        <v>41.93</v>
       </c>
       <c r="C32" t="n">
-        <v>41.72</v>
+        <v>41.97</v>
       </c>
       <c r="D32" t="n">
-        <v>41.72</v>
+        <v>41.97</v>
       </c>
       <c r="E32" t="n">
-        <v>41.72</v>
+        <v>41.89</v>
       </c>
       <c r="F32" t="n">
-        <v>108107.5499</v>
+        <v>21852.6187</v>
       </c>
       <c r="G32" t="n">
-        <v>-214604.91436533</v>
+        <v>-46047.10183761005</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>41.74</v>
+        <v>41.97</v>
       </c>
       <c r="C33" t="n">
-        <v>41.74</v>
+        <v>41.89</v>
       </c>
       <c r="D33" t="n">
-        <v>41.74</v>
+        <v>41.97</v>
       </c>
       <c r="E33" t="n">
-        <v>41.74</v>
+        <v>41.89</v>
       </c>
       <c r="F33" t="n">
-        <v>140.9416</v>
+        <v>34570.8066</v>
       </c>
       <c r="G33" t="n">
-        <v>-214463.97276533</v>
+        <v>-80617.90843761005</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>41.72</v>
+        <v>42</v>
       </c>
       <c r="C34" t="n">
-        <v>41.72</v>
+        <v>42</v>
       </c>
       <c r="D34" t="n">
-        <v>41.72</v>
+        <v>42</v>
       </c>
       <c r="E34" t="n">
-        <v>41.72</v>
+        <v>42</v>
       </c>
       <c r="F34" t="n">
-        <v>4848.2024</v>
+        <v>425.8104</v>
       </c>
       <c r="G34" t="n">
-        <v>-219312.17516533</v>
+        <v>-80192.09803761005</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>41.74</v>
+        <v>41.89</v>
       </c>
       <c r="C35" t="n">
-        <v>41.74</v>
+        <v>41.85</v>
       </c>
       <c r="D35" t="n">
-        <v>41.74</v>
+        <v>41.89</v>
       </c>
       <c r="E35" t="n">
-        <v>41.74</v>
+        <v>41.85</v>
       </c>
       <c r="F35" t="n">
-        <v>51.5103</v>
+        <v>11072.7275</v>
       </c>
       <c r="G35" t="n">
-        <v>-219260.66486533</v>
+        <v>-91264.82553761004</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>41.74</v>
+        <v>41.95</v>
       </c>
       <c r="C36" t="n">
-        <v>41.72</v>
+        <v>41.95</v>
       </c>
       <c r="D36" t="n">
-        <v>41.74</v>
+        <v>41.95</v>
       </c>
       <c r="E36" t="n">
-        <v>41.72</v>
+        <v>41.95</v>
       </c>
       <c r="F36" t="n">
-        <v>6824.9754</v>
+        <v>95.79840178000001</v>
       </c>
       <c r="G36" t="n">
-        <v>-226085.64026533</v>
+        <v>-91169.02713583004</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>41.74</v>
+        <v>41.77</v>
       </c>
       <c r="C37" t="n">
-        <v>41.74</v>
+        <v>41.77</v>
       </c>
       <c r="D37" t="n">
-        <v>41.74</v>
+        <v>41.77</v>
       </c>
       <c r="E37" t="n">
-        <v>41.74</v>
+        <v>41.77</v>
       </c>
       <c r="F37" t="n">
-        <v>99.02119999999999</v>
+        <v>96.1905</v>
       </c>
       <c r="G37" t="n">
-        <v>-225986.61906533</v>
+        <v>-91265.21763583003</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>41.72</v>
+        <v>41.95</v>
       </c>
       <c r="C38" t="n">
-        <v>41.72</v>
+        <v>41.95</v>
       </c>
       <c r="D38" t="n">
-        <v>41.72</v>
+        <v>41.95</v>
       </c>
       <c r="E38" t="n">
-        <v>41.72</v>
+        <v>41.95</v>
       </c>
       <c r="F38" t="n">
-        <v>13584.5575</v>
+        <v>20.0071</v>
       </c>
       <c r="G38" t="n">
-        <v>-239571.17656533</v>
+        <v>-91245.21053583003</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>41.72</v>
+        <v>41.9</v>
       </c>
       <c r="C39" t="n">
-        <v>41.72</v>
+        <v>41.9</v>
       </c>
       <c r="D39" t="n">
-        <v>41.72</v>
+        <v>41.9</v>
       </c>
       <c r="E39" t="n">
-        <v>41.72</v>
+        <v>41.9</v>
       </c>
       <c r="F39" t="n">
-        <v>2796.6534</v>
+        <v>1687.726</v>
       </c>
       <c r="G39" t="n">
-        <v>-239571.17656533</v>
+        <v>-92932.93653583003</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>41.61</v>
+        <v>41.92</v>
       </c>
       <c r="C40" t="n">
-        <v>41.74</v>
+        <v>41.92</v>
       </c>
       <c r="D40" t="n">
-        <v>41.74</v>
+        <v>41.92</v>
       </c>
       <c r="E40" t="n">
-        <v>41.55</v>
+        <v>41.92</v>
       </c>
       <c r="F40" t="n">
-        <v>112792.1201</v>
+        <v>45.22767175</v>
       </c>
       <c r="G40" t="n">
-        <v>-126779.05646533</v>
+        <v>-92887.70886408002</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>41.67</v>
+        <v>41.9</v>
       </c>
       <c r="C41" t="n">
-        <v>41.67</v>
+        <v>41.77</v>
       </c>
       <c r="D41" t="n">
-        <v>41.67</v>
+        <v>41.9</v>
       </c>
       <c r="E41" t="n">
-        <v>41.67</v>
+        <v>41.77</v>
       </c>
       <c r="F41" t="n">
-        <v>5362.6411</v>
+        <v>21504.5693</v>
       </c>
       <c r="G41" t="n">
-        <v>-132141.69756533</v>
+        <v>-114392.27816408</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>41.74</v>
+        <v>41.9</v>
       </c>
       <c r="C42" t="n">
-        <v>41.74</v>
+        <v>41.9</v>
       </c>
       <c r="D42" t="n">
-        <v>41.74</v>
+        <v>41.9</v>
       </c>
       <c r="E42" t="n">
-        <v>41.74</v>
+        <v>41.9</v>
       </c>
       <c r="F42" t="n">
-        <v>3922.6322</v>
+        <v>15.0989</v>
       </c>
       <c r="G42" t="n">
-        <v>-128219.0653653301</v>
+        <v>-114377.17926408</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>41.74</v>
+        <v>41.78</v>
       </c>
       <c r="C43" t="n">
-        <v>41.74</v>
+        <v>41.78</v>
       </c>
       <c r="D43" t="n">
-        <v>41.74</v>
+        <v>41.78</v>
       </c>
       <c r="E43" t="n">
-        <v>41.74</v>
+        <v>41.78</v>
       </c>
       <c r="F43" t="n">
-        <v>1214.0304</v>
+        <v>18177.9966</v>
       </c>
       <c r="G43" t="n">
-        <v>-128219.0653653301</v>
+        <v>-132555.17586408</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>41.67</v>
+        <v>41.77</v>
       </c>
       <c r="C44" t="n">
-        <v>41.67</v>
+        <v>41.77</v>
       </c>
       <c r="D44" t="n">
-        <v>41.67</v>
+        <v>41.77</v>
       </c>
       <c r="E44" t="n">
-        <v>41.67</v>
+        <v>41.77</v>
       </c>
       <c r="F44" t="n">
-        <v>3922.6322</v>
+        <v>2318.5768</v>
       </c>
       <c r="G44" t="n">
-        <v>-132141.69756533</v>
+        <v>-134873.75266408</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>41.74</v>
+        <v>41.77</v>
       </c>
       <c r="C45" t="n">
-        <v>41.74</v>
+        <v>41.86</v>
       </c>
       <c r="D45" t="n">
-        <v>41.74</v>
+        <v>41.86</v>
       </c>
       <c r="E45" t="n">
-        <v>41.74</v>
+        <v>41.77</v>
       </c>
       <c r="F45" t="n">
-        <v>16383.604</v>
+        <v>923.2971</v>
       </c>
       <c r="G45" t="n">
-        <v>-115758.0935653301</v>
+        <v>-133950.45556408</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>41.78</v>
+        <v>41.86</v>
       </c>
       <c r="C46" t="n">
         <v>41.78</v>
       </c>
       <c r="D46" t="n">
-        <v>41.78</v>
+        <v>41.86</v>
       </c>
       <c r="E46" t="n">
         <v>41.78</v>
       </c>
       <c r="F46" t="n">
-        <v>3717</v>
+        <v>3428.1275</v>
       </c>
       <c r="G46" t="n">
-        <v>-112041.0935653301</v>
+        <v>-137378.58306408</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>41.71</v>
+        <v>41.82</v>
       </c>
       <c r="C47" t="n">
-        <v>41.71</v>
+        <v>41.82</v>
       </c>
       <c r="D47" t="n">
-        <v>41.71</v>
+        <v>41.82</v>
       </c>
       <c r="E47" t="n">
-        <v>41.71</v>
+        <v>41.82</v>
       </c>
       <c r="F47" t="n">
-        <v>1995</v>
+        <v>46.742</v>
       </c>
       <c r="G47" t="n">
-        <v>-114036.0935653301</v>
+        <v>-137331.84106408</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>41.68</v>
+        <v>41.92</v>
       </c>
       <c r="C48" t="n">
-        <v>41.68</v>
+        <v>41.92</v>
       </c>
       <c r="D48" t="n">
-        <v>41.68</v>
+        <v>41.92</v>
       </c>
       <c r="E48" t="n">
-        <v>41.68</v>
+        <v>41.92</v>
       </c>
       <c r="F48" t="n">
-        <v>1202.6899</v>
+        <v>70</v>
       </c>
       <c r="G48" t="n">
-        <v>-115238.7834653301</v>
+        <v>-137261.84106408</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>41.8</v>
+        <v>41.92</v>
       </c>
       <c r="C49" t="n">
-        <v>41.8</v>
+        <v>41.92</v>
       </c>
       <c r="D49" t="n">
-        <v>41.8</v>
+        <v>41.92</v>
       </c>
       <c r="E49" t="n">
-        <v>41.8</v>
+        <v>41.92</v>
       </c>
       <c r="F49" t="n">
-        <v>7669.2344</v>
+        <v>1905.70982825</v>
       </c>
       <c r="G49" t="n">
-        <v>-107569.5490653301</v>
+        <v>-137261.84106408</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>41.72</v>
+        <v>41.97</v>
       </c>
       <c r="C50" t="n">
-        <v>41.72</v>
+        <v>41.95</v>
       </c>
       <c r="D50" t="n">
-        <v>41.72</v>
+        <v>41.97</v>
       </c>
       <c r="E50" t="n">
-        <v>41.72</v>
+        <v>41.95</v>
       </c>
       <c r="F50" t="n">
-        <v>2374.3689</v>
+        <v>3604.9707</v>
       </c>
       <c r="G50" t="n">
-        <v>-109943.9179653301</v>
+        <v>-133656.87036408</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>41.68</v>
+        <v>41.92</v>
       </c>
       <c r="C51" t="n">
-        <v>41.68</v>
+        <v>41.97</v>
       </c>
       <c r="D51" t="n">
-        <v>41.68</v>
+        <v>41.97</v>
       </c>
       <c r="E51" t="n">
-        <v>41.68</v>
+        <v>41.85</v>
       </c>
       <c r="F51" t="n">
-        <v>1395.8465</v>
+        <v>845.0281</v>
       </c>
       <c r="G51" t="n">
-        <v>-111339.7644653301</v>
+        <v>-132811.84226408</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2231,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>41.68</v>
+        <v>41.97</v>
       </c>
       <c r="C52" t="n">
-        <v>41.67</v>
+        <v>41.97</v>
       </c>
       <c r="D52" t="n">
-        <v>41.68</v>
+        <v>41.97</v>
       </c>
       <c r="E52" t="n">
-        <v>41.67</v>
+        <v>41.97</v>
       </c>
       <c r="F52" t="n">
-        <v>10596.4667</v>
+        <v>290.1818</v>
       </c>
       <c r="G52" t="n">
-        <v>-121936.2311653301</v>
+        <v>-132811.84226408</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2267,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>41.73</v>
+        <v>41.97</v>
       </c>
       <c r="C53" t="n">
-        <v>41.73</v>
+        <v>41.97</v>
       </c>
       <c r="D53" t="n">
-        <v>41.73</v>
+        <v>41.97</v>
       </c>
       <c r="E53" t="n">
-        <v>41.73</v>
+        <v>41.97</v>
       </c>
       <c r="F53" t="n">
-        <v>7559.9932</v>
+        <v>5560.8066</v>
       </c>
       <c r="G53" t="n">
-        <v>-114376.2379653301</v>
+        <v>-132811.84226408</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>41.73</v>
+        <v>41.97</v>
       </c>
       <c r="C54" t="n">
-        <v>41.68</v>
+        <v>41.97</v>
       </c>
       <c r="D54" t="n">
-        <v>41.73</v>
+        <v>41.97</v>
       </c>
       <c r="E54" t="n">
-        <v>41.68</v>
+        <v>41.97</v>
       </c>
       <c r="F54" t="n">
-        <v>21970.517</v>
+        <v>23274.69</v>
       </c>
       <c r="G54" t="n">
-        <v>-136346.7549653301</v>
+        <v>-132811.84226408</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,28 +2339,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>41.7</v>
+        <v>41.97</v>
       </c>
       <c r="C55" t="n">
-        <v>41.82</v>
+        <v>42.07</v>
       </c>
       <c r="D55" t="n">
-        <v>41.82</v>
+        <v>42.07</v>
       </c>
       <c r="E55" t="n">
-        <v>41.7</v>
+        <v>41.97</v>
       </c>
       <c r="F55" t="n">
-        <v>1079.0449</v>
+        <v>31366.6955</v>
       </c>
       <c r="G55" t="n">
-        <v>-135267.7100653301</v>
+        <v>-101445.14676408</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>41.92</v>
+        <v>42.04</v>
       </c>
       <c r="C56" t="n">
-        <v>41.7</v>
+        <v>42.04</v>
       </c>
       <c r="D56" t="n">
-        <v>41.92</v>
+        <v>42.04</v>
       </c>
       <c r="E56" t="n">
-        <v>41.7</v>
+        <v>42.04</v>
       </c>
       <c r="F56" t="n">
-        <v>1652.6237</v>
+        <v>7668.8</v>
       </c>
       <c r="G56" t="n">
-        <v>-136920.3337653301</v>
+        <v>-109113.94676408</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,28 +2411,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>41.95</v>
+        <v>42.07</v>
       </c>
       <c r="C57" t="n">
-        <v>41.95</v>
+        <v>42.15</v>
       </c>
       <c r="D57" t="n">
-        <v>41.95</v>
+        <v>42.15</v>
       </c>
       <c r="E57" t="n">
-        <v>41.95</v>
+        <v>42.07</v>
       </c>
       <c r="F57" t="n">
-        <v>33.8699</v>
+        <v>44.9318</v>
       </c>
       <c r="G57" t="n">
-        <v>-136886.4638653301</v>
+        <v>-109069.01496408</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,28 +2447,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>41.84</v>
+        <v>42.15</v>
       </c>
       <c r="C58" t="n">
-        <v>41.84</v>
+        <v>42.15</v>
       </c>
       <c r="D58" t="n">
-        <v>41.84</v>
+        <v>42.15</v>
       </c>
       <c r="E58" t="n">
-        <v>41.84</v>
+        <v>42.15</v>
       </c>
       <c r="F58" t="n">
-        <v>59.99043977</v>
+        <v>7404.6153</v>
       </c>
       <c r="G58" t="n">
-        <v>-136946.4543051001</v>
+        <v>-109069.01496408</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>41.84</v>
+        <v>42.06</v>
       </c>
       <c r="C59" t="n">
-        <v>41.84</v>
+        <v>42.27</v>
       </c>
       <c r="D59" t="n">
-        <v>41.84</v>
+        <v>42.27</v>
       </c>
       <c r="E59" t="n">
-        <v>41.84</v>
+        <v>42.06</v>
       </c>
       <c r="F59" t="n">
-        <v>34.99043977</v>
+        <v>7651.2934</v>
       </c>
       <c r="G59" t="n">
-        <v>-136946.4543051001</v>
+        <v>-101417.72156408</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>41.67</v>
+        <v>42.17</v>
       </c>
       <c r="C60" t="n">
-        <v>41.67</v>
+        <v>42.18</v>
       </c>
       <c r="D60" t="n">
-        <v>41.67</v>
+        <v>42.18</v>
       </c>
       <c r="E60" t="n">
-        <v>41.67</v>
+        <v>42.17</v>
       </c>
       <c r="F60" t="n">
-        <v>4033.6067</v>
+        <v>700.987</v>
       </c>
       <c r="G60" t="n">
-        <v>-140980.0610051001</v>
+        <v>-102118.70856408</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>41.71</v>
+        <v>42.18</v>
       </c>
       <c r="C61" t="n">
-        <v>41.71</v>
+        <v>42.18</v>
       </c>
       <c r="D61" t="n">
-        <v>41.71</v>
+        <v>42.18</v>
       </c>
       <c r="E61" t="n">
-        <v>41.71</v>
+        <v>42.18</v>
       </c>
       <c r="F61" t="n">
-        <v>51.1538</v>
+        <v>198.395</v>
       </c>
       <c r="G61" t="n">
-        <v>-140928.9072051001</v>
+        <v>-102118.70856408</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,28 +2591,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>41.71</v>
+        <v>42.17</v>
       </c>
       <c r="C62" t="n">
-        <v>41.71</v>
+        <v>42.17</v>
       </c>
       <c r="D62" t="n">
-        <v>41.71</v>
+        <v>42.17</v>
       </c>
       <c r="E62" t="n">
-        <v>41.71</v>
+        <v>42.17</v>
       </c>
       <c r="F62" t="n">
-        <v>25.5769</v>
+        <v>6699.4182</v>
       </c>
       <c r="G62" t="n">
-        <v>-140928.9072051001</v>
+        <v>-108818.12676408</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>41.73</v>
+        <v>42.15</v>
       </c>
       <c r="C63" t="n">
-        <v>41.73</v>
+        <v>42.15</v>
       </c>
       <c r="D63" t="n">
-        <v>41.73</v>
+        <v>42.15</v>
       </c>
       <c r="E63" t="n">
-        <v>41.73</v>
+        <v>42.15</v>
       </c>
       <c r="F63" t="n">
-        <v>230</v>
+        <v>9460.9354</v>
       </c>
       <c r="G63" t="n">
-        <v>-140698.9072051001</v>
+        <v>-118279.06216408</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,28 +2663,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>41.73</v>
+        <v>42.27</v>
       </c>
       <c r="C64" t="n">
-        <v>41.73</v>
+        <v>42.27</v>
       </c>
       <c r="D64" t="n">
-        <v>41.73</v>
+        <v>42.27</v>
       </c>
       <c r="E64" t="n">
-        <v>41.73</v>
+        <v>42.2</v>
       </c>
       <c r="F64" t="n">
-        <v>1693</v>
+        <v>1869.90760066</v>
       </c>
       <c r="G64" t="n">
-        <v>-140698.9072051001</v>
+        <v>-116409.15456342</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2699,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>41.73</v>
+        <v>42.2</v>
       </c>
       <c r="C65" t="n">
-        <v>41.73</v>
+        <v>42.15</v>
       </c>
       <c r="D65" t="n">
-        <v>41.73</v>
+        <v>42.2</v>
       </c>
       <c r="E65" t="n">
-        <v>41.73</v>
+        <v>42.15</v>
       </c>
       <c r="F65" t="n">
-        <v>1036.9515</v>
+        <v>25054.9964</v>
       </c>
       <c r="G65" t="n">
-        <v>-140698.9072051001</v>
+        <v>-141464.15096342</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,28 +2735,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>41.73</v>
+        <v>42.15</v>
       </c>
       <c r="C66" t="n">
-        <v>41.73</v>
+        <v>42.15</v>
       </c>
       <c r="D66" t="n">
-        <v>41.73</v>
+        <v>42.15</v>
       </c>
       <c r="E66" t="n">
-        <v>41.73</v>
+        <v>42.15</v>
       </c>
       <c r="F66" t="n">
-        <v>6024.1666</v>
+        <v>8619.4154</v>
       </c>
       <c r="G66" t="n">
-        <v>-140698.9072051001</v>
+        <v>-141464.15096342</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,28 +2771,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>41.73</v>
+        <v>42.2</v>
       </c>
       <c r="C67" t="n">
-        <v>41.83</v>
+        <v>42.1</v>
       </c>
       <c r="D67" t="n">
-        <v>41.83</v>
+        <v>42.2</v>
       </c>
       <c r="E67" t="n">
-        <v>41.73</v>
+        <v>42.1</v>
       </c>
       <c r="F67" t="n">
-        <v>76.0663</v>
+        <v>2678.182</v>
       </c>
       <c r="G67" t="n">
-        <v>-140622.8409051</v>
+        <v>-144142.33296342</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,28 +2807,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>41.74</v>
+        <v>42.1</v>
       </c>
       <c r="C68" t="n">
-        <v>41.74</v>
+        <v>42.1</v>
       </c>
       <c r="D68" t="n">
-        <v>41.74</v>
+        <v>42.2</v>
       </c>
       <c r="E68" t="n">
-        <v>41.74</v>
+        <v>42.1</v>
       </c>
       <c r="F68" t="n">
-        <v>1874.9</v>
+        <v>1156</v>
       </c>
       <c r="G68" t="n">
-        <v>-142497.7409051</v>
+        <v>-144142.33296342</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,28 +2843,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>41.77</v>
+        <v>42.1</v>
       </c>
       <c r="C69" t="n">
-        <v>41.77</v>
+        <v>42.07</v>
       </c>
       <c r="D69" t="n">
-        <v>41.77</v>
+        <v>42.1</v>
       </c>
       <c r="E69" t="n">
-        <v>41.77</v>
+        <v>42.07</v>
       </c>
       <c r="F69" t="n">
-        <v>2004.9331</v>
+        <v>1200.6519</v>
       </c>
       <c r="G69" t="n">
-        <v>-140492.8078051</v>
+        <v>-145342.98486342</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,28 +2879,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>41.77</v>
+        <v>42.1</v>
       </c>
       <c r="C70" t="n">
-        <v>41.77</v>
+        <v>42.1</v>
       </c>
       <c r="D70" t="n">
-        <v>41.77</v>
+        <v>42.1</v>
       </c>
       <c r="E70" t="n">
-        <v>41.77</v>
+        <v>42.1</v>
       </c>
       <c r="F70" t="n">
-        <v>154.6792</v>
+        <v>1356.5001</v>
       </c>
       <c r="G70" t="n">
-        <v>-140492.8078051</v>
+        <v>-143986.48476342</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,28 +2915,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>41.77</v>
+        <v>42.2</v>
       </c>
       <c r="C71" t="n">
-        <v>41.88</v>
+        <v>42.2</v>
       </c>
       <c r="D71" t="n">
-        <v>41.88</v>
+        <v>42.2</v>
       </c>
       <c r="E71" t="n">
-        <v>41.77</v>
+        <v>42.2</v>
       </c>
       <c r="F71" t="n">
-        <v>23881.45806749</v>
+        <v>833.3</v>
       </c>
       <c r="G71" t="n">
-        <v>-116611.3497376101</v>
+        <v>-143153.1847634201</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,28 +2951,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>41.88</v>
+        <v>42.2</v>
       </c>
       <c r="C72" t="n">
-        <v>41.93</v>
+        <v>42.2</v>
       </c>
       <c r="D72" t="n">
-        <v>41.93</v>
+        <v>42.2</v>
       </c>
       <c r="E72" t="n">
-        <v>41.83</v>
+        <v>42.2</v>
       </c>
       <c r="F72" t="n">
-        <v>27481.2048</v>
+        <v>55271.0546</v>
       </c>
       <c r="G72" t="n">
-        <v>-89130.14493761005</v>
+        <v>-143153.1847634201</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,28 +2987,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>41.93</v>
+        <v>42.2</v>
       </c>
       <c r="C73" t="n">
-        <v>41.94</v>
+        <v>42.2</v>
       </c>
       <c r="D73" t="n">
-        <v>41.95</v>
+        <v>42.2</v>
       </c>
       <c r="E73" t="n">
-        <v>41.93</v>
+        <v>42.2</v>
       </c>
       <c r="F73" t="n">
-        <v>21230.4244</v>
+        <v>200</v>
       </c>
       <c r="G73" t="n">
-        <v>-67899.72053761005</v>
+        <v>-143153.1847634201</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,28 +3023,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>41.93</v>
+        <v>42.06</v>
       </c>
       <c r="C74" t="n">
-        <v>41.97</v>
+        <v>42.06</v>
       </c>
       <c r="D74" t="n">
-        <v>41.97</v>
+        <v>42.06</v>
       </c>
       <c r="E74" t="n">
-        <v>41.89</v>
+        <v>42.06</v>
       </c>
       <c r="F74" t="n">
-        <v>21852.6187</v>
+        <v>911.864</v>
       </c>
       <c r="G74" t="n">
-        <v>-46047.10183761005</v>
+        <v>-144065.0487634201</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,28 +3059,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>41.97</v>
+        <v>42.06</v>
       </c>
       <c r="C75" t="n">
-        <v>41.89</v>
+        <v>42.06</v>
       </c>
       <c r="D75" t="n">
-        <v>41.97</v>
+        <v>42.06</v>
       </c>
       <c r="E75" t="n">
-        <v>41.89</v>
+        <v>42.06</v>
       </c>
       <c r="F75" t="n">
-        <v>34570.8066</v>
+        <v>8634.5735</v>
       </c>
       <c r="G75" t="n">
-        <v>-80617.90843761005</v>
+        <v>-144065.0487634201</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,28 +3095,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>42</v>
+        <v>41.97</v>
       </c>
       <c r="C76" t="n">
-        <v>42</v>
+        <v>41.97</v>
       </c>
       <c r="D76" t="n">
-        <v>42</v>
+        <v>41.97</v>
       </c>
       <c r="E76" t="n">
-        <v>42</v>
+        <v>41.97</v>
       </c>
       <c r="F76" t="n">
-        <v>425.8104</v>
+        <v>24991.5633</v>
       </c>
       <c r="G76" t="n">
-        <v>-80192.09803761005</v>
+        <v>-169056.6120634201</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,28 +3131,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>41.89</v>
+        <v>42.19</v>
       </c>
       <c r="C77" t="n">
-        <v>41.85</v>
+        <v>42.19</v>
       </c>
       <c r="D77" t="n">
-        <v>41.89</v>
+        <v>42.19</v>
       </c>
       <c r="E77" t="n">
-        <v>41.85</v>
+        <v>42.19</v>
       </c>
       <c r="F77" t="n">
-        <v>11072.7275</v>
+        <v>113.8225</v>
       </c>
       <c r="G77" t="n">
-        <v>-91264.82553761004</v>
+        <v>-168942.7895634201</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,28 +3167,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>41.95</v>
+        <v>42.19</v>
       </c>
       <c r="C78" t="n">
-        <v>41.95</v>
+        <v>42.19</v>
       </c>
       <c r="D78" t="n">
-        <v>41.95</v>
+        <v>42.19</v>
       </c>
       <c r="E78" t="n">
-        <v>41.95</v>
+        <v>42.19</v>
       </c>
       <c r="F78" t="n">
-        <v>95.79840178000001</v>
+        <v>279.9274</v>
       </c>
       <c r="G78" t="n">
-        <v>-91169.02713583004</v>
+        <v>-168942.7895634201</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,28 +3203,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>41.77</v>
+        <v>42</v>
       </c>
       <c r="C79" t="n">
-        <v>41.77</v>
+        <v>42</v>
       </c>
       <c r="D79" t="n">
-        <v>41.77</v>
+        <v>42</v>
       </c>
       <c r="E79" t="n">
-        <v>41.77</v>
+        <v>42</v>
       </c>
       <c r="F79" t="n">
-        <v>96.1905</v>
+        <v>1504.6514</v>
       </c>
       <c r="G79" t="n">
-        <v>-91265.21763583003</v>
+        <v>-170447.4409634201</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,28 +3239,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>41.95</v>
+        <v>42.01</v>
       </c>
       <c r="C80" t="n">
-        <v>41.95</v>
+        <v>42.01</v>
       </c>
       <c r="D80" t="n">
-        <v>41.95</v>
+        <v>42.01</v>
       </c>
       <c r="E80" t="n">
-        <v>41.95</v>
+        <v>42.01</v>
       </c>
       <c r="F80" t="n">
-        <v>20.0071</v>
+        <v>150.3616</v>
       </c>
       <c r="G80" t="n">
-        <v>-91245.21053583003</v>
+        <v>-170297.0793634201</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,28 +3275,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="C81" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="D81" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="E81" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="F81" t="n">
-        <v>1687.726</v>
+        <v>8075.5466</v>
       </c>
       <c r="G81" t="n">
-        <v>-92932.93653583003</v>
+        <v>-178372.6259634201</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,28 +3311,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>41.92</v>
+        <v>42.14</v>
       </c>
       <c r="C82" t="n">
-        <v>41.92</v>
+        <v>42.14</v>
       </c>
       <c r="D82" t="n">
-        <v>41.92</v>
+        <v>42.14</v>
       </c>
       <c r="E82" t="n">
-        <v>41.92</v>
+        <v>42.14</v>
       </c>
       <c r="F82" t="n">
-        <v>45.22767175</v>
+        <v>133.1043</v>
       </c>
       <c r="G82" t="n">
-        <v>-92887.70886408002</v>
+        <v>-178239.52166342</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,28 +3347,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
+        <v>42.14</v>
+      </c>
+      <c r="C83" t="n">
+        <v>42.09</v>
+      </c>
+      <c r="D83" t="n">
+        <v>42.14</v>
+      </c>
+      <c r="E83" t="n">
         <v>41.9</v>
       </c>
-      <c r="C83" t="n">
-        <v>41.77</v>
-      </c>
-      <c r="D83" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="E83" t="n">
-        <v>41.77</v>
-      </c>
       <c r="F83" t="n">
-        <v>21504.5693</v>
+        <v>1287.9753</v>
       </c>
       <c r="G83" t="n">
-        <v>-114392.27816408</v>
+        <v>-179527.49696342</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,6 +3383,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3315,10 +3402,10 @@
         <v>41.9</v>
       </c>
       <c r="F84" t="n">
-        <v>15.0989</v>
+        <v>4800</v>
       </c>
       <c r="G84" t="n">
-        <v>-114377.17926408</v>
+        <v>-184327.49696342</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3332,28 +3419,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>41.78</v>
+        <v>41.9</v>
       </c>
       <c r="C85" t="n">
-        <v>41.78</v>
+        <v>42.09</v>
       </c>
       <c r="D85" t="n">
-        <v>41.78</v>
+        <v>42.09</v>
       </c>
       <c r="E85" t="n">
-        <v>41.78</v>
+        <v>41.9</v>
       </c>
       <c r="F85" t="n">
-        <v>18177.9966</v>
+        <v>630.7853</v>
       </c>
       <c r="G85" t="n">
-        <v>-132555.17586408</v>
+        <v>-183696.7116634201</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3367,28 +3455,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>41.77</v>
+        <v>42.09</v>
       </c>
       <c r="C86" t="n">
-        <v>41.77</v>
+        <v>41.9</v>
       </c>
       <c r="D86" t="n">
-        <v>41.77</v>
+        <v>42.09</v>
       </c>
       <c r="E86" t="n">
-        <v>41.77</v>
+        <v>41.9</v>
       </c>
       <c r="F86" t="n">
-        <v>2318.5768</v>
+        <v>232.859</v>
       </c>
       <c r="G86" t="n">
-        <v>-134873.75266408</v>
+        <v>-183929.57066342</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3402,28 +3491,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>41.77</v>
+        <v>42.07</v>
       </c>
       <c r="C87" t="n">
-        <v>41.86</v>
+        <v>42.07</v>
       </c>
       <c r="D87" t="n">
-        <v>41.86</v>
+        <v>42.07</v>
       </c>
       <c r="E87" t="n">
-        <v>41.77</v>
+        <v>42.07</v>
       </c>
       <c r="F87" t="n">
-        <v>923.2971</v>
+        <v>39.1102</v>
       </c>
       <c r="G87" t="n">
-        <v>-133950.45556408</v>
+        <v>-183890.4604634201</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3437,28 +3527,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>41.86</v>
+        <v>41.89</v>
       </c>
       <c r="C88" t="n">
-        <v>41.78</v>
+        <v>41.89</v>
       </c>
       <c r="D88" t="n">
-        <v>41.86</v>
+        <v>41.89</v>
       </c>
       <c r="E88" t="n">
-        <v>41.78</v>
+        <v>41.89</v>
       </c>
       <c r="F88" t="n">
-        <v>3428.1275</v>
+        <v>4148.3075</v>
       </c>
       <c r="G88" t="n">
-        <v>-137378.58306408</v>
+        <v>-188038.76796342</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3472,28 +3563,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>41.82</v>
+        <v>41.86</v>
       </c>
       <c r="C89" t="n">
-        <v>41.82</v>
+        <v>41.84</v>
       </c>
       <c r="D89" t="n">
-        <v>41.82</v>
+        <v>41.86</v>
       </c>
       <c r="E89" t="n">
-        <v>41.82</v>
+        <v>41.84</v>
       </c>
       <c r="F89" t="n">
-        <v>46.742</v>
+        <v>8994.395</v>
       </c>
       <c r="G89" t="n">
-        <v>-137331.84106408</v>
+        <v>-197033.16296342</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3507,28 +3599,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>41.92</v>
+        <v>41.84</v>
       </c>
       <c r="C90" t="n">
-        <v>41.92</v>
+        <v>41.84</v>
       </c>
       <c r="D90" t="n">
-        <v>41.92</v>
+        <v>41.84</v>
       </c>
       <c r="E90" t="n">
-        <v>41.92</v>
+        <v>41.84</v>
       </c>
       <c r="F90" t="n">
-        <v>70</v>
+        <v>1982.3576</v>
       </c>
       <c r="G90" t="n">
-        <v>-137261.84106408</v>
+        <v>-197033.16296342</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3542,28 +3635,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>41.92</v>
+        <v>41.84</v>
       </c>
       <c r="C91" t="n">
-        <v>41.92</v>
+        <v>41.84</v>
       </c>
       <c r="D91" t="n">
-        <v>41.92</v>
+        <v>41.84</v>
       </c>
       <c r="E91" t="n">
-        <v>41.92</v>
+        <v>41.84</v>
       </c>
       <c r="F91" t="n">
-        <v>1905.70982825</v>
+        <v>1051.31</v>
       </c>
       <c r="G91" t="n">
-        <v>-137261.84106408</v>
+        <v>-197033.16296342</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3577,28 +3671,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>41.97</v>
+        <v>41.84</v>
       </c>
       <c r="C92" t="n">
-        <v>41.95</v>
+        <v>41.84</v>
       </c>
       <c r="D92" t="n">
-        <v>41.97</v>
+        <v>41.84</v>
       </c>
       <c r="E92" t="n">
-        <v>41.95</v>
+        <v>41.84</v>
       </c>
       <c r="F92" t="n">
-        <v>3604.9707</v>
+        <v>6678.5139</v>
       </c>
       <c r="G92" t="n">
-        <v>-133656.87036408</v>
+        <v>-197033.16296342</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3612,28 +3707,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>41.92</v>
+        <v>41.84</v>
       </c>
       <c r="C93" t="n">
-        <v>41.97</v>
+        <v>41.84</v>
       </c>
       <c r="D93" t="n">
-        <v>41.97</v>
+        <v>41.84</v>
       </c>
       <c r="E93" t="n">
-        <v>41.85</v>
+        <v>41.84</v>
       </c>
       <c r="F93" t="n">
-        <v>845.0281</v>
+        <v>1745.5763</v>
       </c>
       <c r="G93" t="n">
-        <v>-132811.84226408</v>
+        <v>-197033.16296342</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3647,28 +3743,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>41.97</v>
+        <v>41.84</v>
       </c>
       <c r="C94" t="n">
-        <v>41.97</v>
+        <v>41.95</v>
       </c>
       <c r="D94" t="n">
-        <v>41.97</v>
+        <v>41.95</v>
       </c>
       <c r="E94" t="n">
-        <v>41.97</v>
+        <v>41.84</v>
       </c>
       <c r="F94" t="n">
-        <v>290.1818</v>
+        <v>1834.5137</v>
       </c>
       <c r="G94" t="n">
-        <v>-132811.84226408</v>
+        <v>-195198.64926342</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3682,28 +3779,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>41.97</v>
+        <v>41.8</v>
       </c>
       <c r="C95" t="n">
-        <v>41.97</v>
+        <v>41.8</v>
       </c>
       <c r="D95" t="n">
-        <v>41.97</v>
+        <v>41.8</v>
       </c>
       <c r="E95" t="n">
-        <v>41.97</v>
+        <v>41.8</v>
       </c>
       <c r="F95" t="n">
-        <v>5560.8066</v>
+        <v>949.3819999999999</v>
       </c>
       <c r="G95" t="n">
-        <v>-132811.84226408</v>
+        <v>-196148.03126342</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3717,28 +3815,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>41.97</v>
+        <v>41.99</v>
       </c>
       <c r="C96" t="n">
-        <v>41.97</v>
+        <v>41.8</v>
       </c>
       <c r="D96" t="n">
-        <v>41.97</v>
+        <v>41.99</v>
       </c>
       <c r="E96" t="n">
-        <v>41.97</v>
+        <v>41.8</v>
       </c>
       <c r="F96" t="n">
-        <v>23274.69</v>
+        <v>108425.1398</v>
       </c>
       <c r="G96" t="n">
-        <v>-132811.84226408</v>
+        <v>-196148.03126342</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3752,28 +3851,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>41.97</v>
+        <v>41.91</v>
       </c>
       <c r="C97" t="n">
-        <v>42.07</v>
+        <v>41.91</v>
       </c>
       <c r="D97" t="n">
-        <v>42.07</v>
+        <v>41.91</v>
       </c>
       <c r="E97" t="n">
-        <v>41.97</v>
+        <v>41.91</v>
       </c>
       <c r="F97" t="n">
-        <v>31366.6955</v>
+        <v>1645.3518</v>
       </c>
       <c r="G97" t="n">
-        <v>-101445.14676408</v>
+        <v>-194502.67946342</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3787,28 +3887,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>42.04</v>
+        <v>41.91</v>
       </c>
       <c r="C98" t="n">
-        <v>42.04</v>
+        <v>41.9</v>
       </c>
       <c r="D98" t="n">
-        <v>42.04</v>
+        <v>41.91</v>
       </c>
       <c r="E98" t="n">
-        <v>42.04</v>
+        <v>41.9</v>
       </c>
       <c r="F98" t="n">
-        <v>7668.8</v>
+        <v>5990.7919</v>
       </c>
       <c r="G98" t="n">
-        <v>-109113.94676408</v>
+        <v>-200493.47136342</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3822,28 +3923,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>42.07</v>
+        <v>41.9</v>
       </c>
       <c r="C99" t="n">
-        <v>42.15</v>
+        <v>41.79</v>
       </c>
       <c r="D99" t="n">
-        <v>42.15</v>
+        <v>41.9</v>
       </c>
       <c r="E99" t="n">
-        <v>42.07</v>
+        <v>41.79</v>
       </c>
       <c r="F99" t="n">
-        <v>44.9318</v>
+        <v>949.3819999999999</v>
       </c>
       <c r="G99" t="n">
-        <v>-109069.01496408</v>
+        <v>-201442.8533634201</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3857,28 +3959,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>42.15</v>
+        <v>41.77</v>
       </c>
       <c r="C100" t="n">
-        <v>42.15</v>
+        <v>41.74</v>
       </c>
       <c r="D100" t="n">
-        <v>42.15</v>
+        <v>41.77</v>
       </c>
       <c r="E100" t="n">
-        <v>42.15</v>
+        <v>41.74</v>
       </c>
       <c r="F100" t="n">
-        <v>7404.6153</v>
+        <v>181675.3545</v>
       </c>
       <c r="G100" t="n">
-        <v>-109069.01496408</v>
+        <v>-383118.20786342</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3892,28 +3995,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>42.06</v>
+        <v>41.94</v>
       </c>
       <c r="C101" t="n">
-        <v>42.27</v>
+        <v>41.94</v>
       </c>
       <c r="D101" t="n">
-        <v>42.27</v>
+        <v>41.94</v>
       </c>
       <c r="E101" t="n">
-        <v>42.06</v>
+        <v>41.94</v>
       </c>
       <c r="F101" t="n">
-        <v>7651.2934</v>
+        <v>154.7521</v>
       </c>
       <c r="G101" t="n">
-        <v>-101417.72156408</v>
+        <v>-382963.45576342</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3927,28 +4031,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>42.17</v>
+        <v>42</v>
       </c>
       <c r="C102" t="n">
-        <v>42.18</v>
+        <v>42</v>
       </c>
       <c r="D102" t="n">
-        <v>42.18</v>
+        <v>42</v>
       </c>
       <c r="E102" t="n">
-        <v>42.17</v>
+        <v>42</v>
       </c>
       <c r="F102" t="n">
-        <v>700.987</v>
+        <v>54845.2478</v>
       </c>
       <c r="G102" t="n">
-        <v>-102118.70856408</v>
+        <v>-328118.20796342</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3962,28 +4067,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>42.18</v>
+        <v>41.99</v>
       </c>
       <c r="C103" t="n">
-        <v>42.18</v>
+        <v>41.99</v>
       </c>
       <c r="D103" t="n">
-        <v>42.18</v>
+        <v>41.99</v>
       </c>
       <c r="E103" t="n">
-        <v>42.18</v>
+        <v>41.99</v>
       </c>
       <c r="F103" t="n">
-        <v>198.395</v>
+        <v>300</v>
       </c>
       <c r="G103" t="n">
-        <v>-102118.70856408</v>
+        <v>-328418.20796342</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3997,28 +4103,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>42.17</v>
+        <v>42</v>
       </c>
       <c r="C104" t="n">
-        <v>42.17</v>
+        <v>42</v>
       </c>
       <c r="D104" t="n">
-        <v>42.17</v>
+        <v>42</v>
       </c>
       <c r="E104" t="n">
-        <v>42.17</v>
+        <v>42</v>
       </c>
       <c r="F104" t="n">
-        <v>6699.4182</v>
+        <v>223.0235</v>
       </c>
       <c r="G104" t="n">
-        <v>-108818.12676408</v>
+        <v>-328195.18446342</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4032,28 +4139,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>42.15</v>
+        <v>42</v>
       </c>
       <c r="C105" t="n">
-        <v>42.15</v>
+        <v>42</v>
       </c>
       <c r="D105" t="n">
-        <v>42.15</v>
+        <v>42</v>
       </c>
       <c r="E105" t="n">
-        <v>42.15</v>
+        <v>42</v>
       </c>
       <c r="F105" t="n">
-        <v>9460.9354</v>
+        <v>5574.2722</v>
       </c>
       <c r="G105" t="n">
-        <v>-118279.06216408</v>
+        <v>-328195.18446342</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4067,28 +4175,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>42.27</v>
+        <v>42</v>
       </c>
       <c r="C106" t="n">
-        <v>42.27</v>
+        <v>42</v>
       </c>
       <c r="D106" t="n">
-        <v>42.27</v>
+        <v>42</v>
       </c>
       <c r="E106" t="n">
-        <v>42.2</v>
+        <v>42</v>
       </c>
       <c r="F106" t="n">
-        <v>1869.90760066</v>
+        <v>4425.7278</v>
       </c>
       <c r="G106" t="n">
-        <v>-116409.15456342</v>
+        <v>-328195.18446342</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4102,34 +4211,35 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>42.2</v>
+        <v>41.99</v>
       </c>
       <c r="C107" t="n">
-        <v>42.15</v>
+        <v>41.99</v>
       </c>
       <c r="D107" t="n">
-        <v>42.2</v>
+        <v>41.99</v>
       </c>
       <c r="E107" t="n">
-        <v>42.15</v>
+        <v>41.99</v>
       </c>
       <c r="F107" t="n">
-        <v>25054.9964</v>
+        <v>11783.8851</v>
       </c>
       <c r="G107" t="n">
-        <v>-141464.15096342</v>
+        <v>-339979.06956342</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4137,34 +4247,35 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>42.15</v>
+        <v>42.02</v>
       </c>
       <c r="C108" t="n">
-        <v>42.15</v>
+        <v>42.22</v>
       </c>
       <c r="D108" t="n">
-        <v>42.15</v>
+        <v>42.22</v>
       </c>
       <c r="E108" t="n">
-        <v>42.15</v>
+        <v>42.02</v>
       </c>
       <c r="F108" t="n">
-        <v>8619.4154</v>
+        <v>18080.1925</v>
       </c>
       <c r="G108" t="n">
-        <v>-141464.15096342</v>
+        <v>-321898.87706342</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4172,34 +4283,35 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>42.2</v>
+        <v>42.26</v>
       </c>
       <c r="C109" t="n">
-        <v>42.1</v>
+        <v>42.26</v>
       </c>
       <c r="D109" t="n">
-        <v>42.2</v>
+        <v>42.26</v>
       </c>
       <c r="E109" t="n">
-        <v>42.1</v>
+        <v>42.26</v>
       </c>
       <c r="F109" t="n">
-        <v>2678.182</v>
+        <v>2181.0251</v>
       </c>
       <c r="G109" t="n">
-        <v>-144142.33296342</v>
+        <v>-319717.85196342</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4207,28 +4319,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>42.1</v>
+        <v>42.15</v>
       </c>
       <c r="C110" t="n">
-        <v>42.1</v>
+        <v>42.15</v>
       </c>
       <c r="D110" t="n">
-        <v>42.2</v>
+        <v>42.15</v>
       </c>
       <c r="E110" t="n">
-        <v>42.1</v>
+        <v>42.15</v>
       </c>
       <c r="F110" t="n">
-        <v>1156</v>
+        <v>1243.6143</v>
       </c>
       <c r="G110" t="n">
-        <v>-144142.33296342</v>
+        <v>-320961.46626342</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4242,28 +4355,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>42.1</v>
+        <v>42.15</v>
       </c>
       <c r="C111" t="n">
-        <v>42.07</v>
+        <v>42.15</v>
       </c>
       <c r="D111" t="n">
-        <v>42.1</v>
+        <v>42.15</v>
       </c>
       <c r="E111" t="n">
-        <v>42.07</v>
+        <v>42.15</v>
       </c>
       <c r="F111" t="n">
-        <v>1200.6519</v>
+        <v>930.2987000000001</v>
       </c>
       <c r="G111" t="n">
-        <v>-145342.98486342</v>
+        <v>-320961.46626342</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4277,28 +4391,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>42.1</v>
+        <v>42.31</v>
       </c>
       <c r="C112" t="n">
-        <v>42.1</v>
+        <v>42.31</v>
       </c>
       <c r="D112" t="n">
-        <v>42.1</v>
+        <v>42.31</v>
       </c>
       <c r="E112" t="n">
-        <v>42.1</v>
+        <v>42.31</v>
       </c>
       <c r="F112" t="n">
-        <v>1356.5001</v>
+        <v>49.3345</v>
       </c>
       <c r="G112" t="n">
-        <v>-143986.48476342</v>
+        <v>-320912.13176342</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4312,28 +4427,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>42.2</v>
+        <v>42.26</v>
       </c>
       <c r="C113" t="n">
-        <v>42.2</v>
+        <v>42.26</v>
       </c>
       <c r="D113" t="n">
-        <v>42.2</v>
+        <v>42.26</v>
       </c>
       <c r="E113" t="n">
-        <v>42.2</v>
+        <v>42.26</v>
       </c>
       <c r="F113" t="n">
-        <v>833.3</v>
+        <v>81.77946048</v>
       </c>
       <c r="G113" t="n">
-        <v>-143153.1847634201</v>
+        <v>-320993.9112239</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4347,6 +4463,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4359,16 +4476,16 @@
         <v>42.2</v>
       </c>
       <c r="D114" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="E114" t="n">
         <v>42.2</v>
       </c>
       <c r="F114" t="n">
-        <v>55271.0546</v>
+        <v>8729.197399999999</v>
       </c>
       <c r="G114" t="n">
-        <v>-143153.1847634201</v>
+        <v>-329723.1086239</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4382,28 +4499,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="C115" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="D115" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="E115" t="n">
-        <v>42.2</v>
+        <v>42.16</v>
       </c>
       <c r="F115" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G115" t="n">
-        <v>-143153.1847634201</v>
+        <v>-329473.1086239</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4417,28 +4535,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>42.06</v>
+        <v>42.3</v>
       </c>
       <c r="C116" t="n">
-        <v>42.06</v>
+        <v>42.3</v>
       </c>
       <c r="D116" t="n">
-        <v>42.06</v>
+        <v>42.3</v>
       </c>
       <c r="E116" t="n">
-        <v>42.06</v>
+        <v>42.3</v>
       </c>
       <c r="F116" t="n">
-        <v>911.864</v>
+        <v>50</v>
       </c>
       <c r="G116" t="n">
-        <v>-144065.0487634201</v>
+        <v>-329473.1086239</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4452,34 +4571,35 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>42.06</v>
+        <v>42.3</v>
       </c>
       <c r="C117" t="n">
-        <v>42.06</v>
+        <v>42.29</v>
       </c>
       <c r="D117" t="n">
-        <v>42.06</v>
+        <v>42.3</v>
       </c>
       <c r="E117" t="n">
-        <v>42.06</v>
+        <v>42.29</v>
       </c>
       <c r="F117" t="n">
-        <v>8634.5735</v>
+        <v>3107.4798</v>
       </c>
       <c r="G117" t="n">
-        <v>-144065.0487634201</v>
+        <v>-332580.5884239</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4487,34 +4607,35 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>41.97</v>
+        <v>42.3</v>
       </c>
       <c r="C118" t="n">
-        <v>41.97</v>
+        <v>42.29</v>
       </c>
       <c r="D118" t="n">
-        <v>41.97</v>
+        <v>42.3</v>
       </c>
       <c r="E118" t="n">
-        <v>41.97</v>
+        <v>42.29</v>
       </c>
       <c r="F118" t="n">
-        <v>24991.5633</v>
+        <v>12811.976</v>
       </c>
       <c r="G118" t="n">
-        <v>-169056.6120634201</v>
+        <v>-332580.5884239</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -4522,34 +4643,35 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>42.19</v>
+        <v>42.29</v>
       </c>
       <c r="C119" t="n">
-        <v>42.19</v>
+        <v>42.15</v>
       </c>
       <c r="D119" t="n">
-        <v>42.19</v>
+        <v>42.29</v>
       </c>
       <c r="E119" t="n">
-        <v>42.19</v>
+        <v>42.15</v>
       </c>
       <c r="F119" t="n">
-        <v>113.8225</v>
+        <v>200</v>
       </c>
       <c r="G119" t="n">
-        <v>-168942.7895634201</v>
+        <v>-332780.5884239</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -4557,34 +4679,35 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>42.19</v>
+        <v>42.2</v>
       </c>
       <c r="C120" t="n">
-        <v>42.19</v>
+        <v>42.2</v>
       </c>
       <c r="D120" t="n">
-        <v>42.19</v>
+        <v>42.2</v>
       </c>
       <c r="E120" t="n">
-        <v>42.19</v>
+        <v>42.2</v>
       </c>
       <c r="F120" t="n">
-        <v>279.9274</v>
+        <v>1140</v>
       </c>
       <c r="G120" t="n">
-        <v>-168942.7895634201</v>
+        <v>-331640.5884239</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -4592,28 +4715,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>42</v>
+        <v>42.27</v>
       </c>
       <c r="C121" t="n">
-        <v>42</v>
+        <v>42.27</v>
       </c>
       <c r="D121" t="n">
-        <v>42</v>
+        <v>42.27</v>
       </c>
       <c r="E121" t="n">
-        <v>42</v>
+        <v>42.16</v>
       </c>
       <c r="F121" t="n">
-        <v>1504.6514</v>
+        <v>150</v>
       </c>
       <c r="G121" t="n">
-        <v>-170447.4409634201</v>
+        <v>-331490.5884239</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4627,28 +4751,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>42.01</v>
+        <v>42.27</v>
       </c>
       <c r="C122" t="n">
-        <v>42.01</v>
+        <v>42.27</v>
       </c>
       <c r="D122" t="n">
-        <v>42.01</v>
+        <v>42.27</v>
       </c>
       <c r="E122" t="n">
-        <v>42.01</v>
+        <v>42.27</v>
       </c>
       <c r="F122" t="n">
-        <v>150.3616</v>
+        <v>148.3543</v>
       </c>
       <c r="G122" t="n">
-        <v>-170297.0793634201</v>
+        <v>-331490.5884239</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4662,28 +4787,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>42</v>
+        <v>42.15</v>
       </c>
       <c r="C123" t="n">
-        <v>42</v>
+        <v>42.19</v>
       </c>
       <c r="D123" t="n">
-        <v>42</v>
+        <v>42.19</v>
       </c>
       <c r="E123" t="n">
-        <v>42</v>
+        <v>42.03</v>
       </c>
       <c r="F123" t="n">
-        <v>8075.5466</v>
+        <v>944.3635</v>
       </c>
       <c r="G123" t="n">
-        <v>-178372.6259634201</v>
+        <v>-332434.9519238999</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4697,34 +4823,35 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>42.14</v>
+        <v>42.19</v>
       </c>
       <c r="C124" t="n">
-        <v>42.14</v>
+        <v>42.19</v>
       </c>
       <c r="D124" t="n">
-        <v>42.14</v>
+        <v>42.19</v>
       </c>
       <c r="E124" t="n">
-        <v>42.14</v>
+        <v>42.19</v>
       </c>
       <c r="F124" t="n">
-        <v>133.1043</v>
+        <v>120.934</v>
       </c>
       <c r="G124" t="n">
-        <v>-178239.52166342</v>
+        <v>-332434.9519238999</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -4732,34 +4859,35 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>42.14</v>
+        <v>42.2</v>
       </c>
       <c r="C125" t="n">
-        <v>42.09</v>
+        <v>42.2</v>
       </c>
       <c r="D125" t="n">
-        <v>42.14</v>
+        <v>42.2</v>
       </c>
       <c r="E125" t="n">
-        <v>41.9</v>
+        <v>42.2</v>
       </c>
       <c r="F125" t="n">
-        <v>1287.9753</v>
+        <v>645.3538</v>
       </c>
       <c r="G125" t="n">
-        <v>-179527.49696342</v>
+        <v>-331789.5981239</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -4767,34 +4895,35 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>41.9</v>
+        <v>42.27</v>
       </c>
       <c r="C126" t="n">
-        <v>41.9</v>
+        <v>42.27</v>
       </c>
       <c r="D126" t="n">
-        <v>41.9</v>
+        <v>42.27</v>
       </c>
       <c r="E126" t="n">
-        <v>41.9</v>
+        <v>42.27</v>
       </c>
       <c r="F126" t="n">
-        <v>4800</v>
+        <v>30.1502</v>
       </c>
       <c r="G126" t="n">
-        <v>-184327.49696342</v>
+        <v>-331759.4479239</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -4802,34 +4931,35 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>41.9</v>
+        <v>42.11</v>
       </c>
       <c r="C127" t="n">
-        <v>42.09</v>
+        <v>42.11</v>
       </c>
       <c r="D127" t="n">
-        <v>42.09</v>
+        <v>42.11</v>
       </c>
       <c r="E127" t="n">
-        <v>41.9</v>
+        <v>42.11</v>
       </c>
       <c r="F127" t="n">
-        <v>630.7853</v>
+        <v>470.5936</v>
       </c>
       <c r="G127" t="n">
-        <v>-183696.7116634201</v>
+        <v>-332230.0415239</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -4837,28 +4967,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>42.09</v>
+        <v>42.27</v>
       </c>
       <c r="C128" t="n">
-        <v>41.9</v>
+        <v>42.27</v>
       </c>
       <c r="D128" t="n">
-        <v>42.09</v>
+        <v>42.27</v>
       </c>
       <c r="E128" t="n">
-        <v>41.9</v>
+        <v>42.27</v>
       </c>
       <c r="F128" t="n">
-        <v>232.859</v>
+        <v>22.6162</v>
       </c>
       <c r="G128" t="n">
-        <v>-183929.57066342</v>
+        <v>-332207.4253239</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4872,34 +5003,35 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>42.07</v>
+        <v>42.1</v>
       </c>
       <c r="C129" t="n">
-        <v>42.07</v>
+        <v>42.09</v>
       </c>
       <c r="D129" t="n">
-        <v>42.07</v>
+        <v>42.1</v>
       </c>
       <c r="E129" t="n">
-        <v>42.07</v>
+        <v>42.09</v>
       </c>
       <c r="F129" t="n">
-        <v>39.1102</v>
+        <v>1000</v>
       </c>
       <c r="G129" t="n">
-        <v>-183890.4604634201</v>
+        <v>-333207.4253239</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
@@ -4907,28 +5039,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>41.89</v>
+        <v>42.01</v>
       </c>
       <c r="C130" t="n">
-        <v>41.89</v>
+        <v>42.01</v>
       </c>
       <c r="D130" t="n">
-        <v>41.89</v>
+        <v>42.01</v>
       </c>
       <c r="E130" t="n">
-        <v>41.89</v>
+        <v>42.01</v>
       </c>
       <c r="F130" t="n">
-        <v>4148.3075</v>
+        <v>10210.1</v>
       </c>
       <c r="G130" t="n">
-        <v>-188038.76796342</v>
+        <v>-343417.5253239</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4942,28 +5075,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>41.86</v>
+        <v>42.01</v>
       </c>
       <c r="C131" t="n">
-        <v>41.84</v>
+        <v>42.01</v>
       </c>
       <c r="D131" t="n">
-        <v>41.86</v>
+        <v>42.01</v>
       </c>
       <c r="E131" t="n">
-        <v>41.84</v>
+        <v>42.01</v>
       </c>
       <c r="F131" t="n">
-        <v>8994.395</v>
+        <v>25708.2124</v>
       </c>
       <c r="G131" t="n">
-        <v>-197033.16296342</v>
+        <v>-343417.5253239</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4977,28 +5111,29 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>41.84</v>
+        <v>42</v>
       </c>
       <c r="C132" t="n">
-        <v>41.84</v>
+        <v>42</v>
       </c>
       <c r="D132" t="n">
-        <v>41.84</v>
+        <v>42</v>
       </c>
       <c r="E132" t="n">
-        <v>41.84</v>
+        <v>42</v>
       </c>
       <c r="F132" t="n">
-        <v>1982.3576</v>
+        <v>2185.7923</v>
       </c>
       <c r="G132" t="n">
-        <v>-197033.16296342</v>
+        <v>-345603.3176239</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5012,28 +5147,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>41.84</v>
+        <v>42</v>
       </c>
       <c r="C133" t="n">
-        <v>41.84</v>
+        <v>42</v>
       </c>
       <c r="D133" t="n">
-        <v>41.84</v>
+        <v>42</v>
       </c>
       <c r="E133" t="n">
-        <v>41.84</v>
+        <v>42</v>
       </c>
       <c r="F133" t="n">
-        <v>1051.31</v>
+        <v>1153.5666</v>
       </c>
       <c r="G133" t="n">
-        <v>-197033.16296342</v>
+        <v>-345603.3176239</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5047,28 +5183,29 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>41.84</v>
+        <v>42</v>
       </c>
       <c r="C134" t="n">
-        <v>41.84</v>
+        <v>42</v>
       </c>
       <c r="D134" t="n">
-        <v>41.84</v>
+        <v>42</v>
       </c>
       <c r="E134" t="n">
-        <v>41.84</v>
+        <v>42</v>
       </c>
       <c r="F134" t="n">
-        <v>6678.5139</v>
+        <v>11697.7336</v>
       </c>
       <c r="G134" t="n">
-        <v>-197033.16296342</v>
+        <v>-345603.3176239</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5082,28 +5219,29 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>41.84</v>
+        <v>41.99</v>
       </c>
       <c r="C135" t="n">
-        <v>41.84</v>
+        <v>42</v>
       </c>
       <c r="D135" t="n">
-        <v>41.84</v>
+        <v>42</v>
       </c>
       <c r="E135" t="n">
-        <v>41.84</v>
+        <v>41.99</v>
       </c>
       <c r="F135" t="n">
-        <v>1745.5763</v>
+        <v>20722.1</v>
       </c>
       <c r="G135" t="n">
-        <v>-197033.16296342</v>
+        <v>-345603.3176239</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5117,28 +5255,29 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>41.84</v>
+        <v>42</v>
       </c>
       <c r="C136" t="n">
-        <v>41.95</v>
+        <v>41.99</v>
       </c>
       <c r="D136" t="n">
-        <v>41.95</v>
+        <v>42</v>
       </c>
       <c r="E136" t="n">
-        <v>41.84</v>
+        <v>41.99</v>
       </c>
       <c r="F136" t="n">
-        <v>1834.5137</v>
+        <v>1083.226</v>
       </c>
       <c r="G136" t="n">
-        <v>-195198.64926342</v>
+        <v>-346686.5436239</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5152,28 +5291,29 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>41.8</v>
+        <v>41.91</v>
       </c>
       <c r="C137" t="n">
-        <v>41.8</v>
+        <v>41.91</v>
       </c>
       <c r="D137" t="n">
-        <v>41.8</v>
+        <v>41.91</v>
       </c>
       <c r="E137" t="n">
-        <v>41.8</v>
+        <v>41.91</v>
       </c>
       <c r="F137" t="n">
-        <v>949.3819999999999</v>
+        <v>38469.3478</v>
       </c>
       <c r="G137" t="n">
-        <v>-196148.03126342</v>
+        <v>-385155.8914239</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5187,28 +5327,29 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>41.99</v>
+        <v>41.83</v>
       </c>
       <c r="C138" t="n">
-        <v>41.8</v>
+        <v>41.83</v>
       </c>
       <c r="D138" t="n">
-        <v>41.99</v>
+        <v>41.83</v>
       </c>
       <c r="E138" t="n">
-        <v>41.8</v>
+        <v>41.83</v>
       </c>
       <c r="F138" t="n">
-        <v>108425.1398</v>
+        <v>2188.1837</v>
       </c>
       <c r="G138" t="n">
-        <v>-196148.03126342</v>
+        <v>-387344.0751239</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5222,28 +5363,29 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>41.91</v>
+        <v>41.8</v>
       </c>
       <c r="C139" t="n">
-        <v>41.91</v>
+        <v>41.79</v>
       </c>
       <c r="D139" t="n">
-        <v>41.91</v>
+        <v>41.8</v>
       </c>
       <c r="E139" t="n">
-        <v>41.91</v>
+        <v>41.79</v>
       </c>
       <c r="F139" t="n">
-        <v>1645.3518</v>
+        <v>15119.5805</v>
       </c>
       <c r="G139" t="n">
-        <v>-194502.67946342</v>
+        <v>-402463.6556238999</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5257,28 +5399,29 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>41.91</v>
+        <v>41.79</v>
       </c>
       <c r="C140" t="n">
-        <v>41.9</v>
+        <v>41.79</v>
       </c>
       <c r="D140" t="n">
-        <v>41.91</v>
+        <v>41.79</v>
       </c>
       <c r="E140" t="n">
-        <v>41.9</v>
+        <v>41.79</v>
       </c>
       <c r="F140" t="n">
-        <v>5990.7919</v>
+        <v>11760.1059</v>
       </c>
       <c r="G140" t="n">
-        <v>-200493.47136342</v>
+        <v>-402463.6556238999</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5292,28 +5435,29 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>41.9</v>
+        <v>41.78</v>
       </c>
       <c r="C141" t="n">
-        <v>41.79</v>
+        <v>41.78</v>
       </c>
       <c r="D141" t="n">
-        <v>41.9</v>
+        <v>41.78</v>
       </c>
       <c r="E141" t="n">
-        <v>41.79</v>
+        <v>41.78</v>
       </c>
       <c r="F141" t="n">
-        <v>949.3819999999999</v>
+        <v>5774.2442</v>
       </c>
       <c r="G141" t="n">
-        <v>-201442.8533634201</v>
+        <v>-408237.8998239</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5327,28 +5471,29 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>41.77</v>
+        <v>41.67</v>
       </c>
       <c r="C142" t="n">
-        <v>41.74</v>
+        <v>41.53</v>
       </c>
       <c r="D142" t="n">
-        <v>41.77</v>
+        <v>41.67</v>
       </c>
       <c r="E142" t="n">
-        <v>41.74</v>
+        <v>41.53</v>
       </c>
       <c r="F142" t="n">
-        <v>181675.3545</v>
+        <v>15037.0925</v>
       </c>
       <c r="G142" t="n">
-        <v>-383118.20786342</v>
+        <v>-423274.9923239</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5362,28 +5507,29 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>41.94</v>
+        <v>41.71</v>
       </c>
       <c r="C143" t="n">
-        <v>41.94</v>
+        <v>41.71</v>
       </c>
       <c r="D143" t="n">
-        <v>41.94</v>
+        <v>41.71</v>
       </c>
       <c r="E143" t="n">
-        <v>41.94</v>
+        <v>41.71</v>
       </c>
       <c r="F143" t="n">
-        <v>154.7521</v>
+        <v>12</v>
       </c>
       <c r="G143" t="n">
-        <v>-382963.45576342</v>
+        <v>-423262.9923239</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5397,28 +5543,29 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>42</v>
+        <v>41.71</v>
       </c>
       <c r="C144" t="n">
-        <v>42</v>
+        <v>41.71</v>
       </c>
       <c r="D144" t="n">
-        <v>42</v>
+        <v>41.71</v>
       </c>
       <c r="E144" t="n">
-        <v>42</v>
+        <v>41.71</v>
       </c>
       <c r="F144" t="n">
-        <v>54845.2478</v>
+        <v>5494.7381</v>
       </c>
       <c r="G144" t="n">
-        <v>-328118.20796342</v>
+        <v>-423262.9923239</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5432,168 +5579,201 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>41.99</v>
+        <v>41.65</v>
       </c>
       <c r="C145" t="n">
-        <v>41.99</v>
+        <v>41.65</v>
       </c>
       <c r="D145" t="n">
-        <v>41.99</v>
+        <v>41.65</v>
       </c>
       <c r="E145" t="n">
-        <v>41.99</v>
+        <v>41.65</v>
       </c>
       <c r="F145" t="n">
-        <v>300</v>
+        <v>6046.8551</v>
       </c>
       <c r="G145" t="n">
-        <v>-328418.20796342</v>
+        <v>-429309.8474239</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="K145" t="n">
+        <v>41.71</v>
+      </c>
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>42</v>
+        <v>41.62</v>
       </c>
       <c r="C146" t="n">
-        <v>42</v>
+        <v>41.71</v>
       </c>
       <c r="D146" t="n">
-        <v>42</v>
+        <v>41.71</v>
       </c>
       <c r="E146" t="n">
-        <v>42</v>
+        <v>41.62</v>
       </c>
       <c r="F146" t="n">
-        <v>223.0235</v>
+        <v>5102.6773</v>
       </c>
       <c r="G146" t="n">
-        <v>-328195.18446342</v>
+        <v>-424207.1701239</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>41.65</v>
+      </c>
+      <c r="K146" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>42</v>
+        <v>41.75</v>
       </c>
       <c r="C147" t="n">
-        <v>42</v>
+        <v>41.75</v>
       </c>
       <c r="D147" t="n">
-        <v>42</v>
+        <v>41.75</v>
       </c>
       <c r="E147" t="n">
-        <v>42</v>
+        <v>41.75</v>
       </c>
       <c r="F147" t="n">
-        <v>5574.2722</v>
+        <v>1849.9999</v>
       </c>
       <c r="G147" t="n">
-        <v>-328195.18446342</v>
+        <v>-422357.1702239</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="K147" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>42</v>
+        <v>41.8</v>
       </c>
       <c r="C148" t="n">
-        <v>42</v>
+        <v>41.8</v>
       </c>
       <c r="D148" t="n">
-        <v>42</v>
+        <v>41.8</v>
       </c>
       <c r="E148" t="n">
-        <v>42</v>
+        <v>41.8</v>
       </c>
       <c r="F148" t="n">
-        <v>4425.7278</v>
+        <v>21.5312</v>
       </c>
       <c r="G148" t="n">
-        <v>-328195.18446342</v>
+        <v>-422335.6390239</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>41.75</v>
+      </c>
+      <c r="K148" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>41.99</v>
+        <v>41.72</v>
       </c>
       <c r="C149" t="n">
-        <v>41.99</v>
+        <v>41.72</v>
       </c>
       <c r="D149" t="n">
-        <v>41.99</v>
+        <v>41.72</v>
       </c>
       <c r="E149" t="n">
-        <v>41.99</v>
+        <v>41.72</v>
       </c>
       <c r="F149" t="n">
-        <v>11783.8851</v>
+        <v>4317.6953</v>
       </c>
       <c r="G149" t="n">
-        <v>-339979.06956342</v>
+        <v>-426653.3343239</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5602,33 +5782,40 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>42.02</v>
+        <v>41.79</v>
       </c>
       <c r="C150" t="n">
-        <v>42.22</v>
+        <v>41.79</v>
       </c>
       <c r="D150" t="n">
-        <v>42.22</v>
+        <v>41.79</v>
       </c>
       <c r="E150" t="n">
-        <v>42.02</v>
+        <v>41.79</v>
       </c>
       <c r="F150" t="n">
-        <v>18080.1925</v>
+        <v>974.0229</v>
       </c>
       <c r="G150" t="n">
-        <v>-321898.87706342</v>
+        <v>-425679.3114239</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5637,33 +5824,40 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>42.26</v>
+        <v>41.79</v>
       </c>
       <c r="C151" t="n">
-        <v>42.26</v>
+        <v>41.79</v>
       </c>
       <c r="D151" t="n">
-        <v>42.26</v>
+        <v>41.79</v>
       </c>
       <c r="E151" t="n">
-        <v>42.26</v>
+        <v>41.79</v>
       </c>
       <c r="F151" t="n">
-        <v>2181.0251</v>
+        <v>4214.9109</v>
       </c>
       <c r="G151" t="n">
-        <v>-319717.85196342</v>
+        <v>-425679.3114239</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5672,33 +5866,40 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>42.15</v>
+        <v>41.76</v>
       </c>
       <c r="C152" t="n">
-        <v>42.15</v>
+        <v>41.62</v>
       </c>
       <c r="D152" t="n">
-        <v>42.15</v>
+        <v>41.76</v>
       </c>
       <c r="E152" t="n">
-        <v>42.15</v>
+        <v>41.62</v>
       </c>
       <c r="F152" t="n">
-        <v>1243.6143</v>
+        <v>10000</v>
       </c>
       <c r="G152" t="n">
-        <v>-320961.46626342</v>
+        <v>-435679.3114239</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5707,33 +5908,40 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>42.15</v>
+        <v>41.83</v>
       </c>
       <c r="C153" t="n">
-        <v>42.15</v>
+        <v>41.83</v>
       </c>
       <c r="D153" t="n">
-        <v>42.15</v>
+        <v>41.83</v>
       </c>
       <c r="E153" t="n">
-        <v>42.15</v>
+        <v>41.83</v>
       </c>
       <c r="F153" t="n">
-        <v>930.2987000000001</v>
+        <v>1957.9842</v>
       </c>
       <c r="G153" t="n">
-        <v>-320961.46626342</v>
+        <v>-433721.3272239</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5742,33 +5950,40 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>42.31</v>
+        <v>41.67</v>
       </c>
       <c r="C154" t="n">
-        <v>42.31</v>
+        <v>41.67</v>
       </c>
       <c r="D154" t="n">
-        <v>42.31</v>
+        <v>41.67</v>
       </c>
       <c r="E154" t="n">
-        <v>42.31</v>
+        <v>41.67</v>
       </c>
       <c r="F154" t="n">
-        <v>49.3345</v>
+        <v>20000</v>
       </c>
       <c r="G154" t="n">
-        <v>-320912.13176342</v>
+        <v>-453721.3272239</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5777,33 +5992,40 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>42.26</v>
+        <v>41.73</v>
       </c>
       <c r="C155" t="n">
-        <v>42.26</v>
+        <v>41.63</v>
       </c>
       <c r="D155" t="n">
-        <v>42.26</v>
+        <v>41.73</v>
       </c>
       <c r="E155" t="n">
-        <v>42.26</v>
+        <v>41.63</v>
       </c>
       <c r="F155" t="n">
-        <v>81.77946048</v>
+        <v>9489.9256</v>
       </c>
       <c r="G155" t="n">
-        <v>-320993.9112239</v>
+        <v>-463211.2528239</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5812,33 +6034,40 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>42.2</v>
+        <v>41.69</v>
       </c>
       <c r="C156" t="n">
-        <v>42.2</v>
+        <v>41.69</v>
       </c>
       <c r="D156" t="n">
-        <v>42.3</v>
+        <v>41.69</v>
       </c>
       <c r="E156" t="n">
-        <v>42.2</v>
+        <v>41.69</v>
       </c>
       <c r="F156" t="n">
-        <v>8729.197399999999</v>
+        <v>11278.3316</v>
       </c>
       <c r="G156" t="n">
-        <v>-329723.1086239</v>
+        <v>-451932.9212239</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5847,33 +6076,40 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>42.3</v>
+        <v>41.8</v>
       </c>
       <c r="C157" t="n">
-        <v>42.3</v>
+        <v>41.85</v>
       </c>
       <c r="D157" t="n">
-        <v>42.3</v>
+        <v>41.85</v>
       </c>
       <c r="E157" t="n">
-        <v>42.16</v>
+        <v>41.8</v>
       </c>
       <c r="F157" t="n">
-        <v>250</v>
+        <v>6846.809</v>
       </c>
       <c r="G157" t="n">
-        <v>-329473.1086239</v>
+        <v>-445086.1122239</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5882,33 +6118,40 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>42.3</v>
+        <v>41.91</v>
       </c>
       <c r="C158" t="n">
-        <v>42.3</v>
+        <v>41.91</v>
       </c>
       <c r="D158" t="n">
-        <v>42.3</v>
+        <v>41.91</v>
       </c>
       <c r="E158" t="n">
-        <v>42.3</v>
+        <v>41.91</v>
       </c>
       <c r="F158" t="n">
-        <v>50</v>
+        <v>719.3108</v>
       </c>
       <c r="G158" t="n">
-        <v>-329473.1086239</v>
+        <v>-444366.8014239001</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5917,33 +6160,40 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>42.3</v>
+        <v>41.76</v>
       </c>
       <c r="C159" t="n">
-        <v>42.29</v>
+        <v>41.92</v>
       </c>
       <c r="D159" t="n">
-        <v>42.3</v>
+        <v>41.93</v>
       </c>
       <c r="E159" t="n">
-        <v>42.29</v>
+        <v>41.76</v>
       </c>
       <c r="F159" t="n">
-        <v>3107.4798</v>
+        <v>35993.007</v>
       </c>
       <c r="G159" t="n">
-        <v>-332580.5884239</v>
+        <v>-408373.7944239001</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5952,33 +6202,40 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>42.3</v>
+        <v>41.84</v>
       </c>
       <c r="C160" t="n">
-        <v>42.29</v>
+        <v>41.77</v>
       </c>
       <c r="D160" t="n">
-        <v>42.3</v>
+        <v>41.84</v>
       </c>
       <c r="E160" t="n">
-        <v>42.29</v>
+        <v>41.77</v>
       </c>
       <c r="F160" t="n">
-        <v>12811.976</v>
+        <v>28967.6842</v>
       </c>
       <c r="G160" t="n">
-        <v>-332580.5884239</v>
+        <v>-437341.4786239001</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5987,33 +6244,40 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>42.29</v>
+        <v>41.79</v>
       </c>
       <c r="C161" t="n">
-        <v>42.15</v>
+        <v>41.79</v>
       </c>
       <c r="D161" t="n">
-        <v>42.29</v>
+        <v>41.79</v>
       </c>
       <c r="E161" t="n">
-        <v>42.15</v>
+        <v>41.79</v>
       </c>
       <c r="F161" t="n">
-        <v>200</v>
+        <v>10410.7072</v>
       </c>
       <c r="G161" t="n">
-        <v>-332780.5884239</v>
+        <v>-426930.7714239001</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6022,33 +6286,40 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>42.2</v>
+        <v>42.01</v>
       </c>
       <c r="C162" t="n">
-        <v>42.2</v>
+        <v>41.79</v>
       </c>
       <c r="D162" t="n">
-        <v>42.2</v>
+        <v>42.01</v>
       </c>
       <c r="E162" t="n">
-        <v>42.2</v>
+        <v>41.79</v>
       </c>
       <c r="F162" t="n">
-        <v>1140</v>
+        <v>26900</v>
       </c>
       <c r="G162" t="n">
-        <v>-331640.5884239</v>
+        <v>-426930.7714239001</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6057,33 +6328,40 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>42.27</v>
+        <v>42.01</v>
       </c>
       <c r="C163" t="n">
-        <v>42.27</v>
+        <v>42.01</v>
       </c>
       <c r="D163" t="n">
-        <v>42.27</v>
+        <v>42.01</v>
       </c>
       <c r="E163" t="n">
-        <v>42.16</v>
+        <v>42.01</v>
       </c>
       <c r="F163" t="n">
-        <v>150</v>
+        <v>32848.5014</v>
       </c>
       <c r="G163" t="n">
-        <v>-331490.5884239</v>
+        <v>-394082.2700239001</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6092,33 +6370,40 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>42.27</v>
+        <v>42.01</v>
       </c>
       <c r="C164" t="n">
-        <v>42.27</v>
+        <v>42.01</v>
       </c>
       <c r="D164" t="n">
-        <v>42.27</v>
+        <v>42.01</v>
       </c>
       <c r="E164" t="n">
-        <v>42.27</v>
+        <v>42.01</v>
       </c>
       <c r="F164" t="n">
-        <v>148.3543</v>
+        <v>20862.7299</v>
       </c>
       <c r="G164" t="n">
-        <v>-331490.5884239</v>
+        <v>-394082.2700239001</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6127,33 +6412,40 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>42.15</v>
+        <v>42.01</v>
       </c>
       <c r="C165" t="n">
-        <v>42.19</v>
+        <v>42.01</v>
       </c>
       <c r="D165" t="n">
-        <v>42.19</v>
+        <v>42.01</v>
       </c>
       <c r="E165" t="n">
-        <v>42.03</v>
+        <v>42.01</v>
       </c>
       <c r="F165" t="n">
-        <v>944.3635</v>
+        <v>3065.4555</v>
       </c>
       <c r="G165" t="n">
-        <v>-332434.9519238999</v>
+        <v>-394082.2700239001</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6162,33 +6454,40 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>42.19</v>
+        <v>41.97</v>
       </c>
       <c r="C166" t="n">
-        <v>42.19</v>
+        <v>41.94</v>
       </c>
       <c r="D166" t="n">
-        <v>42.19</v>
+        <v>41.97</v>
       </c>
       <c r="E166" t="n">
-        <v>42.19</v>
+        <v>41.94</v>
       </c>
       <c r="F166" t="n">
-        <v>120.934</v>
+        <v>2909.2914</v>
       </c>
       <c r="G166" t="n">
-        <v>-332434.9519238999</v>
+        <v>-396991.5614239001</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6197,33 +6496,40 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>42.2</v>
+        <v>42.01</v>
       </c>
       <c r="C167" t="n">
-        <v>42.2</v>
+        <v>42.01</v>
       </c>
       <c r="D167" t="n">
-        <v>42.2</v>
+        <v>42.01</v>
       </c>
       <c r="E167" t="n">
-        <v>42.2</v>
+        <v>42.01</v>
       </c>
       <c r="F167" t="n">
-        <v>645.3538</v>
+        <v>17.0495</v>
       </c>
       <c r="G167" t="n">
-        <v>-331789.5981239</v>
+        <v>-396974.5119239</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6232,33 +6538,40 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>42.27</v>
+        <v>42.01</v>
       </c>
       <c r="C168" t="n">
-        <v>42.27</v>
+        <v>42.01</v>
       </c>
       <c r="D168" t="n">
-        <v>42.27</v>
+        <v>42.01</v>
       </c>
       <c r="E168" t="n">
-        <v>42.27</v>
+        <v>42.01</v>
       </c>
       <c r="F168" t="n">
-        <v>30.1502</v>
+        <v>1159.8059</v>
       </c>
       <c r="G168" t="n">
-        <v>-331759.4479239</v>
+        <v>-396974.5119239</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6267,33 +6580,40 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>42.11</v>
+        <v>41.9</v>
       </c>
       <c r="C169" t="n">
-        <v>42.11</v>
+        <v>41.9</v>
       </c>
       <c r="D169" t="n">
-        <v>42.11</v>
+        <v>41.9</v>
       </c>
       <c r="E169" t="n">
-        <v>42.11</v>
+        <v>41.9</v>
       </c>
       <c r="F169" t="n">
-        <v>470.5936</v>
+        <v>1260</v>
       </c>
       <c r="G169" t="n">
-        <v>-332230.0415239</v>
+        <v>-398234.5119239</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6302,33 +6622,40 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
+      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>42.27</v>
+        <v>42</v>
       </c>
       <c r="C170" t="n">
-        <v>42.27</v>
+        <v>42</v>
       </c>
       <c r="D170" t="n">
-        <v>42.27</v>
+        <v>42</v>
       </c>
       <c r="E170" t="n">
-        <v>42.27</v>
+        <v>42</v>
       </c>
       <c r="F170" t="n">
-        <v>22.6162</v>
+        <v>30</v>
       </c>
       <c r="G170" t="n">
-        <v>-332207.4253239</v>
+        <v>-398204.5119239</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6337,33 +6664,40 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
+      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>42.1</v>
+        <v>41.79</v>
       </c>
       <c r="C171" t="n">
-        <v>42.09</v>
+        <v>41.77</v>
       </c>
       <c r="D171" t="n">
-        <v>42.1</v>
+        <v>41.79</v>
       </c>
       <c r="E171" t="n">
-        <v>42.09</v>
+        <v>41.77</v>
       </c>
       <c r="F171" t="n">
-        <v>1000</v>
+        <v>5208.1806</v>
       </c>
       <c r="G171" t="n">
-        <v>-333207.4253239</v>
+        <v>-403412.6925239001</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6372,33 +6706,40 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
+      <c r="N171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>42.01</v>
+        <v>41.66</v>
       </c>
       <c r="C172" t="n">
-        <v>42.01</v>
+        <v>41.66</v>
       </c>
       <c r="D172" t="n">
-        <v>42.01</v>
+        <v>41.66</v>
       </c>
       <c r="E172" t="n">
-        <v>42.01</v>
+        <v>41.66</v>
       </c>
       <c r="F172" t="n">
-        <v>10210.1</v>
+        <v>9832.8673</v>
       </c>
       <c r="G172" t="n">
-        <v>-343417.5253239</v>
+        <v>-413245.5598239001</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6407,33 +6748,40 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
+      <c r="N172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>42.01</v>
+        <v>41.67</v>
       </c>
       <c r="C173" t="n">
-        <v>42.01</v>
+        <v>41.67</v>
       </c>
       <c r="D173" t="n">
-        <v>42.01</v>
+        <v>41.67</v>
       </c>
       <c r="E173" t="n">
-        <v>42.01</v>
+        <v>41.67</v>
       </c>
       <c r="F173" t="n">
-        <v>25708.2124</v>
+        <v>1715.4098</v>
       </c>
       <c r="G173" t="n">
-        <v>-343417.5253239</v>
+        <v>-411530.1500239</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6442,33 +6790,40 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
+      <c r="N173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>42</v>
+        <v>41.66</v>
       </c>
       <c r="C174" t="n">
-        <v>42</v>
+        <v>41.66</v>
       </c>
       <c r="D174" t="n">
-        <v>42</v>
+        <v>41.66</v>
       </c>
       <c r="E174" t="n">
-        <v>42</v>
+        <v>41.66</v>
       </c>
       <c r="F174" t="n">
-        <v>2185.7923</v>
+        <v>856.9</v>
       </c>
       <c r="G174" t="n">
-        <v>-345603.3176239</v>
+        <v>-412387.0500239001</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6477,33 +6832,40 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
+      <c r="N174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>42</v>
+        <v>41.77</v>
       </c>
       <c r="C175" t="n">
-        <v>42</v>
+        <v>41.77</v>
       </c>
       <c r="D175" t="n">
-        <v>42</v>
+        <v>41.77</v>
       </c>
       <c r="E175" t="n">
-        <v>42</v>
+        <v>41.77</v>
       </c>
       <c r="F175" t="n">
-        <v>1153.5666</v>
+        <v>1220.7388</v>
       </c>
       <c r="G175" t="n">
-        <v>-345603.3176239</v>
+        <v>-411166.3112239001</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6512,33 +6874,40 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
+      <c r="N175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>42</v>
+        <v>41.74</v>
       </c>
       <c r="C176" t="n">
-        <v>42</v>
+        <v>41.68</v>
       </c>
       <c r="D176" t="n">
-        <v>42</v>
+        <v>41.74</v>
       </c>
       <c r="E176" t="n">
-        <v>42</v>
+        <v>41.68</v>
       </c>
       <c r="F176" t="n">
-        <v>11697.7336</v>
+        <v>140664.5608</v>
       </c>
       <c r="G176" t="n">
-        <v>-345603.3176239</v>
+        <v>-551830.8720239</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6547,33 +6916,40 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
+      <c r="N176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>41.99</v>
+        <v>41.77</v>
       </c>
       <c r="C177" t="n">
-        <v>42</v>
+        <v>41.86</v>
       </c>
       <c r="D177" t="n">
-        <v>42</v>
+        <v>41.86</v>
       </c>
       <c r="E177" t="n">
-        <v>41.99</v>
+        <v>41.77</v>
       </c>
       <c r="F177" t="n">
-        <v>20722.1</v>
+        <v>818.6161</v>
       </c>
       <c r="G177" t="n">
-        <v>-345603.3176239</v>
+        <v>-551012.2559239001</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6582,33 +6958,40 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
+      <c r="N177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>42</v>
+        <v>41.91</v>
       </c>
       <c r="C178" t="n">
-        <v>41.99</v>
+        <v>41.91</v>
       </c>
       <c r="D178" t="n">
-        <v>42</v>
+        <v>41.91</v>
       </c>
       <c r="E178" t="n">
-        <v>41.99</v>
+        <v>41.91</v>
       </c>
       <c r="F178" t="n">
-        <v>1083.226</v>
+        <v>1715.4098</v>
       </c>
       <c r="G178" t="n">
-        <v>-346686.5436239</v>
+        <v>-549296.8461239</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6617,33 +7000,40 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
+      <c r="N178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>41.91</v>
+        <v>41.94</v>
       </c>
       <c r="C179" t="n">
-        <v>41.91</v>
+        <v>41.78</v>
       </c>
       <c r="D179" t="n">
-        <v>41.91</v>
+        <v>41.94</v>
       </c>
       <c r="E179" t="n">
-        <v>41.91</v>
+        <v>41.78</v>
       </c>
       <c r="F179" t="n">
-        <v>38469.3478</v>
+        <v>3350.7897</v>
       </c>
       <c r="G179" t="n">
-        <v>-385155.8914239</v>
+        <v>-552647.6358239</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6652,33 +7042,40 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
+      <c r="N179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>41.83</v>
+        <v>41.86</v>
       </c>
       <c r="C180" t="n">
-        <v>41.83</v>
+        <v>41.86</v>
       </c>
       <c r="D180" t="n">
-        <v>41.83</v>
+        <v>41.86</v>
       </c>
       <c r="E180" t="n">
-        <v>41.83</v>
+        <v>41.86</v>
       </c>
       <c r="F180" t="n">
-        <v>2188.1837</v>
+        <v>25.7222</v>
       </c>
       <c r="G180" t="n">
-        <v>-387344.0751239</v>
+        <v>-552621.9136239</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6687,33 +7084,40 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
+      <c r="N180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>41.8</v>
+        <v>41.86</v>
       </c>
       <c r="C181" t="n">
-        <v>41.79</v>
+        <v>41.86</v>
       </c>
       <c r="D181" t="n">
-        <v>41.8</v>
+        <v>41.86</v>
       </c>
       <c r="E181" t="n">
-        <v>41.79</v>
+        <v>41.86</v>
       </c>
       <c r="F181" t="n">
-        <v>15119.5805</v>
+        <v>1241.997</v>
       </c>
       <c r="G181" t="n">
-        <v>-402463.6556238999</v>
+        <v>-552621.9136239</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6722,33 +7126,40 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
+      <c r="N181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>41.79</v>
+        <v>41.9</v>
       </c>
       <c r="C182" t="n">
-        <v>41.79</v>
+        <v>41.9</v>
       </c>
       <c r="D182" t="n">
-        <v>41.79</v>
+        <v>41.9</v>
       </c>
       <c r="E182" t="n">
-        <v>41.79</v>
+        <v>41.9</v>
       </c>
       <c r="F182" t="n">
-        <v>11760.1059</v>
+        <v>1000</v>
       </c>
       <c r="G182" t="n">
-        <v>-402463.6556238999</v>
+        <v>-551621.9136239</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6757,33 +7168,40 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
+      <c r="N182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>41.78</v>
+        <v>41.9</v>
       </c>
       <c r="C183" t="n">
-        <v>41.78</v>
+        <v>41.9</v>
       </c>
       <c r="D183" t="n">
-        <v>41.78</v>
+        <v>41.9</v>
       </c>
       <c r="E183" t="n">
-        <v>41.78</v>
+        <v>41.9</v>
       </c>
       <c r="F183" t="n">
-        <v>5774.2442</v>
+        <v>65</v>
       </c>
       <c r="G183" t="n">
-        <v>-408237.8998239</v>
+        <v>-551621.9136239</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6792,33 +7210,40 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
+      <c r="N183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>41.67</v>
+        <v>41.9</v>
       </c>
       <c r="C184" t="n">
-        <v>41.53</v>
+        <v>41.9</v>
       </c>
       <c r="D184" t="n">
-        <v>41.67</v>
+        <v>41.9</v>
       </c>
       <c r="E184" t="n">
-        <v>41.53</v>
+        <v>41.9</v>
       </c>
       <c r="F184" t="n">
-        <v>15037.0925</v>
+        <v>23900.0887</v>
       </c>
       <c r="G184" t="n">
-        <v>-423274.9923239</v>
+        <v>-551621.9136239</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6827,103 +7252,124 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
+      <c r="N184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="C185" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="D185" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="E185" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="F185" t="n">
+        <v>843.8883</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-551621.9136239</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
         <v>41.71</v>
       </c>
-      <c r="C185" t="n">
-        <v>41.71</v>
-      </c>
-      <c r="D185" t="n">
-        <v>41.71</v>
-      </c>
-      <c r="E185" t="n">
-        <v>41.71</v>
-      </c>
-      <c r="F185" t="n">
-        <v>12</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-423262.9923239</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
+      <c r="N185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="n">
+        <v>41.77</v>
+      </c>
+      <c r="C186" t="n">
+        <v>41.77</v>
+      </c>
+      <c r="D186" t="n">
+        <v>41.77</v>
+      </c>
+      <c r="E186" t="n">
+        <v>41.77</v>
+      </c>
+      <c r="F186" t="n">
+        <v>541.3131</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-552163.2267239001</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
         <v>41.71</v>
       </c>
-      <c r="C186" t="n">
-        <v>41.71</v>
-      </c>
-      <c r="D186" t="n">
-        <v>41.71</v>
-      </c>
-      <c r="E186" t="n">
-        <v>41.71</v>
-      </c>
-      <c r="F186" t="n">
-        <v>5494.7381</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-423262.9923239</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
+      <c r="N186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>41.65</v>
+        <v>41.9</v>
       </c>
       <c r="C187" t="n">
-        <v>41.65</v>
+        <v>41.9</v>
       </c>
       <c r="D187" t="n">
-        <v>41.65</v>
+        <v>41.9</v>
       </c>
       <c r="E187" t="n">
-        <v>41.65</v>
+        <v>41.9</v>
       </c>
       <c r="F187" t="n">
-        <v>6046.8551</v>
+        <v>25.7276</v>
       </c>
       <c r="G187" t="n">
-        <v>-429309.8474239</v>
+        <v>-552137.4991239001</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6932,74 +7378,82 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
+      <c r="N187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>41.62</v>
+        <v>41.89</v>
       </c>
       <c r="C188" t="n">
+        <v>41.89</v>
+      </c>
+      <c r="D188" t="n">
+        <v>41.89</v>
+      </c>
+      <c r="E188" t="n">
+        <v>41.89</v>
+      </c>
+      <c r="F188" t="n">
+        <v>480.0133</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-552617.5124239001</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
         <v>41.71</v>
       </c>
-      <c r="D188" t="n">
-        <v>41.71</v>
-      </c>
-      <c r="E188" t="n">
-        <v>41.62</v>
-      </c>
-      <c r="F188" t="n">
-        <v>5102.6773</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-424207.1701239</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="n">
-        <v>41.65</v>
-      </c>
-      <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
+      <c r="N188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>41.75</v>
+        <v>41.77</v>
       </c>
       <c r="C189" t="n">
-        <v>41.75</v>
+        <v>41.84</v>
       </c>
       <c r="D189" t="n">
-        <v>41.75</v>
+        <v>41.84</v>
       </c>
       <c r="E189" t="n">
-        <v>41.75</v>
+        <v>41.77</v>
       </c>
       <c r="F189" t="n">
-        <v>1849.9999</v>
+        <v>5704.7937</v>
       </c>
       <c r="G189" t="n">
-        <v>-422357.1702239</v>
+        <v>-558322.3061239001</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7008,7 +7462,9 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>41.71</v>
+      </c>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7017,39 +7473,40 @@
       <c r="M189" t="n">
         <v>1</v>
       </c>
+      <c r="N189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>41.8</v>
+        <v>41.69</v>
       </c>
       <c r="C190" t="n">
-        <v>41.8</v>
+        <v>41.69</v>
       </c>
       <c r="D190" t="n">
-        <v>41.8</v>
+        <v>41.69</v>
       </c>
       <c r="E190" t="n">
-        <v>41.8</v>
+        <v>41.69</v>
       </c>
       <c r="F190" t="n">
-        <v>21.5312</v>
+        <v>4282.4803</v>
       </c>
       <c r="G190" t="n">
-        <v>-422335.6390239</v>
+        <v>-562604.7864239002</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>41.75</v>
-      </c>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>41.71</v>
+      </c>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7058,39 +7515,40 @@
       <c r="M190" t="n">
         <v>1</v>
       </c>
+      <c r="N190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>41.72</v>
+        <v>41.8</v>
       </c>
       <c r="C191" t="n">
-        <v>41.72</v>
+        <v>41.8</v>
       </c>
       <c r="D191" t="n">
-        <v>41.72</v>
+        <v>41.8</v>
       </c>
       <c r="E191" t="n">
-        <v>41.72</v>
+        <v>41.8</v>
       </c>
       <c r="F191" t="n">
-        <v>4317.6953</v>
+        <v>1280</v>
       </c>
       <c r="G191" t="n">
-        <v>-426653.3343239</v>
+        <v>-561324.7864239002</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>41.71</v>
+      </c>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7099,28 +7557,29 @@
       <c r="M191" t="n">
         <v>1</v>
       </c>
+      <c r="N191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>41.79</v>
+        <v>41.7</v>
       </c>
       <c r="C192" t="n">
-        <v>41.79</v>
+        <v>41.7</v>
       </c>
       <c r="D192" t="n">
-        <v>41.79</v>
+        <v>41.7</v>
       </c>
       <c r="E192" t="n">
-        <v>41.79</v>
+        <v>41.7</v>
       </c>
       <c r="F192" t="n">
-        <v>974.0229</v>
+        <v>457.4439</v>
       </c>
       <c r="G192" t="n">
-        <v>-425679.3114239</v>
+        <v>-561782.2303239001</v>
       </c>
       <c r="H192" t="n">
         <v>1</v>
@@ -7129,9 +7588,11 @@
         <v>0</v>
       </c>
       <c r="J192" t="n">
-        <v>41.72</v>
-      </c>
-      <c r="K192" t="inlineStr"/>
+        <v>41.8</v>
+      </c>
+      <c r="K192" t="n">
+        <v>41.71</v>
+      </c>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7140,28 +7601,29 @@
       <c r="M192" t="n">
         <v>1</v>
       </c>
+      <c r="N192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>41.79</v>
+        <v>41.7</v>
       </c>
       <c r="C193" t="n">
-        <v>41.79</v>
+        <v>41.7</v>
       </c>
       <c r="D193" t="n">
-        <v>41.79</v>
+        <v>41.7</v>
       </c>
       <c r="E193" t="n">
-        <v>41.79</v>
+        <v>41.7</v>
       </c>
       <c r="F193" t="n">
-        <v>4214.9109</v>
+        <v>938.4087</v>
       </c>
       <c r="G193" t="n">
-        <v>-425679.3114239</v>
+        <v>-561782.2303239001</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7170,7 +7632,9 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>41.71</v>
+      </c>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7179,28 +7643,29 @@
       <c r="M193" t="n">
         <v>1</v>
       </c>
+      <c r="N193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>41.76</v>
+        <v>41.7</v>
       </c>
       <c r="C194" t="n">
-        <v>41.62</v>
+        <v>41.67</v>
       </c>
       <c r="D194" t="n">
-        <v>41.76</v>
+        <v>41.7</v>
       </c>
       <c r="E194" t="n">
-        <v>41.62</v>
+        <v>41.67</v>
       </c>
       <c r="F194" t="n">
-        <v>10000</v>
+        <v>1990</v>
       </c>
       <c r="G194" t="n">
-        <v>-435679.3114239</v>
+        <v>-563772.2303239001</v>
       </c>
       <c r="H194" t="n">
         <v>1</v>
@@ -7209,9 +7674,11 @@
         <v>0</v>
       </c>
       <c r="J194" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="K194" t="inlineStr"/>
+        <v>41.7</v>
+      </c>
+      <c r="K194" t="n">
+        <v>41.71</v>
+      </c>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7220,37 +7687,42 @@
       <c r="M194" t="n">
         <v>1</v>
       </c>
+      <c r="N194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>41.83</v>
+        <v>41.7</v>
       </c>
       <c r="C195" t="n">
-        <v>41.83</v>
+        <v>41.7</v>
       </c>
       <c r="D195" t="n">
-        <v>41.83</v>
+        <v>41.7</v>
       </c>
       <c r="E195" t="n">
-        <v>41.83</v>
+        <v>41.7</v>
       </c>
       <c r="F195" t="n">
-        <v>1957.9842</v>
+        <v>1035.2241</v>
       </c>
       <c r="G195" t="n">
-        <v>-433721.3272239</v>
+        <v>-562737.0062239001</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>41.67</v>
+      </c>
+      <c r="K195" t="n">
+        <v>41.71</v>
+      </c>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7259,37 +7731,42 @@
       <c r="M195" t="n">
         <v>1</v>
       </c>
+      <c r="N195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>41.67</v>
+        <v>41.7</v>
       </c>
       <c r="C196" t="n">
-        <v>41.67</v>
+        <v>41.82</v>
       </c>
       <c r="D196" t="n">
-        <v>41.67</v>
+        <v>41.82</v>
       </c>
       <c r="E196" t="n">
-        <v>41.67</v>
+        <v>41.7</v>
       </c>
       <c r="F196" t="n">
-        <v>20000</v>
+        <v>344.7759</v>
       </c>
       <c r="G196" t="n">
-        <v>-453721.3272239</v>
+        <v>-562392.2303239001</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="K196" t="n">
+        <v>41.71</v>
+      </c>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7298,28 +7775,29 @@
       <c r="M196" t="n">
         <v>1</v>
       </c>
+      <c r="N196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>41.73</v>
+        <v>41.82</v>
       </c>
       <c r="C197" t="n">
-        <v>41.63</v>
+        <v>41.82</v>
       </c>
       <c r="D197" t="n">
-        <v>41.73</v>
+        <v>41.82</v>
       </c>
       <c r="E197" t="n">
-        <v>41.63</v>
+        <v>41.82</v>
       </c>
       <c r="F197" t="n">
-        <v>9489.9256</v>
+        <v>300</v>
       </c>
       <c r="G197" t="n">
-        <v>-463211.2528239</v>
+        <v>-562392.2303239001</v>
       </c>
       <c r="H197" t="n">
         <v>1</v>
@@ -7328,9 +7806,11 @@
         <v>0</v>
       </c>
       <c r="J197" t="n">
-        <v>41.67</v>
-      </c>
-      <c r="K197" t="inlineStr"/>
+        <v>41.82</v>
+      </c>
+      <c r="K197" t="n">
+        <v>41.71</v>
+      </c>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7339,1654 +7819,7 @@
       <c r="M197" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>41.69</v>
-      </c>
-      <c r="C198" t="n">
-        <v>41.69</v>
-      </c>
-      <c r="D198" t="n">
-        <v>41.69</v>
-      </c>
-      <c r="E198" t="n">
-        <v>41.69</v>
-      </c>
-      <c r="F198" t="n">
-        <v>11278.3316</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-451932.9212239</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="C199" t="n">
-        <v>41.85</v>
-      </c>
-      <c r="D199" t="n">
-        <v>41.85</v>
-      </c>
-      <c r="E199" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="F199" t="n">
-        <v>6846.809</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-445086.1122239</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="n">
-        <v>41.69</v>
-      </c>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>41.91</v>
-      </c>
-      <c r="C200" t="n">
-        <v>41.91</v>
-      </c>
-      <c r="D200" t="n">
-        <v>41.91</v>
-      </c>
-      <c r="E200" t="n">
-        <v>41.91</v>
-      </c>
-      <c r="F200" t="n">
-        <v>719.3108</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-444366.8014239001</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>41.76</v>
-      </c>
-      <c r="C201" t="n">
-        <v>41.92</v>
-      </c>
-      <c r="D201" t="n">
-        <v>41.93</v>
-      </c>
-      <c r="E201" t="n">
-        <v>41.76</v>
-      </c>
-      <c r="F201" t="n">
-        <v>35993.007</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-408373.7944239001</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>41.84</v>
-      </c>
-      <c r="C202" t="n">
-        <v>41.77</v>
-      </c>
-      <c r="D202" t="n">
-        <v>41.84</v>
-      </c>
-      <c r="E202" t="n">
-        <v>41.77</v>
-      </c>
-      <c r="F202" t="n">
-        <v>28967.6842</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-437341.4786239001</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="C203" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="D203" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="E203" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="F203" t="n">
-        <v>10410.7072</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-426930.7714239001</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="C204" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="D204" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="E204" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="F204" t="n">
-        <v>26900</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-426930.7714239001</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="C205" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="D205" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="E205" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="F205" t="n">
-        <v>32848.5014</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-394082.2700239001</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="C206" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="D206" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="E206" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="F206" t="n">
-        <v>20862.7299</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-394082.2700239001</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="C207" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="D207" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="E207" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="F207" t="n">
-        <v>3065.4555</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-394082.2700239001</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>41.97</v>
-      </c>
-      <c r="C208" t="n">
-        <v>41.94</v>
-      </c>
-      <c r="D208" t="n">
-        <v>41.97</v>
-      </c>
-      <c r="E208" t="n">
-        <v>41.94</v>
-      </c>
-      <c r="F208" t="n">
-        <v>2909.2914</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-396991.5614239001</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="C209" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="D209" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="E209" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="F209" t="n">
-        <v>17.0495</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-396974.5119239</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="C210" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="D210" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="E210" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="F210" t="n">
-        <v>1159.8059</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-396974.5119239</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="C211" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="D211" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="E211" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="F211" t="n">
-        <v>1260</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-398234.5119239</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>42</v>
-      </c>
-      <c r="C212" t="n">
-        <v>42</v>
-      </c>
-      <c r="D212" t="n">
-        <v>42</v>
-      </c>
-      <c r="E212" t="n">
-        <v>42</v>
-      </c>
-      <c r="F212" t="n">
-        <v>30</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-398204.5119239</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="C213" t="n">
-        <v>41.77</v>
-      </c>
-      <c r="D213" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="E213" t="n">
-        <v>41.77</v>
-      </c>
-      <c r="F213" t="n">
-        <v>5208.1806</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-403412.6925239001</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>41.66</v>
-      </c>
-      <c r="C214" t="n">
-        <v>41.66</v>
-      </c>
-      <c r="D214" t="n">
-        <v>41.66</v>
-      </c>
-      <c r="E214" t="n">
-        <v>41.66</v>
-      </c>
-      <c r="F214" t="n">
-        <v>9832.8673</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-413245.5598239001</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>41.67</v>
-      </c>
-      <c r="C215" t="n">
-        <v>41.67</v>
-      </c>
-      <c r="D215" t="n">
-        <v>41.67</v>
-      </c>
-      <c r="E215" t="n">
-        <v>41.67</v>
-      </c>
-      <c r="F215" t="n">
-        <v>1715.4098</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-411530.1500239</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>41.66</v>
-      </c>
-      <c r="C216" t="n">
-        <v>41.66</v>
-      </c>
-      <c r="D216" t="n">
-        <v>41.66</v>
-      </c>
-      <c r="E216" t="n">
-        <v>41.66</v>
-      </c>
-      <c r="F216" t="n">
-        <v>856.9</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-412387.0500239001</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>41.77</v>
-      </c>
-      <c r="C217" t="n">
-        <v>41.77</v>
-      </c>
-      <c r="D217" t="n">
-        <v>41.77</v>
-      </c>
-      <c r="E217" t="n">
-        <v>41.77</v>
-      </c>
-      <c r="F217" t="n">
-        <v>1220.7388</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-411166.3112239001</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="C218" t="n">
-        <v>41.68</v>
-      </c>
-      <c r="D218" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="E218" t="n">
-        <v>41.68</v>
-      </c>
-      <c r="F218" t="n">
-        <v>140664.5608</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-551830.8720239</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>41.77</v>
-      </c>
-      <c r="C219" t="n">
-        <v>41.86</v>
-      </c>
-      <c r="D219" t="n">
-        <v>41.86</v>
-      </c>
-      <c r="E219" t="n">
-        <v>41.77</v>
-      </c>
-      <c r="F219" t="n">
-        <v>818.6161</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-551012.2559239001</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>41.91</v>
-      </c>
-      <c r="C220" t="n">
-        <v>41.91</v>
-      </c>
-      <c r="D220" t="n">
-        <v>41.91</v>
-      </c>
-      <c r="E220" t="n">
-        <v>41.91</v>
-      </c>
-      <c r="F220" t="n">
-        <v>1715.4098</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-549296.8461239</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>41.94</v>
-      </c>
-      <c r="C221" t="n">
-        <v>41.78</v>
-      </c>
-      <c r="D221" t="n">
-        <v>41.94</v>
-      </c>
-      <c r="E221" t="n">
-        <v>41.78</v>
-      </c>
-      <c r="F221" t="n">
-        <v>3350.7897</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-552647.6358239</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>41.86</v>
-      </c>
-      <c r="C222" t="n">
-        <v>41.86</v>
-      </c>
-      <c r="D222" t="n">
-        <v>41.86</v>
-      </c>
-      <c r="E222" t="n">
-        <v>41.86</v>
-      </c>
-      <c r="F222" t="n">
-        <v>25.7222</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-552621.9136239</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>41.86</v>
-      </c>
-      <c r="C223" t="n">
-        <v>41.86</v>
-      </c>
-      <c r="D223" t="n">
-        <v>41.86</v>
-      </c>
-      <c r="E223" t="n">
-        <v>41.86</v>
-      </c>
-      <c r="F223" t="n">
-        <v>1241.997</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-552621.9136239</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="C224" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="D224" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="E224" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="F224" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-551621.9136239</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="C225" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="D225" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="E225" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="F225" t="n">
-        <v>65</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-551621.9136239</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="C226" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="D226" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="E226" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="F226" t="n">
-        <v>23900.0887</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-551621.9136239</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="C227" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="D227" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="E227" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="F227" t="n">
-        <v>843.8883</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-551621.9136239</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>41.77</v>
-      </c>
-      <c r="C228" t="n">
-        <v>41.77</v>
-      </c>
-      <c r="D228" t="n">
-        <v>41.77</v>
-      </c>
-      <c r="E228" t="n">
-        <v>41.77</v>
-      </c>
-      <c r="F228" t="n">
-        <v>541.3131</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-552163.2267239001</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="C229" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="D229" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="E229" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="F229" t="n">
-        <v>25.7276</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-552137.4991239001</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>41.89</v>
-      </c>
-      <c r="C230" t="n">
-        <v>41.89</v>
-      </c>
-      <c r="D230" t="n">
-        <v>41.89</v>
-      </c>
-      <c r="E230" t="n">
-        <v>41.89</v>
-      </c>
-      <c r="F230" t="n">
-        <v>480.0133</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-552617.5124239001</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>41.77</v>
-      </c>
-      <c r="C231" t="n">
-        <v>41.84</v>
-      </c>
-      <c r="D231" t="n">
-        <v>41.84</v>
-      </c>
-      <c r="E231" t="n">
-        <v>41.77</v>
-      </c>
-      <c r="F231" t="n">
-        <v>5704.7937</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-558322.3061239001</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>41.69</v>
-      </c>
-      <c r="C232" t="n">
-        <v>41.69</v>
-      </c>
-      <c r="D232" t="n">
-        <v>41.69</v>
-      </c>
-      <c r="E232" t="n">
-        <v>41.69</v>
-      </c>
-      <c r="F232" t="n">
-        <v>4282.4803</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-562604.7864239002</v>
-      </c>
-      <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="n">
-        <v>41.84</v>
-      </c>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="C233" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="D233" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="E233" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="F233" t="n">
-        <v>1280</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-561324.7864239002</v>
-      </c>
-      <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="n">
-        <v>41.69</v>
-      </c>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="C234" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="D234" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="E234" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="F234" t="n">
-        <v>457.4439</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-561782.2303239001</v>
-      </c>
-      <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="C235" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="D235" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="E235" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="F235" t="n">
-        <v>938.4087</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-561782.2303239001</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="C236" t="n">
-        <v>41.67</v>
-      </c>
-      <c r="D236" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="E236" t="n">
-        <v>41.67</v>
-      </c>
-      <c r="F236" t="n">
-        <v>1990</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-563772.2303239001</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="C237" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="D237" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="E237" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="F237" t="n">
-        <v>1035.2241</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-562737.0062239001</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="C238" t="n">
-        <v>41.82</v>
-      </c>
-      <c r="D238" t="n">
-        <v>41.82</v>
-      </c>
-      <c r="E238" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="F238" t="n">
-        <v>344.7759</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-562392.2303239001</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>41.82</v>
-      </c>
-      <c r="C239" t="n">
-        <v>41.82</v>
-      </c>
-      <c r="D239" t="n">
-        <v>41.82</v>
-      </c>
-      <c r="E239" t="n">
-        <v>41.82</v>
-      </c>
-      <c r="F239" t="n">
-        <v>300</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-562392.2303239001</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
+      <c r="N197" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-13 BackTest ADA.xlsx
+++ b/BackTest/2020-01-13 BackTest ADA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N268"/>
+  <dimension ref="A1:M268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5100,18 +4708,15 @@
         <v>-102118.70856408</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5136,18 +4741,15 @@
         <v>-102118.70856408</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5172,18 +4774,15 @@
         <v>-108818.12676408</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5316,18 +4906,15 @@
         <v>-141464.15096342</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5352,18 +4939,15 @@
         <v>-144142.33296342</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5388,18 +4972,15 @@
         <v>-144142.33296342</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5424,18 +5005,15 @@
         <v>-145342.98486342</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5496,18 +5071,15 @@
         <v>-143153.1847634201</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5532,18 +5104,15 @@
         <v>-143153.1847634201</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5568,18 +5137,15 @@
         <v>-143153.1847634201</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5604,18 +5170,15 @@
         <v>-144065.0487634201</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5640,18 +5203,15 @@
         <v>-144065.0487634201</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5676,18 +5236,15 @@
         <v>-169056.6120634201</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5748,18 +5302,15 @@
         <v>-168942.7895634201</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5784,18 +5335,15 @@
         <v>-170447.4409634201</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5820,18 +5368,15 @@
         <v>-170297.0793634201</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5928,18 +5467,15 @@
         <v>-179527.49696342</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5502,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5535,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5568,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5601,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5634,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5667,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +5700,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +5733,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5766,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +5799,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5832,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +5865,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +5898,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +5931,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +5964,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +5997,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6030,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6063,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6096,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6129,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +6162,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +6195,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +6228,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6261,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6830,16 +6294,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +6327,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6902,16 +6360,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +6393,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +6426,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6459,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +6492,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +6525,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7118,16 +6558,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,16 +6591,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7190,16 +6624,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7226,16 +6657,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7262,16 +6690,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7298,16 +6723,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7334,16 +6756,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7370,16 +6789,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7406,16 +6822,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7442,16 +6855,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7478,16 +6888,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7514,16 +6921,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7550,16 +6954,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7586,16 +6987,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7622,16 +7020,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7658,16 +7053,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7694,16 +7086,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7730,16 +7119,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7766,16 +7152,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7802,16 +7185,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7838,16 +7218,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7874,16 +7251,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7910,16 +7284,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7946,16 +7317,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7982,16 +7350,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8018,16 +7383,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8054,16 +7416,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8090,16 +7449,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8126,16 +7482,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8162,16 +7515,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8196,2090 +7546,1742 @@
         <v>-424207.1701239</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="n">
-        <v>41.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>41.75</v>
+      </c>
+      <c r="C218" t="n">
+        <v>41.75</v>
+      </c>
+      <c r="D218" t="n">
+        <v>41.75</v>
+      </c>
+      <c r="E218" t="n">
+        <v>41.75</v>
+      </c>
+      <c r="F218" t="n">
+        <v>1849.9999</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-422357.1702239</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="C219" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="D219" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="E219" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="F219" t="n">
+        <v>21.5312</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-422335.6390239</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="C220" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="D220" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="E220" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="F220" t="n">
+        <v>4317.6953</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-426653.3343239</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="C221" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="D221" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="E221" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="F221" t="n">
+        <v>974.0229</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-425679.3114239</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="C222" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="D222" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="E222" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="F222" t="n">
+        <v>4214.9109</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-425679.3114239</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>41.76</v>
+      </c>
+      <c r="C223" t="n">
+        <v>41.62</v>
+      </c>
+      <c r="D223" t="n">
+        <v>41.76</v>
+      </c>
+      <c r="E223" t="n">
+        <v>41.62</v>
+      </c>
+      <c r="F223" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-435679.3114239</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>41.83</v>
+      </c>
+      <c r="C224" t="n">
+        <v>41.83</v>
+      </c>
+      <c r="D224" t="n">
+        <v>41.83</v>
+      </c>
+      <c r="E224" t="n">
+        <v>41.83</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1957.9842</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-433721.3272239</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>41.67</v>
+      </c>
+      <c r="C225" t="n">
+        <v>41.67</v>
+      </c>
+      <c r="D225" t="n">
+        <v>41.67</v>
+      </c>
+      <c r="E225" t="n">
+        <v>41.67</v>
+      </c>
+      <c r="F225" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-453721.3272239</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>41.73</v>
+      </c>
+      <c r="C226" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="D226" t="n">
+        <v>41.73</v>
+      </c>
+      <c r="E226" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="F226" t="n">
+        <v>9489.9256</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-463211.2528239</v>
+      </c>
+      <c r="H226" t="n">
+        <v>1</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>41.69</v>
+      </c>
+      <c r="C227" t="n">
+        <v>41.69</v>
+      </c>
+      <c r="D227" t="n">
+        <v>41.69</v>
+      </c>
+      <c r="E227" t="n">
+        <v>41.69</v>
+      </c>
+      <c r="F227" t="n">
+        <v>11278.3316</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-451932.9212239</v>
+      </c>
+      <c r="H227" t="n">
+        <v>1</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="C228" t="n">
+        <v>41.85</v>
+      </c>
+      <c r="D228" t="n">
+        <v>41.85</v>
+      </c>
+      <c r="E228" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="F228" t="n">
+        <v>6846.809</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-445086.1122239</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>41.91</v>
+      </c>
+      <c r="C229" t="n">
+        <v>41.91</v>
+      </c>
+      <c r="D229" t="n">
+        <v>41.91</v>
+      </c>
+      <c r="E229" t="n">
+        <v>41.91</v>
+      </c>
+      <c r="F229" t="n">
+        <v>719.3108</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-444366.8014239001</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>41.76</v>
+      </c>
+      <c r="C230" t="n">
+        <v>41.92</v>
+      </c>
+      <c r="D230" t="n">
+        <v>41.93</v>
+      </c>
+      <c r="E230" t="n">
+        <v>41.76</v>
+      </c>
+      <c r="F230" t="n">
+        <v>35993.007</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-408373.7944239001</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>41.84</v>
+      </c>
+      <c r="C231" t="n">
+        <v>41.77</v>
+      </c>
+      <c r="D231" t="n">
+        <v>41.84</v>
+      </c>
+      <c r="E231" t="n">
+        <v>41.77</v>
+      </c>
+      <c r="F231" t="n">
+        <v>28967.6842</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-437341.4786239001</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="C232" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="D232" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="E232" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="F232" t="n">
+        <v>10410.7072</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-426930.7714239001</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="C233" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="D233" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="E233" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="F233" t="n">
+        <v>26900</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-426930.7714239001</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="C234" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="D234" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="E234" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="F234" t="n">
+        <v>32848.5014</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-394082.2700239001</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="C235" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="D235" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="E235" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="F235" t="n">
+        <v>20862.7299</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-394082.2700239001</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="C236" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="D236" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="E236" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="F236" t="n">
+        <v>3065.4555</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-394082.2700239001</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>41.97</v>
+      </c>
+      <c r="C237" t="n">
+        <v>41.94</v>
+      </c>
+      <c r="D237" t="n">
+        <v>41.97</v>
+      </c>
+      <c r="E237" t="n">
+        <v>41.94</v>
+      </c>
+      <c r="F237" t="n">
+        <v>2909.2914</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-396991.5614239001</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="C238" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="D238" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="E238" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="F238" t="n">
+        <v>17.0495</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-396974.5119239</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="C239" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="D239" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="E239" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="F239" t="n">
+        <v>1159.8059</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-396974.5119239</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="C240" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="D240" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="E240" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="F240" t="n">
+        <v>1260</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-398234.5119239</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>42</v>
+      </c>
+      <c r="C241" t="n">
+        <v>42</v>
+      </c>
+      <c r="D241" t="n">
+        <v>42</v>
+      </c>
+      <c r="E241" t="n">
+        <v>42</v>
+      </c>
+      <c r="F241" t="n">
+        <v>30</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-398204.5119239</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="C242" t="n">
+        <v>41.77</v>
+      </c>
+      <c r="D242" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="E242" t="n">
+        <v>41.77</v>
+      </c>
+      <c r="F242" t="n">
+        <v>5208.1806</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-403412.6925239001</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>41.66</v>
+      </c>
+      <c r="C243" t="n">
+        <v>41.66</v>
+      </c>
+      <c r="D243" t="n">
+        <v>41.66</v>
+      </c>
+      <c r="E243" t="n">
+        <v>41.66</v>
+      </c>
+      <c r="F243" t="n">
+        <v>9832.8673</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-413245.5598239001</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>41.67</v>
+      </c>
+      <c r="C244" t="n">
+        <v>41.67</v>
+      </c>
+      <c r="D244" t="n">
+        <v>41.67</v>
+      </c>
+      <c r="E244" t="n">
+        <v>41.67</v>
+      </c>
+      <c r="F244" t="n">
+        <v>1715.4098</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-411530.1500239</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>41.66</v>
+      </c>
+      <c r="C245" t="n">
+        <v>41.66</v>
+      </c>
+      <c r="D245" t="n">
+        <v>41.66</v>
+      </c>
+      <c r="E245" t="n">
+        <v>41.66</v>
+      </c>
+      <c r="F245" t="n">
+        <v>856.9</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-412387.0500239001</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>41.77</v>
+      </c>
+      <c r="C246" t="n">
+        <v>41.77</v>
+      </c>
+      <c r="D246" t="n">
+        <v>41.77</v>
+      </c>
+      <c r="E246" t="n">
+        <v>41.77</v>
+      </c>
+      <c r="F246" t="n">
+        <v>1220.7388</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-411166.3112239001</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>41.74</v>
+      </c>
+      <c r="C247" t="n">
+        <v>41.68</v>
+      </c>
+      <c r="D247" t="n">
+        <v>41.74</v>
+      </c>
+      <c r="E247" t="n">
+        <v>41.68</v>
+      </c>
+      <c r="F247" t="n">
+        <v>140664.5608</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-551830.8720239</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>41.77</v>
+      </c>
+      <c r="C248" t="n">
+        <v>41.86</v>
+      </c>
+      <c r="D248" t="n">
+        <v>41.86</v>
+      </c>
+      <c r="E248" t="n">
+        <v>41.77</v>
+      </c>
+      <c r="F248" t="n">
+        <v>818.6161</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-551012.2559239001</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>41.91</v>
+      </c>
+      <c r="C249" t="n">
+        <v>41.91</v>
+      </c>
+      <c r="D249" t="n">
+        <v>41.91</v>
+      </c>
+      <c r="E249" t="n">
+        <v>41.91</v>
+      </c>
+      <c r="F249" t="n">
+        <v>1715.4098</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-549296.8461239</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>41.94</v>
+      </c>
+      <c r="C250" t="n">
+        <v>41.78</v>
+      </c>
+      <c r="D250" t="n">
+        <v>41.94</v>
+      </c>
+      <c r="E250" t="n">
+        <v>41.78</v>
+      </c>
+      <c r="F250" t="n">
+        <v>3350.7897</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-552647.6358239</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>41.86</v>
+      </c>
+      <c r="C251" t="n">
+        <v>41.86</v>
+      </c>
+      <c r="D251" t="n">
+        <v>41.86</v>
+      </c>
+      <c r="E251" t="n">
+        <v>41.86</v>
+      </c>
+      <c r="F251" t="n">
+        <v>25.7222</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-552621.9136239</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>41.86</v>
+      </c>
+      <c r="C252" t="n">
+        <v>41.86</v>
+      </c>
+      <c r="D252" t="n">
+        <v>41.86</v>
+      </c>
+      <c r="E252" t="n">
+        <v>41.86</v>
+      </c>
+      <c r="F252" t="n">
+        <v>1241.997</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-552621.9136239</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="C253" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="D253" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="E253" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="F253" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-551621.9136239</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="C254" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="D254" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="E254" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="F254" t="n">
+        <v>65</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-551621.9136239</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="C255" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="D255" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="E255" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="F255" t="n">
+        <v>23900.0887</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-551621.9136239</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="C256" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="D256" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="E256" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="F256" t="n">
+        <v>843.8883</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-551621.9136239</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>41.77</v>
+      </c>
+      <c r="C257" t="n">
+        <v>41.77</v>
+      </c>
+      <c r="D257" t="n">
+        <v>41.77</v>
+      </c>
+      <c r="E257" t="n">
+        <v>41.77</v>
+      </c>
+      <c r="F257" t="n">
+        <v>541.3131</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-552163.2267239001</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="C258" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="D258" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="E258" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="F258" t="n">
+        <v>25.7276</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-552137.4991239001</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>41.89</v>
+      </c>
+      <c r="C259" t="n">
+        <v>41.89</v>
+      </c>
+      <c r="D259" t="n">
+        <v>41.89</v>
+      </c>
+      <c r="E259" t="n">
+        <v>41.89</v>
+      </c>
+      <c r="F259" t="n">
+        <v>480.0133</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-552617.5124239001</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>41.77</v>
+      </c>
+      <c r="C260" t="n">
+        <v>41.84</v>
+      </c>
+      <c r="D260" t="n">
+        <v>41.84</v>
+      </c>
+      <c r="E260" t="n">
+        <v>41.77</v>
+      </c>
+      <c r="F260" t="n">
+        <v>5704.7937</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-558322.3061239001</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>41.69</v>
+      </c>
+      <c r="C261" t="n">
+        <v>41.69</v>
+      </c>
+      <c r="D261" t="n">
+        <v>41.69</v>
+      </c>
+      <c r="E261" t="n">
+        <v>41.69</v>
+      </c>
+      <c r="F261" t="n">
+        <v>4282.4803</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-562604.7864239002</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="C262" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="D262" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="E262" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="F262" t="n">
+        <v>1280</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-561324.7864239002</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="C263" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="D263" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="E263" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="F263" t="n">
+        <v>457.4439</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-561782.2303239001</v>
+      </c>
+      <c r="H263" t="n">
+        <v>2</v>
+      </c>
+      <c r="I263" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="J263" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="C264" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="D264" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="E264" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="F264" t="n">
+        <v>938.4087</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-561782.2303239001</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="C265" t="n">
+        <v>41.67</v>
+      </c>
+      <c r="D265" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="E265" t="n">
+        <v>41.67</v>
+      </c>
+      <c r="F265" t="n">
+        <v>1990</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-563772.2303239001</v>
+      </c>
+      <c r="H265" t="n">
+        <v>2</v>
+      </c>
+      <c r="I265" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="J265" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="K265" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>41.75</v>
-      </c>
-      <c r="C218" t="n">
-        <v>41.75</v>
-      </c>
-      <c r="D218" t="n">
-        <v>41.75</v>
-      </c>
-      <c r="E218" t="n">
-        <v>41.75</v>
-      </c>
-      <c r="F218" t="n">
-        <v>1849.9999</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-422357.1702239</v>
-      </c>
-      <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="n">
-        <v>41.71</v>
-      </c>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="C266" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="D266" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="E266" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="F266" t="n">
+        <v>1035.2241</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-562737.0062239001</v>
+      </c>
+      <c r="H266" t="n">
+        <v>2</v>
+      </c>
+      <c r="I266" t="n">
+        <v>41.67</v>
+      </c>
+      <c r="J266" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="C267" t="n">
+        <v>41.82</v>
+      </c>
+      <c r="D267" t="n">
+        <v>41.82</v>
+      </c>
+      <c r="E267" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="F267" t="n">
+        <v>344.7759</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-562392.2303239001</v>
+      </c>
+      <c r="H267" t="n">
+        <v>2</v>
+      </c>
+      <c r="I267" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="J267" t="n">
         <v>41.8</v>
       </c>
-      <c r="C219" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="D219" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="E219" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="F219" t="n">
-        <v>21.5312</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-422335.6390239</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
+      <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>41.72</v>
-      </c>
-      <c r="C220" t="n">
-        <v>41.72</v>
-      </c>
-      <c r="D220" t="n">
-        <v>41.72</v>
-      </c>
-      <c r="E220" t="n">
-        <v>41.72</v>
-      </c>
-      <c r="F220" t="n">
-        <v>4317.6953</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-426653.3343239</v>
-      </c>
-      <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="n">
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>41.82</v>
+      </c>
+      <c r="C268" t="n">
+        <v>41.82</v>
+      </c>
+      <c r="D268" t="n">
+        <v>41.82</v>
+      </c>
+      <c r="E268" t="n">
+        <v>41.82</v>
+      </c>
+      <c r="F268" t="n">
+        <v>300</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-562392.2303239001</v>
+      </c>
+      <c r="H268" t="n">
+        <v>2</v>
+      </c>
+      <c r="I268" t="n">
+        <v>41.82</v>
+      </c>
+      <c r="J268" t="n">
         <v>41.8</v>
       </c>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
+      <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="C221" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="D221" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="E221" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="F221" t="n">
-        <v>974.0229</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-425679.3114239</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="C222" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="D222" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="E222" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="F222" t="n">
-        <v>4214.9109</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-425679.3114239</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>41.76</v>
-      </c>
-      <c r="C223" t="n">
-        <v>41.62</v>
-      </c>
-      <c r="D223" t="n">
-        <v>41.76</v>
-      </c>
-      <c r="E223" t="n">
-        <v>41.62</v>
-      </c>
-      <c r="F223" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-435679.3114239</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>41.83</v>
-      </c>
-      <c r="C224" t="n">
-        <v>41.83</v>
-      </c>
-      <c r="D224" t="n">
-        <v>41.83</v>
-      </c>
-      <c r="E224" t="n">
-        <v>41.83</v>
-      </c>
-      <c r="F224" t="n">
-        <v>1957.9842</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-433721.3272239</v>
-      </c>
-      <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="n">
-        <v>41.62</v>
-      </c>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>41.67</v>
-      </c>
-      <c r="C225" t="n">
-        <v>41.67</v>
-      </c>
-      <c r="D225" t="n">
-        <v>41.67</v>
-      </c>
-      <c r="E225" t="n">
-        <v>41.67</v>
-      </c>
-      <c r="F225" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-453721.3272239</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>41.73</v>
-      </c>
-      <c r="C226" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="D226" t="n">
-        <v>41.73</v>
-      </c>
-      <c r="E226" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="F226" t="n">
-        <v>9489.9256</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-463211.2528239</v>
-      </c>
-      <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="n">
-        <v>41.67</v>
-      </c>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>41.69</v>
-      </c>
-      <c r="C227" t="n">
-        <v>41.69</v>
-      </c>
-      <c r="D227" t="n">
-        <v>41.69</v>
-      </c>
-      <c r="E227" t="n">
-        <v>41.69</v>
-      </c>
-      <c r="F227" t="n">
-        <v>11278.3316</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-451932.9212239</v>
-      </c>
-      <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="C228" t="n">
-        <v>41.85</v>
-      </c>
-      <c r="D228" t="n">
-        <v>41.85</v>
-      </c>
-      <c r="E228" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="F228" t="n">
-        <v>6846.809</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-445086.1122239</v>
-      </c>
-      <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="n">
-        <v>41.69</v>
-      </c>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>41.91</v>
-      </c>
-      <c r="C229" t="n">
-        <v>41.91</v>
-      </c>
-      <c r="D229" t="n">
-        <v>41.91</v>
-      </c>
-      <c r="E229" t="n">
-        <v>41.91</v>
-      </c>
-      <c r="F229" t="n">
-        <v>719.3108</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-444366.8014239001</v>
-      </c>
-      <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="n">
-        <v>41.85</v>
-      </c>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>41.76</v>
-      </c>
-      <c r="C230" t="n">
-        <v>41.92</v>
-      </c>
-      <c r="D230" t="n">
-        <v>41.93</v>
-      </c>
-      <c r="E230" t="n">
-        <v>41.76</v>
-      </c>
-      <c r="F230" t="n">
-        <v>35993.007</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-408373.7944239001</v>
-      </c>
-      <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="n">
-        <v>41.91</v>
-      </c>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>41.84</v>
-      </c>
-      <c r="C231" t="n">
-        <v>41.77</v>
-      </c>
-      <c r="D231" t="n">
-        <v>41.84</v>
-      </c>
-      <c r="E231" t="n">
-        <v>41.77</v>
-      </c>
-      <c r="F231" t="n">
-        <v>28967.6842</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-437341.4786239001</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="C232" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="D232" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="E232" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="F232" t="n">
-        <v>10410.7072</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-426930.7714239001</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="C233" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="D233" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="E233" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="F233" t="n">
-        <v>26900</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-426930.7714239001</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="C234" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="D234" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="E234" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="F234" t="n">
-        <v>32848.5014</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-394082.2700239001</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="C235" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="D235" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="E235" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="F235" t="n">
-        <v>20862.7299</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-394082.2700239001</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="C236" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="D236" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="E236" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="F236" t="n">
-        <v>3065.4555</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-394082.2700239001</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>41.97</v>
-      </c>
-      <c r="C237" t="n">
-        <v>41.94</v>
-      </c>
-      <c r="D237" t="n">
-        <v>41.97</v>
-      </c>
-      <c r="E237" t="n">
-        <v>41.94</v>
-      </c>
-      <c r="F237" t="n">
-        <v>2909.2914</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-396991.5614239001</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="C238" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="D238" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="E238" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="F238" t="n">
-        <v>17.0495</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-396974.5119239</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="C239" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="D239" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="E239" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="F239" t="n">
-        <v>1159.8059</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-396974.5119239</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="C240" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="D240" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="E240" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="F240" t="n">
-        <v>1260</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-398234.5119239</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>42</v>
-      </c>
-      <c r="C241" t="n">
-        <v>42</v>
-      </c>
-      <c r="D241" t="n">
-        <v>42</v>
-      </c>
-      <c r="E241" t="n">
-        <v>42</v>
-      </c>
-      <c r="F241" t="n">
-        <v>30</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-398204.5119239</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="C242" t="n">
-        <v>41.77</v>
-      </c>
-      <c r="D242" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="E242" t="n">
-        <v>41.77</v>
-      </c>
-      <c r="F242" t="n">
-        <v>5208.1806</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-403412.6925239001</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>41.66</v>
-      </c>
-      <c r="C243" t="n">
-        <v>41.66</v>
-      </c>
-      <c r="D243" t="n">
-        <v>41.66</v>
-      </c>
-      <c r="E243" t="n">
-        <v>41.66</v>
-      </c>
-      <c r="F243" t="n">
-        <v>9832.8673</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-413245.5598239001</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>41.67</v>
-      </c>
-      <c r="C244" t="n">
-        <v>41.67</v>
-      </c>
-      <c r="D244" t="n">
-        <v>41.67</v>
-      </c>
-      <c r="E244" t="n">
-        <v>41.67</v>
-      </c>
-      <c r="F244" t="n">
-        <v>1715.4098</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-411530.1500239</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>41.66</v>
-      </c>
-      <c r="C245" t="n">
-        <v>41.66</v>
-      </c>
-      <c r="D245" t="n">
-        <v>41.66</v>
-      </c>
-      <c r="E245" t="n">
-        <v>41.66</v>
-      </c>
-      <c r="F245" t="n">
-        <v>856.9</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-412387.0500239001</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>41.77</v>
-      </c>
-      <c r="C246" t="n">
-        <v>41.77</v>
-      </c>
-      <c r="D246" t="n">
-        <v>41.77</v>
-      </c>
-      <c r="E246" t="n">
-        <v>41.77</v>
-      </c>
-      <c r="F246" t="n">
-        <v>1220.7388</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-411166.3112239001</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="C247" t="n">
-        <v>41.68</v>
-      </c>
-      <c r="D247" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="E247" t="n">
-        <v>41.68</v>
-      </c>
-      <c r="F247" t="n">
-        <v>140664.5608</v>
-      </c>
-      <c r="G247" t="n">
-        <v>-551830.8720239</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>41.77</v>
-      </c>
-      <c r="C248" t="n">
-        <v>41.86</v>
-      </c>
-      <c r="D248" t="n">
-        <v>41.86</v>
-      </c>
-      <c r="E248" t="n">
-        <v>41.77</v>
-      </c>
-      <c r="F248" t="n">
-        <v>818.6161</v>
-      </c>
-      <c r="G248" t="n">
-        <v>-551012.2559239001</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>41.91</v>
-      </c>
-      <c r="C249" t="n">
-        <v>41.91</v>
-      </c>
-      <c r="D249" t="n">
-        <v>41.91</v>
-      </c>
-      <c r="E249" t="n">
-        <v>41.91</v>
-      </c>
-      <c r="F249" t="n">
-        <v>1715.4098</v>
-      </c>
-      <c r="G249" t="n">
-        <v>-549296.8461239</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>41.94</v>
-      </c>
-      <c r="C250" t="n">
-        <v>41.78</v>
-      </c>
-      <c r="D250" t="n">
-        <v>41.94</v>
-      </c>
-      <c r="E250" t="n">
-        <v>41.78</v>
-      </c>
-      <c r="F250" t="n">
-        <v>3350.7897</v>
-      </c>
-      <c r="G250" t="n">
-        <v>-552647.6358239</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>41.86</v>
-      </c>
-      <c r="C251" t="n">
-        <v>41.86</v>
-      </c>
-      <c r="D251" t="n">
-        <v>41.86</v>
-      </c>
-      <c r="E251" t="n">
-        <v>41.86</v>
-      </c>
-      <c r="F251" t="n">
-        <v>25.7222</v>
-      </c>
-      <c r="G251" t="n">
-        <v>-552621.9136239</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>41.86</v>
-      </c>
-      <c r="C252" t="n">
-        <v>41.86</v>
-      </c>
-      <c r="D252" t="n">
-        <v>41.86</v>
-      </c>
-      <c r="E252" t="n">
-        <v>41.86</v>
-      </c>
-      <c r="F252" t="n">
-        <v>1241.997</v>
-      </c>
-      <c r="G252" t="n">
-        <v>-552621.9136239</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="C253" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="D253" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="E253" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="F253" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G253" t="n">
-        <v>-551621.9136239</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="C254" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="D254" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="E254" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="F254" t="n">
-        <v>65</v>
-      </c>
-      <c r="G254" t="n">
-        <v>-551621.9136239</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="C255" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="D255" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="E255" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="F255" t="n">
-        <v>23900.0887</v>
-      </c>
-      <c r="G255" t="n">
-        <v>-551621.9136239</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="C256" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="D256" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="E256" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="F256" t="n">
-        <v>843.8883</v>
-      </c>
-      <c r="G256" t="n">
-        <v>-551621.9136239</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>41.77</v>
-      </c>
-      <c r="C257" t="n">
-        <v>41.77</v>
-      </c>
-      <c r="D257" t="n">
-        <v>41.77</v>
-      </c>
-      <c r="E257" t="n">
-        <v>41.77</v>
-      </c>
-      <c r="F257" t="n">
-        <v>541.3131</v>
-      </c>
-      <c r="G257" t="n">
-        <v>-552163.2267239001</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="C258" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="D258" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="E258" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="F258" t="n">
-        <v>25.7276</v>
-      </c>
-      <c r="G258" t="n">
-        <v>-552137.4991239001</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>41.89</v>
-      </c>
-      <c r="C259" t="n">
-        <v>41.89</v>
-      </c>
-      <c r="D259" t="n">
-        <v>41.89</v>
-      </c>
-      <c r="E259" t="n">
-        <v>41.89</v>
-      </c>
-      <c r="F259" t="n">
-        <v>480.0133</v>
-      </c>
-      <c r="G259" t="n">
-        <v>-552617.5124239001</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>41.77</v>
-      </c>
-      <c r="C260" t="n">
-        <v>41.84</v>
-      </c>
-      <c r="D260" t="n">
-        <v>41.84</v>
-      </c>
-      <c r="E260" t="n">
-        <v>41.77</v>
-      </c>
-      <c r="F260" t="n">
-        <v>5704.7937</v>
-      </c>
-      <c r="G260" t="n">
-        <v>-558322.3061239001</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>41.69</v>
-      </c>
-      <c r="C261" t="n">
-        <v>41.69</v>
-      </c>
-      <c r="D261" t="n">
-        <v>41.69</v>
-      </c>
-      <c r="E261" t="n">
-        <v>41.69</v>
-      </c>
-      <c r="F261" t="n">
-        <v>4282.4803</v>
-      </c>
-      <c r="G261" t="n">
-        <v>-562604.7864239002</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="C262" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="D262" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="E262" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="F262" t="n">
-        <v>1280</v>
-      </c>
-      <c r="G262" t="n">
-        <v>-561324.7864239002</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="C263" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="D263" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="E263" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="F263" t="n">
-        <v>457.4439</v>
-      </c>
-      <c r="G263" t="n">
-        <v>-561782.2303239001</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="C264" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="D264" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="E264" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="F264" t="n">
-        <v>938.4087</v>
-      </c>
-      <c r="G264" t="n">
-        <v>-561782.2303239001</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="C265" t="n">
-        <v>41.67</v>
-      </c>
-      <c r="D265" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="E265" t="n">
-        <v>41.67</v>
-      </c>
-      <c r="F265" t="n">
-        <v>1990</v>
-      </c>
-      <c r="G265" t="n">
-        <v>-563772.2303239001</v>
-      </c>
-      <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
-      <c r="J265" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="C266" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="D266" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="E266" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="F266" t="n">
-        <v>1035.2241</v>
-      </c>
-      <c r="G266" t="n">
-        <v>-562737.0062239001</v>
-      </c>
-      <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
-      <c r="J266" t="n">
-        <v>41.67</v>
-      </c>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="C267" t="n">
-        <v>41.82</v>
-      </c>
-      <c r="D267" t="n">
-        <v>41.82</v>
-      </c>
-      <c r="E267" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="F267" t="n">
-        <v>344.7759</v>
-      </c>
-      <c r="G267" t="n">
-        <v>-562392.2303239001</v>
-      </c>
-      <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
-      <c r="J267" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>41.82</v>
-      </c>
-      <c r="C268" t="n">
-        <v>41.82</v>
-      </c>
-      <c r="D268" t="n">
-        <v>41.82</v>
-      </c>
-      <c r="E268" t="n">
-        <v>41.82</v>
-      </c>
-      <c r="F268" t="n">
-        <v>300</v>
-      </c>
-      <c r="G268" t="n">
-        <v>-562392.2303239001</v>
-      </c>
-      <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
-      <c r="J268" t="n">
-        <v>41.82</v>
-      </c>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest ADA.xlsx
+++ b/BackTest/2020-01-13 BackTest ADA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>74918.15695448001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>112718.56105448</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>112718.56105448</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>115748.97705426</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>115748.97705426</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>75748.97705426002</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>75971.40705426001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>75971.40705426001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>80348.42015426001</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>79471.15705426001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>77735.26115426001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>78184.44475426001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>40358.19375426001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>40358.19375426001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>40358.19375426001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-38057.52974573998</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-37685.82974573998</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-38057.52974573998</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-63011.84064573998</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-60826.04834573998</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-61195.84834573999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-59065.84834573999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-59065.84834573999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-42251.58531664999</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-26051.58531664999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-43024.26461664999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-36584.90056532999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-37229.11936532999</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-37508.63836532999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-39822.62766532999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-39822.62766532999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-39822.62766532999</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-39822.62766532999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-102118.70856408</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-102118.70856408</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-108818.12676408</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-141464.15096342</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-144142.33296342</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-144142.33296342</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-145342.98486342</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-143153.1847634201</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-143153.1847634201</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-143153.1847634201</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-144065.0487634201</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-144065.0487634201</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-169056.6120634201</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-168942.7895634201</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-168942.7895634201</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-170447.4409634201</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-170297.0793634201</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-178372.6259634201</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-178239.52166342</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-179527.49696342</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-184327.49696342</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-463211.2528239</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-451932.9212239</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8536,11 +8536,17 @@
         <v>-551830.8720239</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>41.77</v>
+      </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8573,7 +8579,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8606,7 +8616,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8639,7 +8653,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8672,7 +8690,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8705,7 +8727,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8738,7 +8764,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8771,7 +8801,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8800,11 +8834,17 @@
         <v>-551621.9136239</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>41.9</v>
+      </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8833,11 +8873,17 @@
         <v>-551621.9136239</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>41.9</v>
+      </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8870,7 +8916,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8899,11 +8949,17 @@
         <v>-552137.4991239001</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>41.77</v>
+      </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8932,11 +8988,17 @@
         <v>-552617.5124239001</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>41.9</v>
+      </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8969,7 +9031,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9002,7 +9068,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9031,11 +9101,17 @@
         <v>-561324.7864239002</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>41.69</v>
+      </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9064,15 +9140,15 @@
         <v>-561782.2303239001</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
-      </c>
-      <c r="I263" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="J263" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K263" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9101,15 +9177,15 @@
         <v>-561782.2303239001</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>41.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L264" t="n">
@@ -9140,17 +9216,15 @@
         <v>-563772.2303239001</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I265" t="n">
         <v>41.7</v>
       </c>
-      <c r="J265" t="n">
-        <v>41.8</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L265" t="n">
@@ -9181,14 +9255,12 @@
         <v>-562737.0062239001</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I266" t="n">
         <v>41.67</v>
       </c>
-      <c r="J266" t="n">
-        <v>41.8</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9222,14 +9294,12 @@
         <v>-562392.2303239001</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I267" t="n">
         <v>41.7</v>
       </c>
-      <c r="J267" t="n">
-        <v>41.8</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9263,14 +9333,12 @@
         <v>-562392.2303239001</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I268" t="n">
         <v>41.82</v>
       </c>
-      <c r="J268" t="n">
-        <v>41.8</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9282,6 +9350,6 @@
       <c r="M268" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest ADA.xlsx
+++ b/BackTest/2020-01-13 BackTest ADA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>74918.15695448001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>112718.56105448</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>112718.56105448</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>115748.97705426</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>115748.97705426</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>75748.97705426002</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>75971.40705426001</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>75971.40705426001</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>80348.42015426001</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>79471.15705426001</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>77735.26115426001</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>78184.44475426001</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>40358.19375426001</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>40358.19375426001</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>40358.19375426001</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-38057.52974573998</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-37685.82974573998</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-38057.52974573998</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-63011.84064573998</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-60826.04834573998</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-61195.84834573999</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-59065.84834573999</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-59065.84834573999</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-42251.58531664999</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-26051.58531664999</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-43024.26461664999</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-36584.90056532999</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-37229.11936532999</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-37508.63836532999</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-39822.62766532999</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-39822.62766532999</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-39822.62766532999</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-39822.62766532999</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-109113.94676408</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-101417.72156408</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-102118.70856408</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-102118.70856408</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-108818.12676408</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-118279.06216408</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-116409.15456342</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-141464.15096342</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-141464.15096342</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-144142.33296342</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-144142.33296342</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-145342.98486342</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-143986.48476342</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-143153.1847634201</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-144065.0487634201</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-169056.6120634201</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-170447.4409634201</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-170297.0793634201</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-178372.6259634201</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-178239.52166342</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-179527.49696342</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-184327.49696342</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-402463.6556238999</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-408237.8998239</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-423274.9923239</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8074,11 +8074,17 @@
         <v>-426930.7714239001</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>41.79</v>
+      </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8111,7 +8117,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8144,7 +8154,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8177,7 +8191,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8210,7 +8228,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8243,7 +8265,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8276,7 +8302,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8309,7 +8339,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8342,7 +8376,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8375,7 +8413,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8408,7 +8450,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8441,7 +8487,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8474,7 +8524,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8507,7 +8561,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8536,15 +8594,13 @@
         <v>-551830.8720239</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>41.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L247" t="n">
@@ -8834,11 +8890,9 @@
         <v>-551621.9136239</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>41.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
@@ -8873,11 +8927,9 @@
         <v>-551621.9136239</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>41.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
@@ -8949,11 +9001,9 @@
         <v>-552137.4991239001</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>41.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
@@ -8988,11 +9038,9 @@
         <v>-552617.5124239001</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>41.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
@@ -9101,11 +9149,9 @@
         <v>-561324.7864239002</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>41.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
@@ -9177,11 +9223,9 @@
         <v>-561782.2303239001</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>41.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
@@ -9216,11 +9260,9 @@
         <v>-563772.2303239001</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>41.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
@@ -9255,11 +9297,9 @@
         <v>-562737.0062239001</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>41.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
@@ -9294,11 +9334,9 @@
         <v>-562392.2303239001</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>41.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
@@ -9333,11 +9371,9 @@
         <v>-562392.2303239001</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>41.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
@@ -9350,6 +9386,6 @@
       <c r="M268" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest ADA.xlsx
+++ b/BackTest/2020-01-13 BackTest ADA.xlsx
@@ -451,7 +451,7 @@
         <v>74918.15695448001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>74918.15695448001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>112718.56105448</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>112718.56105448</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>112718.56105448</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>112718.56105448</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>112269.64085448</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-109113.94676408</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-101417.72156408</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-102118.70856408</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-102118.70856408</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-108818.12676408</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-118279.06216408</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-116409.15456342</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-141464.15096342</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-141464.15096342</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-144142.33296342</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-144142.33296342</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-145342.98486342</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-143986.48476342</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-143153.1847634201</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-143153.1847634201</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-144065.0487634201</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-168942.7895634201</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-168942.7895634201</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-402463.6556238999</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-408237.8998239</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-423274.9923239</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8074,17 +8074,11 @@
         <v>-426930.7714239001</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>41.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8117,11 +8111,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8154,11 +8144,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8191,11 +8177,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8228,11 +8210,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8265,11 +8243,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8302,11 +8276,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8339,11 +8309,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8376,11 +8342,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8413,11 +8375,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8450,11 +8408,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8487,11 +8441,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8524,11 +8474,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8561,11 +8507,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8598,11 +8540,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8635,11 +8573,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8672,11 +8606,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8709,11 +8639,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8746,11 +8672,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8783,11 +8705,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8820,11 +8738,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8857,11 +8771,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8894,11 +8804,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8931,11 +8837,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8968,11 +8870,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9005,11 +8903,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9042,11 +8936,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9079,11 +8969,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9116,11 +9002,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9153,11 +9035,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9190,11 +9068,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9227,11 +9101,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9264,11 +9134,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9297,15 +9163,15 @@
         <v>-562737.0062239001</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>41.67</v>
+      </c>
+      <c r="J266" t="n">
+        <v>41.67</v>
+      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9334,13 +9200,17 @@
         <v>-562392.2303239001</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="J267" t="n">
+        <v>41.67</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L267" t="n">
@@ -9371,13 +9241,17 @@
         <v>-562392.2303239001</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>41.82</v>
+      </c>
+      <c r="J268" t="n">
+        <v>41.67</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L268" t="n">

--- a/BackTest/2020-01-13 BackTest ADA.xlsx
+++ b/BackTest/2020-01-13 BackTest ADA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M268"/>
+  <dimension ref="A1:L268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>5012.74</v>
       </c>
       <c r="G2" t="n">
-        <v>74918.15695448001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>3587.3549</v>
       </c>
       <c r="G3" t="n">
-        <v>74918.15695448001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>37800.4041</v>
       </c>
       <c r="G4" t="n">
-        <v>112718.56105448</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>7604.8729</v>
       </c>
       <c r="G5" t="n">
-        <v>112718.56105448</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>26362.9088</v>
       </c>
       <c r="G6" t="n">
-        <v>112718.56105448</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>4764.6775</v>
       </c>
       <c r="G7" t="n">
-        <v>112718.56105448</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>448.9202</v>
       </c>
       <c r="G8" t="n">
-        <v>112269.64085448</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>7498.5715</v>
       </c>
       <c r="G9" t="n">
-        <v>104771.06935448</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>780</v>
       </c>
       <c r="G10" t="n">
-        <v>104771.06935448</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>11990.78469978</v>
       </c>
       <c r="G11" t="n">
-        <v>116761.85405426</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>1012.877</v>
       </c>
       <c r="G12" t="n">
-        <v>115748.97705426</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>2732.9646</v>
       </c>
       <c r="G13" t="n">
-        <v>115748.97705426</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>890</v>
       </c>
       <c r="G14" t="n">
-        <v>115748.97705426</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>40000</v>
       </c>
       <c r="G15" t="n">
-        <v>75748.97705426002</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>222.43</v>
       </c>
       <c r="G16" t="n">
-        <v>75971.40705426001</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>6.9809</v>
       </c>
       <c r="G17" t="n">
-        <v>75971.40705426001</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>4377.0131</v>
       </c>
       <c r="G18" t="n">
-        <v>80348.42015426001</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>877.2631</v>
       </c>
       <c r="G19" t="n">
-        <v>79471.15705426001</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>1735.8959</v>
       </c>
       <c r="G20" t="n">
-        <v>77735.26115426001</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>449.1836</v>
       </c>
       <c r="G21" t="n">
-        <v>78184.44475426001</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>37826.251</v>
       </c>
       <c r="G22" t="n">
-        <v>40358.19375426001</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>83111.48209999999</v>
       </c>
       <c r="G23" t="n">
-        <v>40358.19375426001</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>7786.7149</v>
       </c>
       <c r="G24" t="n">
-        <v>40358.19375426001</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>78415.72349999999</v>
       </c>
       <c r="G25" t="n">
-        <v>-38057.52974573998</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>371.7</v>
       </c>
       <c r="G26" t="n">
-        <v>-37685.82974573998</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>371.7</v>
       </c>
       <c r="G27" t="n">
-        <v>-38057.52974573998</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>24954.3109</v>
       </c>
       <c r="G28" t="n">
-        <v>-63011.84064573998</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>2185.7923</v>
       </c>
       <c r="G29" t="n">
-        <v>-60826.04834573998</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>369.8</v>
       </c>
       <c r="G30" t="n">
-        <v>-61195.84834573999</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>2130</v>
       </c>
       <c r="G31" t="n">
-        <v>-59065.84834573999</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>808.2424</v>
       </c>
       <c r="G32" t="n">
-        <v>-59065.84834573999</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>22017.13298827</v>
       </c>
       <c r="G33" t="n">
-        <v>-37048.71535746998</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>4495.59305918</v>
       </c>
       <c r="G34" t="n">
-        <v>-41544.30841664998</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>562.6753</v>
       </c>
       <c r="G35" t="n">
-        <v>-42106.98371664999</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>144.6016</v>
       </c>
       <c r="G36" t="n">
-        <v>-42251.58531664999</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>2499.9998</v>
       </c>
       <c r="G37" t="n">
-        <v>-42251.58531664999</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>16200</v>
       </c>
       <c r="G38" t="n">
-        <v>-26051.58531664999</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>16972.6793</v>
       </c>
       <c r="G39" t="n">
-        <v>-43024.26461664999</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>6439.36405132</v>
       </c>
       <c r="G40" t="n">
-        <v>-36584.90056532999</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>644.2188</v>
       </c>
       <c r="G41" t="n">
-        <v>-37229.11936532999</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>279.519</v>
       </c>
       <c r="G42" t="n">
-        <v>-37508.63836532999</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>2313.9893</v>
       </c>
       <c r="G43" t="n">
-        <v>-39822.62766532999</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>19100.5832</v>
       </c>
       <c r="G44" t="n">
-        <v>-39822.62766532999</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>38095</v>
       </c>
       <c r="G45" t="n">
-        <v>-39822.62766532999</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>72000</v>
       </c>
       <c r="G46" t="n">
-        <v>-39822.62766532999</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>2252.0251</v>
       </c>
       <c r="G47" t="n">
-        <v>-37570.60256532999</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>3078.1847</v>
       </c>
       <c r="G48" t="n">
-        <v>-34492.41786533</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>95507.1635</v>
       </c>
       <c r="G49" t="n">
-        <v>-129999.58136533</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>13248</v>
       </c>
       <c r="G50" t="n">
-        <v>-129999.58136533</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>9600</v>
       </c>
       <c r="G51" t="n">
-        <v>-129999.58136533</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>26400</v>
       </c>
       <c r="G52" t="n">
-        <v>-129999.58136533</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>2403.1518</v>
       </c>
       <c r="G53" t="n">
-        <v>-129999.58136533</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>122329.9394</v>
       </c>
       <c r="G54" t="n">
-        <v>-129999.58136533</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,21 @@
         <v>3577.135</v>
       </c>
       <c r="G55" t="n">
-        <v>-126422.44636533</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2069,19 @@
         <v>149022.3673</v>
       </c>
       <c r="G56" t="n">
-        <v>-275444.81366533</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2103,19 @@
         <v>45540.8704</v>
       </c>
       <c r="G57" t="n">
-        <v>-275444.81366533</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2137,19 @@
         <v>24991.5633</v>
       </c>
       <c r="G58" t="n">
-        <v>-275444.81366533</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2171,21 @@
         <v>7975.2183</v>
       </c>
       <c r="G59" t="n">
-        <v>-267469.59536533</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2207,21 @@
         <v>52864.681</v>
       </c>
       <c r="G60" t="n">
-        <v>-214604.91436533</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>41.61</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2243,21 @@
         <v>108107.5499</v>
       </c>
       <c r="G61" t="n">
-        <v>-214604.91436533</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>41.72</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2279,19 @@
         <v>140.9416</v>
       </c>
       <c r="G62" t="n">
-        <v>-214463.97276533</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2313,21 @@
         <v>4848.2024</v>
       </c>
       <c r="G63" t="n">
-        <v>-219312.17516533</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>41.74</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2349,19 @@
         <v>51.5103</v>
       </c>
       <c r="G64" t="n">
-        <v>-219260.66486533</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2383,19 @@
         <v>6824.9754</v>
       </c>
       <c r="G65" t="n">
-        <v>-226085.64026533</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2417,19 @@
         <v>99.02119999999999</v>
       </c>
       <c r="G66" t="n">
-        <v>-225986.61906533</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2451,19 @@
         <v>13584.5575</v>
       </c>
       <c r="G67" t="n">
-        <v>-239571.17656533</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2485,19 @@
         <v>2796.6534</v>
       </c>
       <c r="G68" t="n">
-        <v>-239571.17656533</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2519,19 @@
         <v>112792.1201</v>
       </c>
       <c r="G69" t="n">
-        <v>-126779.05646533</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2553,19 @@
         <v>5362.6411</v>
       </c>
       <c r="G70" t="n">
-        <v>-132141.69756533</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2587,19 @@
         <v>3922.6322</v>
       </c>
       <c r="G71" t="n">
-        <v>-128219.0653653301</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2621,19 @@
         <v>1214.0304</v>
       </c>
       <c r="G72" t="n">
-        <v>-128219.0653653301</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2655,19 @@
         <v>3922.6322</v>
       </c>
       <c r="G73" t="n">
-        <v>-132141.69756533</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2689,19 @@
         <v>16383.604</v>
       </c>
       <c r="G74" t="n">
-        <v>-115758.0935653301</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2723,19 @@
         <v>3717</v>
       </c>
       <c r="G75" t="n">
-        <v>-112041.0935653301</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2757,19 @@
         <v>1995</v>
       </c>
       <c r="G76" t="n">
-        <v>-114036.0935653301</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2791,19 @@
         <v>1202.6899</v>
       </c>
       <c r="G77" t="n">
-        <v>-115238.7834653301</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2825,19 @@
         <v>7669.2344</v>
       </c>
       <c r="G78" t="n">
-        <v>-107569.5490653301</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2859,19 @@
         <v>2374.3689</v>
       </c>
       <c r="G79" t="n">
-        <v>-109943.9179653301</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2893,19 @@
         <v>1395.8465</v>
       </c>
       <c r="G80" t="n">
-        <v>-111339.7644653301</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2927,19 @@
         <v>10596.4667</v>
       </c>
       <c r="G81" t="n">
-        <v>-121936.2311653301</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2961,19 @@
         <v>7559.9932</v>
       </c>
       <c r="G82" t="n">
-        <v>-114376.2379653301</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2995,19 @@
         <v>21970.517</v>
       </c>
       <c r="G83" t="n">
-        <v>-136346.7549653301</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3029,19 @@
         <v>1079.0449</v>
       </c>
       <c r="G84" t="n">
-        <v>-135267.7100653301</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3063,19 @@
         <v>1652.6237</v>
       </c>
       <c r="G85" t="n">
-        <v>-136920.3337653301</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3097,19 @@
         <v>33.8699</v>
       </c>
       <c r="G86" t="n">
-        <v>-136886.4638653301</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3131,19 @@
         <v>59.99043977</v>
       </c>
       <c r="G87" t="n">
-        <v>-136946.4543051001</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3165,19 @@
         <v>34.99043977</v>
       </c>
       <c r="G88" t="n">
-        <v>-136946.4543051001</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3199,19 @@
         <v>4033.6067</v>
       </c>
       <c r="G89" t="n">
-        <v>-140980.0610051001</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3233,19 @@
         <v>51.1538</v>
       </c>
       <c r="G90" t="n">
-        <v>-140928.9072051001</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3267,19 @@
         <v>25.5769</v>
       </c>
       <c r="G91" t="n">
-        <v>-140928.9072051001</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3301,19 @@
         <v>230</v>
       </c>
       <c r="G92" t="n">
-        <v>-140698.9072051001</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3335,19 @@
         <v>1693</v>
       </c>
       <c r="G93" t="n">
-        <v>-140698.9072051001</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3369,19 @@
         <v>1036.9515</v>
       </c>
       <c r="G94" t="n">
-        <v>-140698.9072051001</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3403,19 @@
         <v>6024.1666</v>
       </c>
       <c r="G95" t="n">
-        <v>-140698.9072051001</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3437,19 @@
         <v>76.0663</v>
       </c>
       <c r="G96" t="n">
-        <v>-140622.8409051</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3471,19 @@
         <v>1874.9</v>
       </c>
       <c r="G97" t="n">
-        <v>-142497.7409051</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3505,19 @@
         <v>2004.9331</v>
       </c>
       <c r="G98" t="n">
-        <v>-140492.8078051</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3539,19 @@
         <v>154.6792</v>
       </c>
       <c r="G99" t="n">
-        <v>-140492.8078051</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3573,19 @@
         <v>23881.45806749</v>
       </c>
       <c r="G100" t="n">
-        <v>-116611.3497376101</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3607,19 @@
         <v>27481.2048</v>
       </c>
       <c r="G101" t="n">
-        <v>-89130.14493761005</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3641,19 @@
         <v>21230.4244</v>
       </c>
       <c r="G102" t="n">
-        <v>-67899.72053761005</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3675,19 @@
         <v>21852.6187</v>
       </c>
       <c r="G103" t="n">
-        <v>-46047.10183761005</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3709,19 @@
         <v>34570.8066</v>
       </c>
       <c r="G104" t="n">
-        <v>-80617.90843761005</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3743,19 @@
         <v>425.8104</v>
       </c>
       <c r="G105" t="n">
-        <v>-80192.09803761005</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3777,19 @@
         <v>11072.7275</v>
       </c>
       <c r="G106" t="n">
-        <v>-91264.82553761004</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3811,19 @@
         <v>95.79840178000001</v>
       </c>
       <c r="G107" t="n">
-        <v>-91169.02713583004</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3845,19 @@
         <v>96.1905</v>
       </c>
       <c r="G108" t="n">
-        <v>-91265.21763583003</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3879,19 @@
         <v>20.0071</v>
       </c>
       <c r="G109" t="n">
-        <v>-91245.21053583003</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3913,19 @@
         <v>1687.726</v>
       </c>
       <c r="G110" t="n">
-        <v>-92932.93653583003</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3947,19 @@
         <v>45.22767175</v>
       </c>
       <c r="G111" t="n">
-        <v>-92887.70886408002</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3981,19 @@
         <v>21504.5693</v>
       </c>
       <c r="G112" t="n">
-        <v>-114392.27816408</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +4015,19 @@
         <v>15.0989</v>
       </c>
       <c r="G113" t="n">
-        <v>-114377.17926408</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +4049,19 @@
         <v>18177.9966</v>
       </c>
       <c r="G114" t="n">
-        <v>-132555.17586408</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +4083,19 @@
         <v>2318.5768</v>
       </c>
       <c r="G115" t="n">
-        <v>-134873.75266408</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4117,19 @@
         <v>923.2971</v>
       </c>
       <c r="G116" t="n">
-        <v>-133950.45556408</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4151,19 @@
         <v>3428.1275</v>
       </c>
       <c r="G117" t="n">
-        <v>-137378.58306408</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4185,19 @@
         <v>46.742</v>
       </c>
       <c r="G118" t="n">
-        <v>-137331.84106408</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4219,19 @@
         <v>70</v>
       </c>
       <c r="G119" t="n">
-        <v>-137261.84106408</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4253,19 @@
         <v>1905.70982825</v>
       </c>
       <c r="G120" t="n">
-        <v>-137261.84106408</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4287,19 @@
         <v>3604.9707</v>
       </c>
       <c r="G121" t="n">
-        <v>-133656.87036408</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4321,19 @@
         <v>845.0281</v>
       </c>
       <c r="G122" t="n">
-        <v>-132811.84226408</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4355,19 @@
         <v>290.1818</v>
       </c>
       <c r="G123" t="n">
-        <v>-132811.84226408</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4389,19 @@
         <v>5560.8066</v>
       </c>
       <c r="G124" t="n">
-        <v>-132811.84226408</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4423,19 @@
         <v>23274.69</v>
       </c>
       <c r="G125" t="n">
-        <v>-132811.84226408</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4457,19 @@
         <v>31366.6955</v>
       </c>
       <c r="G126" t="n">
-        <v>-101445.14676408</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4491,19 @@
         <v>7668.8</v>
       </c>
       <c r="G127" t="n">
-        <v>-109113.94676408</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4525,19 @@
         <v>44.9318</v>
       </c>
       <c r="G128" t="n">
-        <v>-109069.01496408</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4559,19 @@
         <v>7404.6153</v>
       </c>
       <c r="G129" t="n">
-        <v>-109069.01496408</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4593,19 @@
         <v>7651.2934</v>
       </c>
       <c r="G130" t="n">
-        <v>-101417.72156408</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4627,19 @@
         <v>700.987</v>
       </c>
       <c r="G131" t="n">
-        <v>-102118.70856408</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4661,19 @@
         <v>198.395</v>
       </c>
       <c r="G132" t="n">
-        <v>-102118.70856408</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4695,19 @@
         <v>6699.4182</v>
       </c>
       <c r="G133" t="n">
-        <v>-108818.12676408</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4729,19 @@
         <v>9460.9354</v>
       </c>
       <c r="G134" t="n">
-        <v>-118279.06216408</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4763,19 @@
         <v>1869.90760066</v>
       </c>
       <c r="G135" t="n">
-        <v>-116409.15456342</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4797,19 @@
         <v>25054.9964</v>
       </c>
       <c r="G136" t="n">
-        <v>-141464.15096342</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4831,19 @@
         <v>8619.4154</v>
       </c>
       <c r="G137" t="n">
-        <v>-141464.15096342</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4865,19 @@
         <v>2678.182</v>
       </c>
       <c r="G138" t="n">
-        <v>-144142.33296342</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4899,19 @@
         <v>1156</v>
       </c>
       <c r="G139" t="n">
-        <v>-144142.33296342</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4933,19 @@
         <v>1200.6519</v>
       </c>
       <c r="G140" t="n">
-        <v>-145342.98486342</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4967,19 @@
         <v>1356.5001</v>
       </c>
       <c r="G141" t="n">
-        <v>-143986.48476342</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +5001,19 @@
         <v>833.3</v>
       </c>
       <c r="G142" t="n">
-        <v>-143153.1847634201</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +5035,17 @@
         <v>55271.0546</v>
       </c>
       <c r="G143" t="n">
-        <v>-143153.1847634201</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +5067,15 @@
         <v>200</v>
       </c>
       <c r="G144" t="n">
-        <v>-143153.1847634201</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +5097,15 @@
         <v>911.864</v>
       </c>
       <c r="G145" t="n">
-        <v>-144065.0487634201</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +5127,15 @@
         <v>8634.5735</v>
       </c>
       <c r="G146" t="n">
-        <v>-144065.0487634201</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +5157,15 @@
         <v>24991.5633</v>
       </c>
       <c r="G147" t="n">
-        <v>-169056.6120634201</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +5187,15 @@
         <v>113.8225</v>
       </c>
       <c r="G148" t="n">
-        <v>-168942.7895634201</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +5217,15 @@
         <v>279.9274</v>
       </c>
       <c r="G149" t="n">
-        <v>-168942.7895634201</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +5247,15 @@
         <v>1504.6514</v>
       </c>
       <c r="G150" t="n">
-        <v>-170447.4409634201</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +5277,15 @@
         <v>150.3616</v>
       </c>
       <c r="G151" t="n">
-        <v>-170297.0793634201</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +5307,15 @@
         <v>8075.5466</v>
       </c>
       <c r="G152" t="n">
-        <v>-178372.6259634201</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5337,15 @@
         <v>133.1043</v>
       </c>
       <c r="G153" t="n">
-        <v>-178239.52166342</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5367,15 @@
         <v>1287.9753</v>
       </c>
       <c r="G154" t="n">
-        <v>-179527.49696342</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5397,15 @@
         <v>4800</v>
       </c>
       <c r="G155" t="n">
-        <v>-184327.49696342</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5427,15 @@
         <v>630.7853</v>
       </c>
       <c r="G156" t="n">
-        <v>-183696.7116634201</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5457,15 @@
         <v>232.859</v>
       </c>
       <c r="G157" t="n">
-        <v>-183929.57066342</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5487,15 @@
         <v>39.1102</v>
       </c>
       <c r="G158" t="n">
-        <v>-183890.4604634201</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5517,15 @@
         <v>4148.3075</v>
       </c>
       <c r="G159" t="n">
-        <v>-188038.76796342</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5547,15 @@
         <v>8994.395</v>
       </c>
       <c r="G160" t="n">
-        <v>-197033.16296342</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5577,15 @@
         <v>1982.3576</v>
       </c>
       <c r="G161" t="n">
-        <v>-197033.16296342</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5607,15 @@
         <v>1051.31</v>
       </c>
       <c r="G162" t="n">
-        <v>-197033.16296342</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5637,15 @@
         <v>6678.5139</v>
       </c>
       <c r="G163" t="n">
-        <v>-197033.16296342</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5667,15 @@
         <v>1745.5763</v>
       </c>
       <c r="G164" t="n">
-        <v>-197033.16296342</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5697,15 @@
         <v>1834.5137</v>
       </c>
       <c r="G165" t="n">
-        <v>-195198.64926342</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5727,15 @@
         <v>949.3819999999999</v>
       </c>
       <c r="G166" t="n">
-        <v>-196148.03126342</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5757,15 @@
         <v>108425.1398</v>
       </c>
       <c r="G167" t="n">
-        <v>-196148.03126342</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5787,15 @@
         <v>1645.3518</v>
       </c>
       <c r="G168" t="n">
-        <v>-194502.67946342</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5817,15 @@
         <v>5990.7919</v>
       </c>
       <c r="G169" t="n">
-        <v>-200493.47136342</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5847,15 @@
         <v>949.3819999999999</v>
       </c>
       <c r="G170" t="n">
-        <v>-201442.8533634201</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5877,15 @@
         <v>181675.3545</v>
       </c>
       <c r="G171" t="n">
-        <v>-383118.20786342</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5907,15 @@
         <v>154.7521</v>
       </c>
       <c r="G172" t="n">
-        <v>-382963.45576342</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5937,15 @@
         <v>54845.2478</v>
       </c>
       <c r="G173" t="n">
-        <v>-328118.20796342</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5967,15 @@
         <v>300</v>
       </c>
       <c r="G174" t="n">
-        <v>-328418.20796342</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5997,15 @@
         <v>223.0235</v>
       </c>
       <c r="G175" t="n">
-        <v>-328195.18446342</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +6027,15 @@
         <v>5574.2722</v>
       </c>
       <c r="G176" t="n">
-        <v>-328195.18446342</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +6057,15 @@
         <v>4425.7278</v>
       </c>
       <c r="G177" t="n">
-        <v>-328195.18446342</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +6087,15 @@
         <v>11783.8851</v>
       </c>
       <c r="G178" t="n">
-        <v>-339979.06956342</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +6117,15 @@
         <v>18080.1925</v>
       </c>
       <c r="G179" t="n">
-        <v>-321898.87706342</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +6147,15 @@
         <v>2181.0251</v>
       </c>
       <c r="G180" t="n">
-        <v>-319717.85196342</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +6177,15 @@
         <v>1243.6143</v>
       </c>
       <c r="G181" t="n">
-        <v>-320961.46626342</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +6207,15 @@
         <v>930.2987000000001</v>
       </c>
       <c r="G182" t="n">
-        <v>-320961.46626342</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +6237,15 @@
         <v>49.3345</v>
       </c>
       <c r="G183" t="n">
-        <v>-320912.13176342</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +6267,15 @@
         <v>81.77946048</v>
       </c>
       <c r="G184" t="n">
-        <v>-320993.9112239</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +6297,15 @@
         <v>8729.197399999999</v>
       </c>
       <c r="G185" t="n">
-        <v>-329723.1086239</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +6327,15 @@
         <v>250</v>
       </c>
       <c r="G186" t="n">
-        <v>-329473.1086239</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +6357,15 @@
         <v>50</v>
       </c>
       <c r="G187" t="n">
-        <v>-329473.1086239</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6387,15 @@
         <v>3107.4798</v>
       </c>
       <c r="G188" t="n">
-        <v>-332580.5884239</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6417,15 @@
         <v>12811.976</v>
       </c>
       <c r="G189" t="n">
-        <v>-332580.5884239</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6447,15 @@
         <v>200</v>
       </c>
       <c r="G190" t="n">
-        <v>-332780.5884239</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6477,15 @@
         <v>1140</v>
       </c>
       <c r="G191" t="n">
-        <v>-331640.5884239</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6507,15 @@
         <v>150</v>
       </c>
       <c r="G192" t="n">
-        <v>-331490.5884239</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6537,15 @@
         <v>148.3543</v>
       </c>
       <c r="G193" t="n">
-        <v>-331490.5884239</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6567,15 @@
         <v>944.3635</v>
       </c>
       <c r="G194" t="n">
-        <v>-332434.9519238999</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6597,15 @@
         <v>120.934</v>
       </c>
       <c r="G195" t="n">
-        <v>-332434.9519238999</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6627,15 @@
         <v>645.3538</v>
       </c>
       <c r="G196" t="n">
-        <v>-331789.5981239</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6657,15 @@
         <v>30.1502</v>
       </c>
       <c r="G197" t="n">
-        <v>-331759.4479239</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6687,15 @@
         <v>470.5936</v>
       </c>
       <c r="G198" t="n">
-        <v>-332230.0415239</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6717,15 @@
         <v>22.6162</v>
       </c>
       <c r="G199" t="n">
-        <v>-332207.4253239</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6747,15 @@
         <v>1000</v>
       </c>
       <c r="G200" t="n">
-        <v>-333207.4253239</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6777,15 @@
         <v>10210.1</v>
       </c>
       <c r="G201" t="n">
-        <v>-343417.5253239</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6807,15 @@
         <v>25708.2124</v>
       </c>
       <c r="G202" t="n">
-        <v>-343417.5253239</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6837,15 @@
         <v>2185.7923</v>
       </c>
       <c r="G203" t="n">
-        <v>-345603.3176239</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6867,15 @@
         <v>1153.5666</v>
       </c>
       <c r="G204" t="n">
-        <v>-345603.3176239</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +6897,15 @@
         <v>11697.7336</v>
       </c>
       <c r="G205" t="n">
-        <v>-345603.3176239</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +6927,15 @@
         <v>20722.1</v>
       </c>
       <c r="G206" t="n">
-        <v>-345603.3176239</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +6957,15 @@
         <v>1083.226</v>
       </c>
       <c r="G207" t="n">
-        <v>-346686.5436239</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +6987,15 @@
         <v>38469.3478</v>
       </c>
       <c r="G208" t="n">
-        <v>-385155.8914239</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +7017,15 @@
         <v>2188.1837</v>
       </c>
       <c r="G209" t="n">
-        <v>-387344.0751239</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +7047,15 @@
         <v>15119.5805</v>
       </c>
       <c r="G210" t="n">
-        <v>-402463.6556238999</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +7077,15 @@
         <v>11760.1059</v>
       </c>
       <c r="G211" t="n">
-        <v>-402463.6556238999</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +7107,15 @@
         <v>5774.2442</v>
       </c>
       <c r="G212" t="n">
-        <v>-408237.8998239</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +7137,15 @@
         <v>15037.0925</v>
       </c>
       <c r="G213" t="n">
-        <v>-423274.9923239</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +7167,15 @@
         <v>12</v>
       </c>
       <c r="G214" t="n">
-        <v>-423262.9923239</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +7197,15 @@
         <v>5494.7381</v>
       </c>
       <c r="G215" t="n">
-        <v>-423262.9923239</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +7227,15 @@
         <v>6046.8551</v>
       </c>
       <c r="G216" t="n">
-        <v>-429309.8474239</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,18 +7257,15 @@
         <v>5102.6773</v>
       </c>
       <c r="G217" t="n">
-        <v>-424207.1701239</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7576,18 +7287,15 @@
         <v>1849.9999</v>
       </c>
       <c r="G218" t="n">
-        <v>-422357.1702239</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7609,18 +7317,15 @@
         <v>21.5312</v>
       </c>
       <c r="G219" t="n">
-        <v>-422335.6390239</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7642,18 +7347,15 @@
         <v>4317.6953</v>
       </c>
       <c r="G220" t="n">
-        <v>-426653.3343239</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7675,18 +7377,15 @@
         <v>974.0229</v>
       </c>
       <c r="G221" t="n">
-        <v>-425679.3114239</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7708,18 +7407,15 @@
         <v>4214.9109</v>
       </c>
       <c r="G222" t="n">
-        <v>-425679.3114239</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7741,18 +7437,15 @@
         <v>10000</v>
       </c>
       <c r="G223" t="n">
-        <v>-435679.3114239</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7774,18 +7467,15 @@
         <v>1957.9842</v>
       </c>
       <c r="G224" t="n">
-        <v>-433721.3272239</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7807,18 +7497,15 @@
         <v>20000</v>
       </c>
       <c r="G225" t="n">
-        <v>-453721.3272239</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7840,18 +7527,15 @@
         <v>9489.9256</v>
       </c>
       <c r="G226" t="n">
-        <v>-463211.2528239</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7873,18 +7557,15 @@
         <v>11278.3316</v>
       </c>
       <c r="G227" t="n">
-        <v>-451932.9212239</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7906,18 +7587,15 @@
         <v>6846.809</v>
       </c>
       <c r="G228" t="n">
-        <v>-445086.1122239</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7939,18 +7617,15 @@
         <v>719.3108</v>
       </c>
       <c r="G229" t="n">
-        <v>-444366.8014239001</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7972,18 +7647,15 @@
         <v>35993.007</v>
       </c>
       <c r="G230" t="n">
-        <v>-408373.7944239001</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8005,18 +7677,15 @@
         <v>28967.6842</v>
       </c>
       <c r="G231" t="n">
-        <v>-437341.4786239001</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8038,18 +7707,15 @@
         <v>10410.7072</v>
       </c>
       <c r="G232" t="n">
-        <v>-426930.7714239001</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8071,18 +7737,15 @@
         <v>26900</v>
       </c>
       <c r="G233" t="n">
-        <v>-426930.7714239001</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8104,18 +7767,15 @@
         <v>32848.5014</v>
       </c>
       <c r="G234" t="n">
-        <v>-394082.2700239001</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8137,18 +7797,15 @@
         <v>20862.7299</v>
       </c>
       <c r="G235" t="n">
-        <v>-394082.2700239001</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8170,18 +7827,15 @@
         <v>3065.4555</v>
       </c>
       <c r="G236" t="n">
-        <v>-394082.2700239001</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8203,18 +7857,15 @@
         <v>2909.2914</v>
       </c>
       <c r="G237" t="n">
-        <v>-396991.5614239001</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8236,18 +7887,15 @@
         <v>17.0495</v>
       </c>
       <c r="G238" t="n">
-        <v>-396974.5119239</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8269,18 +7917,15 @@
         <v>1159.8059</v>
       </c>
       <c r="G239" t="n">
-        <v>-396974.5119239</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8302,18 +7947,15 @@
         <v>1260</v>
       </c>
       <c r="G240" t="n">
-        <v>-398234.5119239</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8335,18 +7977,15 @@
         <v>30</v>
       </c>
       <c r="G241" t="n">
-        <v>-398204.5119239</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8368,18 +8007,15 @@
         <v>5208.1806</v>
       </c>
       <c r="G242" t="n">
-        <v>-403412.6925239001</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8401,18 +8037,15 @@
         <v>9832.8673</v>
       </c>
       <c r="G243" t="n">
-        <v>-413245.5598239001</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8434,18 +8067,15 @@
         <v>1715.4098</v>
       </c>
       <c r="G244" t="n">
-        <v>-411530.1500239</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8467,18 +8097,15 @@
         <v>856.9</v>
       </c>
       <c r="G245" t="n">
-        <v>-412387.0500239001</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8500,18 +8127,15 @@
         <v>1220.7388</v>
       </c>
       <c r="G246" t="n">
-        <v>-411166.3112239001</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8533,18 +8157,15 @@
         <v>140664.5608</v>
       </c>
       <c r="G247" t="n">
-        <v>-551830.8720239</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8566,18 +8187,15 @@
         <v>818.6161</v>
       </c>
       <c r="G248" t="n">
-        <v>-551012.2559239001</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8599,18 +8217,15 @@
         <v>1715.4098</v>
       </c>
       <c r="G249" t="n">
-        <v>-549296.8461239</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8632,18 +8247,15 @@
         <v>3350.7897</v>
       </c>
       <c r="G250" t="n">
-        <v>-552647.6358239</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8665,18 +8277,15 @@
         <v>25.7222</v>
       </c>
       <c r="G251" t="n">
-        <v>-552621.9136239</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8698,18 +8307,15 @@
         <v>1241.997</v>
       </c>
       <c r="G252" t="n">
-        <v>-552621.9136239</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8731,18 +8337,15 @@
         <v>1000</v>
       </c>
       <c r="G253" t="n">
-        <v>-551621.9136239</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8764,18 +8367,15 @@
         <v>65</v>
       </c>
       <c r="G254" t="n">
-        <v>-551621.9136239</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8797,18 +8397,15 @@
         <v>23900.0887</v>
       </c>
       <c r="G255" t="n">
-        <v>-551621.9136239</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8830,18 +8427,15 @@
         <v>843.8883</v>
       </c>
       <c r="G256" t="n">
-        <v>-551621.9136239</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8863,18 +8457,15 @@
         <v>541.3131</v>
       </c>
       <c r="G257" t="n">
-        <v>-552163.2267239001</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -8896,18 +8487,15 @@
         <v>25.7276</v>
       </c>
       <c r="G258" t="n">
-        <v>-552137.4991239001</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -8929,18 +8517,15 @@
         <v>480.0133</v>
       </c>
       <c r="G259" t="n">
-        <v>-552617.5124239001</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -8962,18 +8547,15 @@
         <v>5704.7937</v>
       </c>
       <c r="G260" t="n">
-        <v>-558322.3061239001</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -8995,18 +8577,15 @@
         <v>4282.4803</v>
       </c>
       <c r="G261" t="n">
-        <v>-562604.7864239002</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9028,18 +8607,15 @@
         <v>1280</v>
       </c>
       <c r="G262" t="n">
-        <v>-561324.7864239002</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9061,18 +8637,15 @@
         <v>457.4439</v>
       </c>
       <c r="G263" t="n">
-        <v>-561782.2303239001</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9094,18 +8667,15 @@
         <v>938.4087</v>
       </c>
       <c r="G264" t="n">
-        <v>-561782.2303239001</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9127,18 +8697,15 @@
         <v>1990</v>
       </c>
       <c r="G265" t="n">
-        <v>-563772.2303239001</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9160,22 +8727,15 @@
         <v>1035.2241</v>
       </c>
       <c r="G266" t="n">
-        <v>-562737.0062239001</v>
-      </c>
-      <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>41.67</v>
-      </c>
-      <c r="J266" t="n">
-        <v>41.67</v>
-      </c>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9197,26 +8757,15 @@
         <v>344.7759</v>
       </c>
       <c r="G267" t="n">
-        <v>-562392.2303239001</v>
-      </c>
-      <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="J267" t="n">
-        <v>41.67</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9238,26 +8787,15 @@
         <v>300</v>
       </c>
       <c r="G268" t="n">
-        <v>-562392.2303239001</v>
-      </c>
-      <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>41.82</v>
-      </c>
-      <c r="J268" t="n">
-        <v>41.67</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
